--- a/ShakeRoll_20180315.xlsx
+++ b/ShakeRoll_20180315.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1200" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="ShakeRoll.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -543,8 +543,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -650,7 +652,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -691,6 +693,7 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -731,6 +734,7 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1060,40 +1064,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO988"/>
+  <dimension ref="A1:AO169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF35" sqref="AF35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AO169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="3" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" customWidth="1"/>
-    <col min="7" max="8" width="6.83203125" style="10" customWidth="1"/>
-    <col min="9" max="11" width="14.33203125" style="10" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="10" customWidth="1"/>
-    <col min="14" max="15" width="6.83203125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10" style="10" customWidth="1"/>
-    <col min="17" max="17" width="8" style="17" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="7" customWidth="1"/>
-    <col min="19" max="23" width="8" style="7" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" style="7" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" customWidth="1"/>
-    <col min="26" max="26" width="10.33203125" style="2" customWidth="1"/>
-    <col min="27" max="28" width="11.83203125" customWidth="1"/>
-    <col min="29" max="29" width="8.5" customWidth="1"/>
-    <col min="30" max="31" width="15.33203125" customWidth="1"/>
-    <col min="32" max="32" width="17.33203125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="8.83203125" customWidth="1"/>
-    <col min="34" max="34" width="7" customWidth="1"/>
-    <col min="35" max="39" width="10.83203125" customWidth="1"/>
-    <col min="40" max="40" width="15.33203125" customWidth="1"/>
-    <col min="41" max="41" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
@@ -11518,7 +11495,7 @@
         <v>14.739553170000001</v>
       </c>
     </row>
-    <row r="90" spans="1:41" ht="14" customHeight="1">
+    <row r="90" spans="1:41">
       <c r="A90" s="2">
         <v>20150704</v>
       </c>
@@ -20971,6561 +20948,8 @@
         <v>6.1984908110000001</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
-      <c r="Q170" s="19"/>
-      <c r="S170" s="6"/>
-      <c r="T170" s="6"/>
-      <c r="U170" s="6"/>
-      <c r="V170" s="6"/>
-      <c r="W170" s="6"/>
-    </row>
-    <row r="171" spans="1:41">
-      <c r="Q171" s="19"/>
-      <c r="S171" s="6"/>
-      <c r="T171" s="6"/>
-      <c r="U171" s="6"/>
-      <c r="V171" s="6"/>
-      <c r="W171" s="6"/>
-    </row>
-    <row r="172" spans="1:41">
-      <c r="Q172" s="19"/>
-      <c r="S172" s="6"/>
-      <c r="T172" s="6"/>
-      <c r="U172" s="6"/>
-      <c r="V172" s="6"/>
-      <c r="W172" s="6"/>
-    </row>
-    <row r="173" spans="1:41">
-      <c r="Q173" s="19"/>
-      <c r="S173" s="6"/>
-      <c r="T173" s="6"/>
-      <c r="U173" s="6"/>
-      <c r="V173" s="6"/>
-      <c r="W173" s="6"/>
-    </row>
-    <row r="174" spans="1:41">
-      <c r="Q174" s="19"/>
-      <c r="S174" s="6"/>
-      <c r="T174" s="6"/>
-      <c r="U174" s="6"/>
-      <c r="V174" s="6"/>
-      <c r="W174" s="6"/>
-    </row>
-    <row r="175" spans="1:41">
-      <c r="Q175" s="19"/>
-      <c r="S175" s="6"/>
-      <c r="T175" s="6"/>
-      <c r="U175" s="6"/>
-      <c r="V175" s="6"/>
-      <c r="W175" s="6"/>
-    </row>
-    <row r="176" spans="1:41">
-      <c r="Q176" s="19"/>
-      <c r="S176" s="6"/>
-      <c r="T176" s="6"/>
-      <c r="U176" s="6"/>
-      <c r="V176" s="6"/>
-      <c r="W176" s="6"/>
-    </row>
-    <row r="177" spans="17:23">
-      <c r="Q177" s="19"/>
-      <c r="S177" s="6"/>
-      <c r="T177" s="6"/>
-      <c r="U177" s="6"/>
-      <c r="V177" s="6"/>
-      <c r="W177" s="6"/>
-    </row>
-    <row r="178" spans="17:23">
-      <c r="Q178" s="19"/>
-      <c r="S178" s="6"/>
-      <c r="T178" s="6"/>
-      <c r="U178" s="6"/>
-      <c r="V178" s="6"/>
-      <c r="W178" s="6"/>
-    </row>
-    <row r="179" spans="17:23">
-      <c r="Q179" s="19"/>
-      <c r="S179" s="6"/>
-      <c r="T179" s="6"/>
-      <c r="U179" s="6"/>
-      <c r="V179" s="6"/>
-      <c r="W179" s="6"/>
-    </row>
-    <row r="180" spans="17:23">
-      <c r="Q180" s="19"/>
-      <c r="S180" s="6"/>
-      <c r="T180" s="6"/>
-      <c r="U180" s="6"/>
-      <c r="V180" s="6"/>
-      <c r="W180" s="6"/>
-    </row>
-    <row r="181" spans="17:23">
-      <c r="Q181" s="19"/>
-      <c r="S181" s="6"/>
-      <c r="T181" s="6"/>
-      <c r="U181" s="6"/>
-      <c r="V181" s="6"/>
-      <c r="W181" s="6"/>
-    </row>
-    <row r="182" spans="17:23">
-      <c r="Q182" s="19"/>
-      <c r="S182" s="6"/>
-      <c r="T182" s="6"/>
-      <c r="U182" s="6"/>
-      <c r="V182" s="6"/>
-      <c r="W182" s="6"/>
-    </row>
-    <row r="183" spans="17:23">
-      <c r="Q183" s="19"/>
-      <c r="S183" s="6"/>
-      <c r="T183" s="6"/>
-      <c r="U183" s="6"/>
-      <c r="V183" s="6"/>
-      <c r="W183" s="6"/>
-    </row>
-    <row r="184" spans="17:23">
-      <c r="Q184" s="19"/>
-      <c r="S184" s="6"/>
-      <c r="T184" s="6"/>
-      <c r="U184" s="6"/>
-      <c r="V184" s="6"/>
-      <c r="W184" s="6"/>
-    </row>
-    <row r="185" spans="17:23">
-      <c r="Q185" s="19"/>
-      <c r="S185" s="6"/>
-      <c r="T185" s="6"/>
-      <c r="U185" s="6"/>
-      <c r="V185" s="6"/>
-      <c r="W185" s="6"/>
-    </row>
-    <row r="186" spans="17:23">
-      <c r="Q186" s="19"/>
-      <c r="S186" s="6"/>
-      <c r="T186" s="6"/>
-      <c r="U186" s="6"/>
-      <c r="V186" s="6"/>
-      <c r="W186" s="6"/>
-    </row>
-    <row r="187" spans="17:23">
-      <c r="Q187" s="19"/>
-      <c r="S187" s="6"/>
-      <c r="T187" s="6"/>
-      <c r="U187" s="6"/>
-      <c r="V187" s="6"/>
-      <c r="W187" s="6"/>
-    </row>
-    <row r="188" spans="17:23">
-      <c r="Q188" s="19"/>
-      <c r="S188" s="6"/>
-      <c r="T188" s="6"/>
-      <c r="U188" s="6"/>
-      <c r="V188" s="6"/>
-      <c r="W188" s="6"/>
-    </row>
-    <row r="189" spans="17:23">
-      <c r="Q189" s="19"/>
-      <c r="S189" s="6"/>
-      <c r="T189" s="6"/>
-      <c r="U189" s="6"/>
-      <c r="V189" s="6"/>
-      <c r="W189" s="6"/>
-    </row>
-    <row r="190" spans="17:23">
-      <c r="Q190" s="19"/>
-      <c r="S190" s="6"/>
-      <c r="T190" s="6"/>
-      <c r="U190" s="6"/>
-      <c r="V190" s="6"/>
-      <c r="W190" s="6"/>
-    </row>
-    <row r="191" spans="17:23">
-      <c r="Q191" s="19"/>
-      <c r="S191" s="6"/>
-      <c r="T191" s="6"/>
-      <c r="U191" s="6"/>
-      <c r="V191" s="6"/>
-      <c r="W191" s="6"/>
-    </row>
-    <row r="192" spans="17:23">
-      <c r="Q192" s="19"/>
-      <c r="S192" s="6"/>
-      <c r="T192" s="6"/>
-      <c r="U192" s="6"/>
-      <c r="V192" s="6"/>
-      <c r="W192" s="6"/>
-    </row>
-    <row r="193" spans="17:23">
-      <c r="Q193" s="19"/>
-      <c r="S193" s="6"/>
-      <c r="T193" s="6"/>
-      <c r="U193" s="6"/>
-      <c r="V193" s="6"/>
-      <c r="W193" s="6"/>
-    </row>
-    <row r="194" spans="17:23">
-      <c r="Q194" s="19"/>
-      <c r="S194" s="6"/>
-      <c r="T194" s="6"/>
-      <c r="U194" s="6"/>
-      <c r="V194" s="6"/>
-      <c r="W194" s="6"/>
-    </row>
-    <row r="195" spans="17:23">
-      <c r="Q195" s="19"/>
-      <c r="S195" s="6"/>
-      <c r="T195" s="6"/>
-      <c r="U195" s="6"/>
-      <c r="V195" s="6"/>
-      <c r="W195" s="6"/>
-    </row>
-    <row r="196" spans="17:23">
-      <c r="Q196" s="19"/>
-      <c r="S196" s="6"/>
-      <c r="T196" s="6"/>
-      <c r="U196" s="6"/>
-      <c r="V196" s="6"/>
-      <c r="W196" s="6"/>
-    </row>
-    <row r="197" spans="17:23">
-      <c r="Q197" s="19"/>
-      <c r="S197" s="6"/>
-      <c r="T197" s="6"/>
-      <c r="U197" s="6"/>
-      <c r="V197" s="6"/>
-      <c r="W197" s="6"/>
-    </row>
-    <row r="198" spans="17:23">
-      <c r="Q198" s="19"/>
-      <c r="S198" s="6"/>
-      <c r="T198" s="6"/>
-      <c r="U198" s="6"/>
-      <c r="V198" s="6"/>
-      <c r="W198" s="6"/>
-    </row>
-    <row r="199" spans="17:23">
-      <c r="Q199" s="19"/>
-      <c r="S199" s="6"/>
-      <c r="T199" s="6"/>
-      <c r="U199" s="6"/>
-      <c r="V199" s="6"/>
-      <c r="W199" s="6"/>
-    </row>
-    <row r="200" spans="17:23">
-      <c r="Q200" s="19"/>
-      <c r="S200" s="6"/>
-      <c r="T200" s="6"/>
-      <c r="U200" s="6"/>
-      <c r="V200" s="6"/>
-      <c r="W200" s="6"/>
-    </row>
-    <row r="201" spans="17:23">
-      <c r="Q201" s="19"/>
-      <c r="S201" s="6"/>
-      <c r="T201" s="6"/>
-      <c r="U201" s="6"/>
-      <c r="V201" s="6"/>
-      <c r="W201" s="6"/>
-    </row>
-    <row r="202" spans="17:23">
-      <c r="Q202" s="19"/>
-      <c r="S202" s="6"/>
-      <c r="T202" s="6"/>
-      <c r="U202" s="6"/>
-      <c r="V202" s="6"/>
-      <c r="W202" s="6"/>
-    </row>
-    <row r="203" spans="17:23">
-      <c r="Q203" s="19"/>
-      <c r="S203" s="6"/>
-      <c r="T203" s="6"/>
-      <c r="U203" s="6"/>
-      <c r="V203" s="6"/>
-      <c r="W203" s="6"/>
-    </row>
-    <row r="204" spans="17:23">
-      <c r="Q204" s="19"/>
-      <c r="S204" s="6"/>
-      <c r="T204" s="6"/>
-      <c r="U204" s="6"/>
-      <c r="V204" s="6"/>
-      <c r="W204" s="6"/>
-    </row>
-    <row r="205" spans="17:23">
-      <c r="Q205" s="19"/>
-      <c r="S205" s="6"/>
-      <c r="T205" s="6"/>
-      <c r="U205" s="6"/>
-      <c r="V205" s="6"/>
-      <c r="W205" s="6"/>
-    </row>
-    <row r="206" spans="17:23">
-      <c r="Q206" s="19"/>
-      <c r="S206" s="6"/>
-      <c r="T206" s="6"/>
-      <c r="U206" s="6"/>
-      <c r="V206" s="6"/>
-      <c r="W206" s="6"/>
-    </row>
-    <row r="207" spans="17:23">
-      <c r="Q207" s="19"/>
-      <c r="S207" s="6"/>
-      <c r="T207" s="6"/>
-      <c r="U207" s="6"/>
-      <c r="V207" s="6"/>
-      <c r="W207" s="6"/>
-    </row>
-    <row r="208" spans="17:23">
-      <c r="Q208" s="19"/>
-      <c r="S208" s="6"/>
-      <c r="T208" s="6"/>
-      <c r="U208" s="6"/>
-      <c r="V208" s="6"/>
-      <c r="W208" s="6"/>
-    </row>
-    <row r="209" spans="17:23">
-      <c r="Q209" s="19"/>
-      <c r="S209" s="6"/>
-      <c r="T209" s="6"/>
-      <c r="U209" s="6"/>
-      <c r="V209" s="6"/>
-      <c r="W209" s="6"/>
-    </row>
-    <row r="210" spans="17:23">
-      <c r="Q210" s="19"/>
-      <c r="S210" s="6"/>
-      <c r="T210" s="6"/>
-      <c r="U210" s="6"/>
-      <c r="V210" s="6"/>
-      <c r="W210" s="6"/>
-    </row>
-    <row r="211" spans="17:23">
-      <c r="Q211" s="19"/>
-      <c r="S211" s="6"/>
-      <c r="T211" s="6"/>
-      <c r="U211" s="6"/>
-      <c r="V211" s="6"/>
-      <c r="W211" s="6"/>
-    </row>
-    <row r="212" spans="17:23">
-      <c r="Q212" s="19"/>
-      <c r="S212" s="6"/>
-      <c r="T212" s="6"/>
-      <c r="U212" s="6"/>
-      <c r="V212" s="6"/>
-      <c r="W212" s="6"/>
-    </row>
-    <row r="213" spans="17:23">
-      <c r="Q213" s="19"/>
-      <c r="S213" s="6"/>
-      <c r="T213" s="6"/>
-      <c r="U213" s="6"/>
-      <c r="V213" s="6"/>
-      <c r="W213" s="6"/>
-    </row>
-    <row r="214" spans="17:23">
-      <c r="Q214" s="19"/>
-      <c r="S214" s="6"/>
-      <c r="T214" s="6"/>
-      <c r="U214" s="6"/>
-      <c r="V214" s="6"/>
-      <c r="W214" s="6"/>
-    </row>
-    <row r="215" spans="17:23">
-      <c r="Q215" s="19"/>
-      <c r="S215" s="6"/>
-      <c r="T215" s="6"/>
-      <c r="U215" s="6"/>
-      <c r="V215" s="6"/>
-      <c r="W215" s="6"/>
-    </row>
-    <row r="216" spans="17:23">
-      <c r="Q216" s="19"/>
-      <c r="S216" s="6"/>
-      <c r="T216" s="6"/>
-      <c r="U216" s="6"/>
-      <c r="V216" s="6"/>
-      <c r="W216" s="6"/>
-    </row>
-    <row r="217" spans="17:23">
-      <c r="Q217" s="19"/>
-      <c r="S217" s="6"/>
-      <c r="T217" s="6"/>
-      <c r="U217" s="6"/>
-      <c r="V217" s="6"/>
-      <c r="W217" s="6"/>
-    </row>
-    <row r="218" spans="17:23">
-      <c r="Q218" s="19"/>
-      <c r="S218" s="6"/>
-      <c r="T218" s="6"/>
-      <c r="U218" s="6"/>
-      <c r="V218" s="6"/>
-      <c r="W218" s="6"/>
-    </row>
-    <row r="219" spans="17:23">
-      <c r="Q219" s="19"/>
-      <c r="S219" s="6"/>
-      <c r="T219" s="6"/>
-      <c r="U219" s="6"/>
-      <c r="V219" s="6"/>
-      <c r="W219" s="6"/>
-    </row>
-    <row r="220" spans="17:23">
-      <c r="Q220" s="19"/>
-      <c r="S220" s="6"/>
-      <c r="T220" s="6"/>
-      <c r="U220" s="6"/>
-      <c r="V220" s="6"/>
-      <c r="W220" s="6"/>
-    </row>
-    <row r="221" spans="17:23">
-      <c r="Q221" s="19"/>
-      <c r="S221" s="6"/>
-      <c r="T221" s="6"/>
-      <c r="U221" s="6"/>
-      <c r="V221" s="6"/>
-      <c r="W221" s="6"/>
-    </row>
-    <row r="222" spans="17:23">
-      <c r="Q222" s="19"/>
-      <c r="S222" s="6"/>
-      <c r="T222" s="6"/>
-      <c r="U222" s="6"/>
-      <c r="V222" s="6"/>
-      <c r="W222" s="6"/>
-    </row>
-    <row r="223" spans="17:23">
-      <c r="Q223" s="19"/>
-      <c r="S223" s="6"/>
-      <c r="T223" s="6"/>
-      <c r="U223" s="6"/>
-      <c r="V223" s="6"/>
-      <c r="W223" s="6"/>
-    </row>
-    <row r="224" spans="17:23">
-      <c r="Q224" s="19"/>
-      <c r="S224" s="6"/>
-      <c r="T224" s="6"/>
-      <c r="U224" s="6"/>
-      <c r="V224" s="6"/>
-      <c r="W224" s="6"/>
-    </row>
-    <row r="225" spans="17:23">
-      <c r="Q225" s="19"/>
-      <c r="S225" s="6"/>
-      <c r="T225" s="6"/>
-      <c r="U225" s="6"/>
-      <c r="V225" s="6"/>
-      <c r="W225" s="6"/>
-    </row>
-    <row r="226" spans="17:23">
-      <c r="Q226" s="19"/>
-      <c r="S226" s="6"/>
-      <c r="T226" s="6"/>
-      <c r="U226" s="6"/>
-      <c r="V226" s="6"/>
-      <c r="W226" s="6"/>
-    </row>
-    <row r="227" spans="17:23">
-      <c r="Q227" s="19"/>
-      <c r="S227" s="6"/>
-      <c r="T227" s="6"/>
-      <c r="U227" s="6"/>
-      <c r="V227" s="6"/>
-      <c r="W227" s="6"/>
-    </row>
-    <row r="228" spans="17:23">
-      <c r="Q228" s="19"/>
-      <c r="S228" s="6"/>
-      <c r="T228" s="6"/>
-      <c r="U228" s="6"/>
-      <c r="V228" s="6"/>
-      <c r="W228" s="6"/>
-    </row>
-    <row r="229" spans="17:23">
-      <c r="Q229" s="19"/>
-      <c r="S229" s="6"/>
-      <c r="T229" s="6"/>
-      <c r="U229" s="6"/>
-      <c r="V229" s="6"/>
-      <c r="W229" s="6"/>
-    </row>
-    <row r="230" spans="17:23">
-      <c r="Q230" s="19"/>
-      <c r="S230" s="6"/>
-      <c r="T230" s="6"/>
-      <c r="U230" s="6"/>
-      <c r="V230" s="6"/>
-      <c r="W230" s="6"/>
-    </row>
-    <row r="231" spans="17:23">
-      <c r="Q231" s="19"/>
-      <c r="S231" s="6"/>
-      <c r="T231" s="6"/>
-      <c r="U231" s="6"/>
-      <c r="V231" s="6"/>
-      <c r="W231" s="6"/>
-    </row>
-    <row r="232" spans="17:23">
-      <c r="Q232" s="19"/>
-      <c r="S232" s="6"/>
-      <c r="T232" s="6"/>
-      <c r="U232" s="6"/>
-      <c r="V232" s="6"/>
-      <c r="W232" s="6"/>
-    </row>
-    <row r="233" spans="17:23">
-      <c r="Q233" s="19"/>
-      <c r="S233" s="6"/>
-      <c r="T233" s="6"/>
-      <c r="U233" s="6"/>
-      <c r="V233" s="6"/>
-      <c r="W233" s="6"/>
-    </row>
-    <row r="234" spans="17:23">
-      <c r="Q234" s="19"/>
-      <c r="S234" s="6"/>
-      <c r="T234" s="6"/>
-      <c r="U234" s="6"/>
-      <c r="V234" s="6"/>
-      <c r="W234" s="6"/>
-    </row>
-    <row r="235" spans="17:23">
-      <c r="Q235" s="19"/>
-      <c r="S235" s="6"/>
-      <c r="T235" s="6"/>
-      <c r="U235" s="6"/>
-      <c r="V235" s="6"/>
-      <c r="W235" s="6"/>
-    </row>
-    <row r="236" spans="17:23">
-      <c r="Q236" s="19"/>
-      <c r="S236" s="6"/>
-      <c r="T236" s="6"/>
-      <c r="U236" s="6"/>
-      <c r="V236" s="6"/>
-      <c r="W236" s="6"/>
-    </row>
-    <row r="237" spans="17:23">
-      <c r="Q237" s="19"/>
-      <c r="S237" s="6"/>
-      <c r="T237" s="6"/>
-      <c r="U237" s="6"/>
-      <c r="V237" s="6"/>
-      <c r="W237" s="6"/>
-    </row>
-    <row r="238" spans="17:23">
-      <c r="Q238" s="19"/>
-      <c r="S238" s="6"/>
-      <c r="T238" s="6"/>
-      <c r="U238" s="6"/>
-      <c r="V238" s="6"/>
-      <c r="W238" s="6"/>
-    </row>
-    <row r="239" spans="17:23">
-      <c r="Q239" s="19"/>
-      <c r="S239" s="6"/>
-      <c r="T239" s="6"/>
-      <c r="U239" s="6"/>
-      <c r="V239" s="6"/>
-      <c r="W239" s="6"/>
-    </row>
-    <row r="240" spans="17:23">
-      <c r="Q240" s="19"/>
-      <c r="S240" s="6"/>
-      <c r="T240" s="6"/>
-      <c r="U240" s="6"/>
-      <c r="V240" s="6"/>
-      <c r="W240" s="6"/>
-    </row>
-    <row r="241" spans="17:23">
-      <c r="Q241" s="19"/>
-      <c r="S241" s="6"/>
-      <c r="T241" s="6"/>
-      <c r="U241" s="6"/>
-      <c r="V241" s="6"/>
-      <c r="W241" s="6"/>
-    </row>
-    <row r="242" spans="17:23">
-      <c r="Q242" s="19"/>
-      <c r="S242" s="6"/>
-      <c r="T242" s="6"/>
-      <c r="U242" s="6"/>
-      <c r="V242" s="6"/>
-      <c r="W242" s="6"/>
-    </row>
-    <row r="243" spans="17:23">
-      <c r="Q243" s="19"/>
-      <c r="S243" s="6"/>
-      <c r="T243" s="6"/>
-      <c r="U243" s="6"/>
-      <c r="V243" s="6"/>
-      <c r="W243" s="6"/>
-    </row>
-    <row r="244" spans="17:23">
-      <c r="Q244" s="19"/>
-      <c r="S244" s="6"/>
-      <c r="T244" s="6"/>
-      <c r="U244" s="6"/>
-      <c r="V244" s="6"/>
-      <c r="W244" s="6"/>
-    </row>
-    <row r="245" spans="17:23">
-      <c r="Q245" s="19"/>
-      <c r="S245" s="6"/>
-      <c r="T245" s="6"/>
-      <c r="U245" s="6"/>
-      <c r="V245" s="6"/>
-      <c r="W245" s="6"/>
-    </row>
-    <row r="246" spans="17:23">
-      <c r="Q246" s="19"/>
-      <c r="S246" s="6"/>
-      <c r="T246" s="6"/>
-      <c r="U246" s="6"/>
-      <c r="V246" s="6"/>
-      <c r="W246" s="6"/>
-    </row>
-    <row r="247" spans="17:23">
-      <c r="Q247" s="19"/>
-      <c r="S247" s="6"/>
-      <c r="T247" s="6"/>
-      <c r="U247" s="6"/>
-      <c r="V247" s="6"/>
-      <c r="W247" s="6"/>
-    </row>
-    <row r="248" spans="17:23">
-      <c r="Q248" s="19"/>
-      <c r="S248" s="6"/>
-      <c r="T248" s="6"/>
-      <c r="U248" s="6"/>
-      <c r="V248" s="6"/>
-      <c r="W248" s="6"/>
-    </row>
-    <row r="249" spans="17:23">
-      <c r="Q249" s="19"/>
-      <c r="S249" s="6"/>
-      <c r="T249" s="6"/>
-      <c r="U249" s="6"/>
-      <c r="V249" s="6"/>
-      <c r="W249" s="6"/>
-    </row>
-    <row r="250" spans="17:23">
-      <c r="Q250" s="19"/>
-      <c r="S250" s="6"/>
-      <c r="T250" s="6"/>
-      <c r="U250" s="6"/>
-      <c r="V250" s="6"/>
-      <c r="W250" s="6"/>
-    </row>
-    <row r="251" spans="17:23">
-      <c r="Q251" s="19"/>
-      <c r="S251" s="6"/>
-      <c r="T251" s="6"/>
-      <c r="U251" s="6"/>
-      <c r="V251" s="6"/>
-      <c r="W251" s="6"/>
-    </row>
-    <row r="252" spans="17:23">
-      <c r="Q252" s="19"/>
-      <c r="S252" s="6"/>
-      <c r="T252" s="6"/>
-      <c r="U252" s="6"/>
-      <c r="V252" s="6"/>
-      <c r="W252" s="6"/>
-    </row>
-    <row r="253" spans="17:23">
-      <c r="Q253" s="19"/>
-      <c r="S253" s="6"/>
-      <c r="T253" s="6"/>
-      <c r="U253" s="6"/>
-      <c r="V253" s="6"/>
-      <c r="W253" s="6"/>
-    </row>
-    <row r="254" spans="17:23">
-      <c r="Q254" s="19"/>
-      <c r="S254" s="6"/>
-      <c r="T254" s="6"/>
-      <c r="U254" s="6"/>
-      <c r="V254" s="6"/>
-      <c r="W254" s="6"/>
-    </row>
-    <row r="255" spans="17:23">
-      <c r="Q255" s="19"/>
-      <c r="S255" s="6"/>
-      <c r="T255" s="6"/>
-      <c r="U255" s="6"/>
-      <c r="V255" s="6"/>
-      <c r="W255" s="6"/>
-    </row>
-    <row r="256" spans="17:23">
-      <c r="Q256" s="19"/>
-      <c r="S256" s="6"/>
-      <c r="T256" s="6"/>
-      <c r="U256" s="6"/>
-      <c r="V256" s="6"/>
-      <c r="W256" s="6"/>
-    </row>
-    <row r="257" spans="17:23">
-      <c r="Q257" s="19"/>
-      <c r="S257" s="6"/>
-      <c r="T257" s="6"/>
-      <c r="U257" s="6"/>
-      <c r="V257" s="6"/>
-      <c r="W257" s="6"/>
-    </row>
-    <row r="258" spans="17:23">
-      <c r="Q258" s="19"/>
-      <c r="S258" s="6"/>
-      <c r="T258" s="6"/>
-      <c r="U258" s="6"/>
-      <c r="V258" s="6"/>
-      <c r="W258" s="6"/>
-    </row>
-    <row r="259" spans="17:23">
-      <c r="Q259" s="19"/>
-      <c r="S259" s="6"/>
-      <c r="T259" s="6"/>
-      <c r="U259" s="6"/>
-      <c r="V259" s="6"/>
-      <c r="W259" s="6"/>
-    </row>
-    <row r="260" spans="17:23">
-      <c r="Q260" s="19"/>
-      <c r="S260" s="6"/>
-      <c r="T260" s="6"/>
-      <c r="U260" s="6"/>
-      <c r="V260" s="6"/>
-      <c r="W260" s="6"/>
-    </row>
-    <row r="261" spans="17:23">
-      <c r="Q261" s="19"/>
-      <c r="S261" s="6"/>
-      <c r="T261" s="6"/>
-      <c r="U261" s="6"/>
-      <c r="V261" s="6"/>
-      <c r="W261" s="6"/>
-    </row>
-    <row r="262" spans="17:23">
-      <c r="Q262" s="19"/>
-      <c r="S262" s="6"/>
-      <c r="T262" s="6"/>
-      <c r="U262" s="6"/>
-      <c r="V262" s="6"/>
-      <c r="W262" s="6"/>
-    </row>
-    <row r="263" spans="17:23">
-      <c r="Q263" s="19"/>
-      <c r="S263" s="6"/>
-      <c r="T263" s="6"/>
-      <c r="U263" s="6"/>
-      <c r="V263" s="6"/>
-      <c r="W263" s="6"/>
-    </row>
-    <row r="264" spans="17:23">
-      <c r="Q264" s="19"/>
-      <c r="S264" s="6"/>
-      <c r="T264" s="6"/>
-      <c r="U264" s="6"/>
-      <c r="V264" s="6"/>
-      <c r="W264" s="6"/>
-    </row>
-    <row r="265" spans="17:23">
-      <c r="Q265" s="19"/>
-      <c r="S265" s="6"/>
-      <c r="T265" s="6"/>
-      <c r="U265" s="6"/>
-      <c r="V265" s="6"/>
-      <c r="W265" s="6"/>
-    </row>
-    <row r="266" spans="17:23">
-      <c r="Q266" s="19"/>
-      <c r="S266" s="6"/>
-      <c r="T266" s="6"/>
-      <c r="U266" s="6"/>
-      <c r="V266" s="6"/>
-      <c r="W266" s="6"/>
-    </row>
-    <row r="267" spans="17:23">
-      <c r="Q267" s="19"/>
-      <c r="S267" s="6"/>
-      <c r="T267" s="6"/>
-      <c r="U267" s="6"/>
-      <c r="V267" s="6"/>
-      <c r="W267" s="6"/>
-    </row>
-    <row r="268" spans="17:23">
-      <c r="Q268" s="19"/>
-      <c r="S268" s="6"/>
-      <c r="T268" s="6"/>
-      <c r="U268" s="6"/>
-      <c r="V268" s="6"/>
-      <c r="W268" s="6"/>
-    </row>
-    <row r="269" spans="17:23">
-      <c r="Q269" s="19"/>
-      <c r="S269" s="6"/>
-      <c r="T269" s="6"/>
-      <c r="U269" s="6"/>
-      <c r="V269" s="6"/>
-      <c r="W269" s="6"/>
-    </row>
-    <row r="270" spans="17:23">
-      <c r="Q270" s="19"/>
-      <c r="S270" s="6"/>
-      <c r="T270" s="6"/>
-      <c r="U270" s="6"/>
-      <c r="V270" s="6"/>
-      <c r="W270" s="6"/>
-    </row>
-    <row r="271" spans="17:23">
-      <c r="Q271" s="19"/>
-      <c r="S271" s="6"/>
-      <c r="T271" s="6"/>
-      <c r="U271" s="6"/>
-      <c r="V271" s="6"/>
-      <c r="W271" s="6"/>
-    </row>
-    <row r="272" spans="17:23">
-      <c r="Q272" s="19"/>
-      <c r="S272" s="6"/>
-      <c r="T272" s="6"/>
-      <c r="U272" s="6"/>
-      <c r="V272" s="6"/>
-      <c r="W272" s="6"/>
-    </row>
-    <row r="273" spans="17:23">
-      <c r="Q273" s="19"/>
-      <c r="S273" s="6"/>
-      <c r="T273" s="6"/>
-      <c r="U273" s="6"/>
-      <c r="V273" s="6"/>
-      <c r="W273" s="6"/>
-    </row>
-    <row r="274" spans="17:23">
-      <c r="Q274" s="19"/>
-      <c r="S274" s="6"/>
-      <c r="T274" s="6"/>
-      <c r="U274" s="6"/>
-      <c r="V274" s="6"/>
-      <c r="W274" s="6"/>
-    </row>
-    <row r="275" spans="17:23">
-      <c r="Q275" s="19"/>
-      <c r="S275" s="6"/>
-      <c r="T275" s="6"/>
-      <c r="U275" s="6"/>
-      <c r="V275" s="6"/>
-      <c r="W275" s="6"/>
-    </row>
-    <row r="276" spans="17:23">
-      <c r="Q276" s="19"/>
-      <c r="S276" s="6"/>
-      <c r="T276" s="6"/>
-      <c r="U276" s="6"/>
-      <c r="V276" s="6"/>
-      <c r="W276" s="6"/>
-    </row>
-    <row r="277" spans="17:23">
-      <c r="Q277" s="19"/>
-      <c r="S277" s="6"/>
-      <c r="T277" s="6"/>
-      <c r="U277" s="6"/>
-      <c r="V277" s="6"/>
-      <c r="W277" s="6"/>
-    </row>
-    <row r="278" spans="17:23">
-      <c r="Q278" s="19"/>
-      <c r="S278" s="6"/>
-      <c r="T278" s="6"/>
-      <c r="U278" s="6"/>
-      <c r="V278" s="6"/>
-      <c r="W278" s="6"/>
-    </row>
-    <row r="279" spans="17:23">
-      <c r="Q279" s="19"/>
-      <c r="S279" s="6"/>
-      <c r="T279" s="6"/>
-      <c r="U279" s="6"/>
-      <c r="V279" s="6"/>
-      <c r="W279" s="6"/>
-    </row>
-    <row r="280" spans="17:23">
-      <c r="Q280" s="19"/>
-      <c r="S280" s="6"/>
-      <c r="T280" s="6"/>
-      <c r="U280" s="6"/>
-      <c r="V280" s="6"/>
-      <c r="W280" s="6"/>
-    </row>
-    <row r="281" spans="17:23">
-      <c r="Q281" s="19"/>
-      <c r="S281" s="6"/>
-      <c r="T281" s="6"/>
-      <c r="U281" s="6"/>
-      <c r="V281" s="6"/>
-      <c r="W281" s="6"/>
-    </row>
-    <row r="282" spans="17:23">
-      <c r="Q282" s="19"/>
-      <c r="S282" s="6"/>
-      <c r="T282" s="6"/>
-      <c r="U282" s="6"/>
-      <c r="V282" s="6"/>
-      <c r="W282" s="6"/>
-    </row>
-    <row r="283" spans="17:23">
-      <c r="Q283" s="19"/>
-      <c r="S283" s="6"/>
-      <c r="T283" s="6"/>
-      <c r="U283" s="6"/>
-      <c r="V283" s="6"/>
-      <c r="W283" s="6"/>
-    </row>
-    <row r="284" spans="17:23">
-      <c r="Q284" s="19"/>
-      <c r="S284" s="6"/>
-      <c r="T284" s="6"/>
-      <c r="U284" s="6"/>
-      <c r="V284" s="6"/>
-      <c r="W284" s="6"/>
-    </row>
-    <row r="285" spans="17:23">
-      <c r="Q285" s="19"/>
-      <c r="S285" s="6"/>
-      <c r="T285" s="6"/>
-      <c r="U285" s="6"/>
-      <c r="V285" s="6"/>
-      <c r="W285" s="6"/>
-    </row>
-    <row r="286" spans="17:23">
-      <c r="Q286" s="19"/>
-      <c r="S286" s="6"/>
-      <c r="T286" s="6"/>
-      <c r="U286" s="6"/>
-      <c r="V286" s="6"/>
-      <c r="W286" s="6"/>
-    </row>
-    <row r="287" spans="17:23">
-      <c r="Q287" s="19"/>
-      <c r="S287" s="6"/>
-      <c r="T287" s="6"/>
-      <c r="U287" s="6"/>
-      <c r="V287" s="6"/>
-      <c r="W287" s="6"/>
-    </row>
-    <row r="288" spans="17:23">
-      <c r="Q288" s="19"/>
-      <c r="S288" s="6"/>
-      <c r="T288" s="6"/>
-      <c r="U288" s="6"/>
-      <c r="V288" s="6"/>
-      <c r="W288" s="6"/>
-    </row>
-    <row r="289" spans="17:23">
-      <c r="Q289" s="19"/>
-      <c r="S289" s="6"/>
-      <c r="T289" s="6"/>
-      <c r="U289" s="6"/>
-      <c r="V289" s="6"/>
-      <c r="W289" s="6"/>
-    </row>
-    <row r="290" spans="17:23">
-      <c r="Q290" s="19"/>
-      <c r="S290" s="6"/>
-      <c r="T290" s="6"/>
-      <c r="U290" s="6"/>
-      <c r="V290" s="6"/>
-      <c r="W290" s="6"/>
-    </row>
-    <row r="291" spans="17:23">
-      <c r="Q291" s="19"/>
-      <c r="S291" s="6"/>
-      <c r="T291" s="6"/>
-      <c r="U291" s="6"/>
-      <c r="V291" s="6"/>
-      <c r="W291" s="6"/>
-    </row>
-    <row r="292" spans="17:23">
-      <c r="Q292" s="19"/>
-      <c r="S292" s="6"/>
-      <c r="T292" s="6"/>
-      <c r="U292" s="6"/>
-      <c r="V292" s="6"/>
-      <c r="W292" s="6"/>
-    </row>
-    <row r="293" spans="17:23">
-      <c r="Q293" s="19"/>
-      <c r="S293" s="6"/>
-      <c r="T293" s="6"/>
-      <c r="U293" s="6"/>
-      <c r="V293" s="6"/>
-      <c r="W293" s="6"/>
-    </row>
-    <row r="294" spans="17:23">
-      <c r="Q294" s="19"/>
-      <c r="S294" s="6"/>
-      <c r="T294" s="6"/>
-      <c r="U294" s="6"/>
-      <c r="V294" s="6"/>
-      <c r="W294" s="6"/>
-    </row>
-    <row r="295" spans="17:23">
-      <c r="Q295" s="19"/>
-      <c r="S295" s="6"/>
-      <c r="T295" s="6"/>
-      <c r="U295" s="6"/>
-      <c r="V295" s="6"/>
-      <c r="W295" s="6"/>
-    </row>
-    <row r="296" spans="17:23">
-      <c r="Q296" s="19"/>
-      <c r="S296" s="6"/>
-      <c r="T296" s="6"/>
-      <c r="U296" s="6"/>
-      <c r="V296" s="6"/>
-      <c r="W296" s="6"/>
-    </row>
-    <row r="297" spans="17:23">
-      <c r="Q297" s="19"/>
-      <c r="S297" s="6"/>
-      <c r="T297" s="6"/>
-      <c r="U297" s="6"/>
-      <c r="V297" s="6"/>
-      <c r="W297" s="6"/>
-    </row>
-    <row r="298" spans="17:23">
-      <c r="Q298" s="19"/>
-      <c r="S298" s="6"/>
-      <c r="T298" s="6"/>
-      <c r="U298" s="6"/>
-      <c r="V298" s="6"/>
-      <c r="W298" s="6"/>
-    </row>
-    <row r="299" spans="17:23">
-      <c r="Q299" s="19"/>
-      <c r="S299" s="6"/>
-      <c r="T299" s="6"/>
-      <c r="U299" s="6"/>
-      <c r="V299" s="6"/>
-      <c r="W299" s="6"/>
-    </row>
-    <row r="300" spans="17:23">
-      <c r="Q300" s="19"/>
-      <c r="S300" s="6"/>
-      <c r="T300" s="6"/>
-      <c r="U300" s="6"/>
-      <c r="V300" s="6"/>
-      <c r="W300" s="6"/>
-    </row>
-    <row r="301" spans="17:23">
-      <c r="Q301" s="19"/>
-      <c r="S301" s="6"/>
-      <c r="T301" s="6"/>
-      <c r="U301" s="6"/>
-      <c r="V301" s="6"/>
-      <c r="W301" s="6"/>
-    </row>
-    <row r="302" spans="17:23">
-      <c r="Q302" s="19"/>
-      <c r="S302" s="6"/>
-      <c r="T302" s="6"/>
-      <c r="U302" s="6"/>
-      <c r="V302" s="6"/>
-      <c r="W302" s="6"/>
-    </row>
-    <row r="303" spans="17:23">
-      <c r="Q303" s="19"/>
-      <c r="S303" s="6"/>
-      <c r="T303" s="6"/>
-      <c r="U303" s="6"/>
-      <c r="V303" s="6"/>
-      <c r="W303" s="6"/>
-    </row>
-    <row r="304" spans="17:23">
-      <c r="Q304" s="19"/>
-      <c r="S304" s="6"/>
-      <c r="T304" s="6"/>
-      <c r="U304" s="6"/>
-      <c r="V304" s="6"/>
-      <c r="W304" s="6"/>
-    </row>
-    <row r="305" spans="17:23">
-      <c r="Q305" s="19"/>
-      <c r="S305" s="6"/>
-      <c r="T305" s="6"/>
-      <c r="U305" s="6"/>
-      <c r="V305" s="6"/>
-      <c r="W305" s="6"/>
-    </row>
-    <row r="306" spans="17:23">
-      <c r="Q306" s="19"/>
-      <c r="S306" s="6"/>
-      <c r="T306" s="6"/>
-      <c r="U306" s="6"/>
-      <c r="V306" s="6"/>
-      <c r="W306" s="6"/>
-    </row>
-    <row r="307" spans="17:23">
-      <c r="Q307" s="19"/>
-      <c r="S307" s="6"/>
-      <c r="T307" s="6"/>
-      <c r="U307" s="6"/>
-      <c r="V307" s="6"/>
-      <c r="W307" s="6"/>
-    </row>
-    <row r="308" spans="17:23">
-      <c r="Q308" s="19"/>
-      <c r="S308" s="6"/>
-      <c r="T308" s="6"/>
-      <c r="U308" s="6"/>
-      <c r="V308" s="6"/>
-      <c r="W308" s="6"/>
-    </row>
-    <row r="309" spans="17:23">
-      <c r="Q309" s="19"/>
-      <c r="S309" s="6"/>
-      <c r="T309" s="6"/>
-      <c r="U309" s="6"/>
-      <c r="V309" s="6"/>
-      <c r="W309" s="6"/>
-    </row>
-    <row r="310" spans="17:23">
-      <c r="Q310" s="19"/>
-      <c r="S310" s="6"/>
-      <c r="T310" s="6"/>
-      <c r="U310" s="6"/>
-      <c r="V310" s="6"/>
-      <c r="W310" s="6"/>
-    </row>
-    <row r="311" spans="17:23">
-      <c r="Q311" s="19"/>
-      <c r="S311" s="6"/>
-      <c r="T311" s="6"/>
-      <c r="U311" s="6"/>
-      <c r="V311" s="6"/>
-      <c r="W311" s="6"/>
-    </row>
-    <row r="312" spans="17:23">
-      <c r="Q312" s="19"/>
-      <c r="S312" s="6"/>
-      <c r="T312" s="6"/>
-      <c r="U312" s="6"/>
-      <c r="V312" s="6"/>
-      <c r="W312" s="6"/>
-    </row>
-    <row r="313" spans="17:23">
-      <c r="Q313" s="19"/>
-      <c r="S313" s="6"/>
-      <c r="T313" s="6"/>
-      <c r="U313" s="6"/>
-      <c r="V313" s="6"/>
-      <c r="W313" s="6"/>
-    </row>
-    <row r="314" spans="17:23">
-      <c r="Q314" s="19"/>
-      <c r="S314" s="6"/>
-      <c r="T314" s="6"/>
-      <c r="U314" s="6"/>
-      <c r="V314" s="6"/>
-      <c r="W314" s="6"/>
-    </row>
-    <row r="315" spans="17:23">
-      <c r="Q315" s="19"/>
-      <c r="S315" s="6"/>
-      <c r="T315" s="6"/>
-      <c r="U315" s="6"/>
-      <c r="V315" s="6"/>
-      <c r="W315" s="6"/>
-    </row>
-    <row r="316" spans="17:23">
-      <c r="Q316" s="19"/>
-      <c r="S316" s="6"/>
-      <c r="T316" s="6"/>
-      <c r="U316" s="6"/>
-      <c r="V316" s="6"/>
-      <c r="W316" s="6"/>
-    </row>
-    <row r="317" spans="17:23">
-      <c r="Q317" s="19"/>
-      <c r="S317" s="6"/>
-      <c r="T317" s="6"/>
-      <c r="U317" s="6"/>
-      <c r="V317" s="6"/>
-      <c r="W317" s="6"/>
-    </row>
-    <row r="318" spans="17:23">
-      <c r="Q318" s="19"/>
-      <c r="S318" s="6"/>
-      <c r="T318" s="6"/>
-      <c r="U318" s="6"/>
-      <c r="V318" s="6"/>
-      <c r="W318" s="6"/>
-    </row>
-    <row r="319" spans="17:23">
-      <c r="Q319" s="19"/>
-      <c r="S319" s="6"/>
-      <c r="T319" s="6"/>
-      <c r="U319" s="6"/>
-      <c r="V319" s="6"/>
-      <c r="W319" s="6"/>
-    </row>
-    <row r="320" spans="17:23">
-      <c r="Q320" s="19"/>
-      <c r="S320" s="6"/>
-      <c r="T320" s="6"/>
-      <c r="U320" s="6"/>
-      <c r="V320" s="6"/>
-      <c r="W320" s="6"/>
-    </row>
-    <row r="321" spans="17:23">
-      <c r="Q321" s="19"/>
-      <c r="S321" s="6"/>
-      <c r="T321" s="6"/>
-      <c r="U321" s="6"/>
-      <c r="V321" s="6"/>
-      <c r="W321" s="6"/>
-    </row>
-    <row r="322" spans="17:23">
-      <c r="Q322" s="19"/>
-      <c r="S322" s="6"/>
-      <c r="T322" s="6"/>
-      <c r="U322" s="6"/>
-      <c r="V322" s="6"/>
-      <c r="W322" s="6"/>
-    </row>
-    <row r="323" spans="17:23">
-      <c r="Q323" s="19"/>
-      <c r="S323" s="6"/>
-      <c r="T323" s="6"/>
-      <c r="U323" s="6"/>
-      <c r="V323" s="6"/>
-      <c r="W323" s="6"/>
-    </row>
-    <row r="324" spans="17:23">
-      <c r="Q324" s="19"/>
-      <c r="S324" s="6"/>
-      <c r="T324" s="6"/>
-      <c r="U324" s="6"/>
-      <c r="V324" s="6"/>
-      <c r="W324" s="6"/>
-    </row>
-    <row r="325" spans="17:23">
-      <c r="Q325" s="19"/>
-      <c r="S325" s="6"/>
-      <c r="T325" s="6"/>
-      <c r="U325" s="6"/>
-      <c r="V325" s="6"/>
-      <c r="W325" s="6"/>
-    </row>
-    <row r="326" spans="17:23">
-      <c r="Q326" s="19"/>
-      <c r="S326" s="6"/>
-      <c r="T326" s="6"/>
-      <c r="U326" s="6"/>
-      <c r="V326" s="6"/>
-      <c r="W326" s="6"/>
-    </row>
-    <row r="327" spans="17:23">
-      <c r="Q327" s="19"/>
-      <c r="S327" s="6"/>
-      <c r="T327" s="6"/>
-      <c r="U327" s="6"/>
-      <c r="V327" s="6"/>
-      <c r="W327" s="6"/>
-    </row>
-    <row r="328" spans="17:23">
-      <c r="Q328" s="19"/>
-      <c r="S328" s="6"/>
-      <c r="T328" s="6"/>
-      <c r="U328" s="6"/>
-      <c r="V328" s="6"/>
-      <c r="W328" s="6"/>
-    </row>
-    <row r="329" spans="17:23">
-      <c r="Q329" s="19"/>
-      <c r="S329" s="6"/>
-      <c r="T329" s="6"/>
-      <c r="U329" s="6"/>
-      <c r="V329" s="6"/>
-      <c r="W329" s="6"/>
-    </row>
-    <row r="330" spans="17:23">
-      <c r="Q330" s="19"/>
-      <c r="S330" s="6"/>
-      <c r="T330" s="6"/>
-      <c r="U330" s="6"/>
-      <c r="V330" s="6"/>
-      <c r="W330" s="6"/>
-    </row>
-    <row r="331" spans="17:23">
-      <c r="Q331" s="19"/>
-      <c r="S331" s="6"/>
-      <c r="T331" s="6"/>
-      <c r="U331" s="6"/>
-      <c r="V331" s="6"/>
-      <c r="W331" s="6"/>
-    </row>
-    <row r="332" spans="17:23">
-      <c r="Q332" s="19"/>
-      <c r="S332" s="6"/>
-      <c r="T332" s="6"/>
-      <c r="U332" s="6"/>
-      <c r="V332" s="6"/>
-      <c r="W332" s="6"/>
-    </row>
-    <row r="333" spans="17:23">
-      <c r="Q333" s="19"/>
-      <c r="S333" s="6"/>
-      <c r="T333" s="6"/>
-      <c r="U333" s="6"/>
-      <c r="V333" s="6"/>
-      <c r="W333" s="6"/>
-    </row>
-    <row r="334" spans="17:23">
-      <c r="Q334" s="19"/>
-      <c r="S334" s="6"/>
-      <c r="T334" s="6"/>
-      <c r="U334" s="6"/>
-      <c r="V334" s="6"/>
-      <c r="W334" s="6"/>
-    </row>
-    <row r="335" spans="17:23">
-      <c r="Q335" s="19"/>
-      <c r="S335" s="6"/>
-      <c r="T335" s="6"/>
-      <c r="U335" s="6"/>
-      <c r="V335" s="6"/>
-      <c r="W335" s="6"/>
-    </row>
-    <row r="336" spans="17:23">
-      <c r="Q336" s="19"/>
-      <c r="S336" s="6"/>
-      <c r="T336" s="6"/>
-      <c r="U336" s="6"/>
-      <c r="V336" s="6"/>
-      <c r="W336" s="6"/>
-    </row>
-    <row r="337" spans="17:23">
-      <c r="Q337" s="19"/>
-      <c r="S337" s="6"/>
-      <c r="T337" s="6"/>
-      <c r="U337" s="6"/>
-      <c r="V337" s="6"/>
-      <c r="W337" s="6"/>
-    </row>
-    <row r="338" spans="17:23">
-      <c r="Q338" s="19"/>
-      <c r="S338" s="6"/>
-      <c r="T338" s="6"/>
-      <c r="U338" s="6"/>
-      <c r="V338" s="6"/>
-      <c r="W338" s="6"/>
-    </row>
-    <row r="339" spans="17:23">
-      <c r="Q339" s="19"/>
-      <c r="S339" s="6"/>
-      <c r="T339" s="6"/>
-      <c r="U339" s="6"/>
-      <c r="V339" s="6"/>
-      <c r="W339" s="6"/>
-    </row>
-    <row r="340" spans="17:23">
-      <c r="Q340" s="19"/>
-      <c r="S340" s="6"/>
-      <c r="T340" s="6"/>
-      <c r="U340" s="6"/>
-      <c r="V340" s="6"/>
-      <c r="W340" s="6"/>
-    </row>
-    <row r="341" spans="17:23">
-      <c r="Q341" s="19"/>
-      <c r="S341" s="6"/>
-      <c r="T341" s="6"/>
-      <c r="U341" s="6"/>
-      <c r="V341" s="6"/>
-      <c r="W341" s="6"/>
-    </row>
-    <row r="342" spans="17:23">
-      <c r="Q342" s="19"/>
-      <c r="S342" s="6"/>
-      <c r="T342" s="6"/>
-      <c r="U342" s="6"/>
-      <c r="V342" s="6"/>
-      <c r="W342" s="6"/>
-    </row>
-    <row r="343" spans="17:23">
-      <c r="Q343" s="19"/>
-      <c r="S343" s="6"/>
-      <c r="T343" s="6"/>
-      <c r="U343" s="6"/>
-      <c r="V343" s="6"/>
-      <c r="W343" s="6"/>
-    </row>
-    <row r="344" spans="17:23">
-      <c r="Q344" s="19"/>
-      <c r="S344" s="6"/>
-      <c r="T344" s="6"/>
-      <c r="U344" s="6"/>
-      <c r="V344" s="6"/>
-      <c r="W344" s="6"/>
-    </row>
-    <row r="345" spans="17:23">
-      <c r="Q345" s="19"/>
-      <c r="S345" s="6"/>
-      <c r="T345" s="6"/>
-      <c r="U345" s="6"/>
-      <c r="V345" s="6"/>
-      <c r="W345" s="6"/>
-    </row>
-    <row r="346" spans="17:23">
-      <c r="Q346" s="19"/>
-      <c r="S346" s="6"/>
-      <c r="T346" s="6"/>
-      <c r="U346" s="6"/>
-      <c r="V346" s="6"/>
-      <c r="W346" s="6"/>
-    </row>
-    <row r="347" spans="17:23">
-      <c r="Q347" s="19"/>
-      <c r="S347" s="6"/>
-      <c r="T347" s="6"/>
-      <c r="U347" s="6"/>
-      <c r="V347" s="6"/>
-      <c r="W347" s="6"/>
-    </row>
-    <row r="348" spans="17:23">
-      <c r="Q348" s="19"/>
-      <c r="S348" s="6"/>
-      <c r="T348" s="6"/>
-      <c r="U348" s="6"/>
-      <c r="V348" s="6"/>
-      <c r="W348" s="6"/>
-    </row>
-    <row r="349" spans="17:23">
-      <c r="Q349" s="19"/>
-      <c r="S349" s="6"/>
-      <c r="T349" s="6"/>
-      <c r="U349" s="6"/>
-      <c r="V349" s="6"/>
-      <c r="W349" s="6"/>
-    </row>
-    <row r="350" spans="17:23">
-      <c r="Q350" s="19"/>
-      <c r="S350" s="6"/>
-      <c r="T350" s="6"/>
-      <c r="U350" s="6"/>
-      <c r="V350" s="6"/>
-      <c r="W350" s="6"/>
-    </row>
-    <row r="351" spans="17:23">
-      <c r="Q351" s="19"/>
-      <c r="S351" s="6"/>
-      <c r="T351" s="6"/>
-      <c r="U351" s="6"/>
-      <c r="V351" s="6"/>
-      <c r="W351" s="6"/>
-    </row>
-    <row r="352" spans="17:23">
-      <c r="Q352" s="19"/>
-      <c r="S352" s="6"/>
-      <c r="T352" s="6"/>
-      <c r="U352" s="6"/>
-      <c r="V352" s="6"/>
-      <c r="W352" s="6"/>
-    </row>
-    <row r="353" spans="17:23">
-      <c r="Q353" s="19"/>
-      <c r="S353" s="6"/>
-      <c r="T353" s="6"/>
-      <c r="U353" s="6"/>
-      <c r="V353" s="6"/>
-      <c r="W353" s="6"/>
-    </row>
-    <row r="354" spans="17:23">
-      <c r="Q354" s="19"/>
-      <c r="S354" s="6"/>
-      <c r="T354" s="6"/>
-      <c r="U354" s="6"/>
-      <c r="V354" s="6"/>
-      <c r="W354" s="6"/>
-    </row>
-    <row r="355" spans="17:23">
-      <c r="Q355" s="19"/>
-      <c r="S355" s="6"/>
-      <c r="T355" s="6"/>
-      <c r="U355" s="6"/>
-      <c r="V355" s="6"/>
-      <c r="W355" s="6"/>
-    </row>
-    <row r="356" spans="17:23">
-      <c r="Q356" s="19"/>
-      <c r="S356" s="6"/>
-      <c r="T356" s="6"/>
-      <c r="U356" s="6"/>
-      <c r="V356" s="6"/>
-      <c r="W356" s="6"/>
-    </row>
-    <row r="357" spans="17:23">
-      <c r="Q357" s="19"/>
-      <c r="S357" s="6"/>
-      <c r="T357" s="6"/>
-      <c r="U357" s="6"/>
-      <c r="V357" s="6"/>
-      <c r="W357" s="6"/>
-    </row>
-    <row r="358" spans="17:23">
-      <c r="Q358" s="19"/>
-      <c r="S358" s="6"/>
-      <c r="T358" s="6"/>
-      <c r="U358" s="6"/>
-      <c r="V358" s="6"/>
-      <c r="W358" s="6"/>
-    </row>
-    <row r="359" spans="17:23">
-      <c r="Q359" s="19"/>
-      <c r="S359" s="6"/>
-      <c r="T359" s="6"/>
-      <c r="U359" s="6"/>
-      <c r="V359" s="6"/>
-      <c r="W359" s="6"/>
-    </row>
-    <row r="360" spans="17:23">
-      <c r="Q360" s="19"/>
-      <c r="S360" s="6"/>
-      <c r="T360" s="6"/>
-      <c r="U360" s="6"/>
-      <c r="V360" s="6"/>
-      <c r="W360" s="6"/>
-    </row>
-    <row r="361" spans="17:23">
-      <c r="Q361" s="19"/>
-      <c r="S361" s="6"/>
-      <c r="T361" s="6"/>
-      <c r="U361" s="6"/>
-      <c r="V361" s="6"/>
-      <c r="W361" s="6"/>
-    </row>
-    <row r="362" spans="17:23">
-      <c r="Q362" s="19"/>
-      <c r="S362" s="6"/>
-      <c r="T362" s="6"/>
-      <c r="U362" s="6"/>
-      <c r="V362" s="6"/>
-      <c r="W362" s="6"/>
-    </row>
-    <row r="363" spans="17:23">
-      <c r="Q363" s="19"/>
-      <c r="S363" s="6"/>
-      <c r="T363" s="6"/>
-      <c r="U363" s="6"/>
-      <c r="V363" s="6"/>
-      <c r="W363" s="6"/>
-    </row>
-    <row r="364" spans="17:23">
-      <c r="Q364" s="19"/>
-      <c r="S364" s="6"/>
-      <c r="T364" s="6"/>
-      <c r="U364" s="6"/>
-      <c r="V364" s="6"/>
-      <c r="W364" s="6"/>
-    </row>
-    <row r="365" spans="17:23">
-      <c r="Q365" s="19"/>
-      <c r="S365" s="6"/>
-      <c r="T365" s="6"/>
-      <c r="U365" s="6"/>
-      <c r="V365" s="6"/>
-      <c r="W365" s="6"/>
-    </row>
-    <row r="366" spans="17:23">
-      <c r="Q366" s="19"/>
-      <c r="S366" s="6"/>
-      <c r="T366" s="6"/>
-      <c r="U366" s="6"/>
-      <c r="V366" s="6"/>
-      <c r="W366" s="6"/>
-    </row>
-    <row r="367" spans="17:23">
-      <c r="Q367" s="19"/>
-      <c r="S367" s="6"/>
-      <c r="T367" s="6"/>
-      <c r="U367" s="6"/>
-      <c r="V367" s="6"/>
-      <c r="W367" s="6"/>
-    </row>
-    <row r="368" spans="17:23">
-      <c r="Q368" s="19"/>
-      <c r="S368" s="6"/>
-      <c r="T368" s="6"/>
-      <c r="U368" s="6"/>
-      <c r="V368" s="6"/>
-      <c r="W368" s="6"/>
-    </row>
-    <row r="369" spans="17:23">
-      <c r="Q369" s="19"/>
-      <c r="S369" s="6"/>
-      <c r="T369" s="6"/>
-      <c r="U369" s="6"/>
-      <c r="V369" s="6"/>
-      <c r="W369" s="6"/>
-    </row>
-    <row r="370" spans="17:23">
-      <c r="Q370" s="19"/>
-      <c r="S370" s="6"/>
-      <c r="T370" s="6"/>
-      <c r="U370" s="6"/>
-      <c r="V370" s="6"/>
-      <c r="W370" s="6"/>
-    </row>
-    <row r="371" spans="17:23">
-      <c r="Q371" s="19"/>
-      <c r="S371" s="6"/>
-      <c r="T371" s="6"/>
-      <c r="U371" s="6"/>
-      <c r="V371" s="6"/>
-      <c r="W371" s="6"/>
-    </row>
-    <row r="372" spans="17:23">
-      <c r="Q372" s="19"/>
-      <c r="S372" s="6"/>
-      <c r="T372" s="6"/>
-      <c r="U372" s="6"/>
-      <c r="V372" s="6"/>
-      <c r="W372" s="6"/>
-    </row>
-    <row r="373" spans="17:23">
-      <c r="Q373" s="19"/>
-      <c r="S373" s="6"/>
-      <c r="T373" s="6"/>
-      <c r="U373" s="6"/>
-      <c r="V373" s="6"/>
-      <c r="W373" s="6"/>
-    </row>
-    <row r="374" spans="17:23">
-      <c r="Q374" s="19"/>
-      <c r="S374" s="6"/>
-      <c r="T374" s="6"/>
-      <c r="U374" s="6"/>
-      <c r="V374" s="6"/>
-      <c r="W374" s="6"/>
-    </row>
-    <row r="375" spans="17:23">
-      <c r="Q375" s="19"/>
-      <c r="S375" s="6"/>
-      <c r="T375" s="6"/>
-      <c r="U375" s="6"/>
-      <c r="V375" s="6"/>
-      <c r="W375" s="6"/>
-    </row>
-    <row r="376" spans="17:23">
-      <c r="Q376" s="19"/>
-      <c r="S376" s="6"/>
-      <c r="T376" s="6"/>
-      <c r="U376" s="6"/>
-      <c r="V376" s="6"/>
-      <c r="W376" s="6"/>
-    </row>
-    <row r="377" spans="17:23">
-      <c r="Q377" s="19"/>
-      <c r="S377" s="6"/>
-      <c r="T377" s="6"/>
-      <c r="U377" s="6"/>
-      <c r="V377" s="6"/>
-      <c r="W377" s="6"/>
-    </row>
-    <row r="378" spans="17:23">
-      <c r="Q378" s="19"/>
-      <c r="S378" s="6"/>
-      <c r="T378" s="6"/>
-      <c r="U378" s="6"/>
-      <c r="V378" s="6"/>
-      <c r="W378" s="6"/>
-    </row>
-    <row r="379" spans="17:23">
-      <c r="Q379" s="19"/>
-      <c r="S379" s="6"/>
-      <c r="T379" s="6"/>
-      <c r="U379" s="6"/>
-      <c r="V379" s="6"/>
-      <c r="W379" s="6"/>
-    </row>
-    <row r="380" spans="17:23">
-      <c r="Q380" s="19"/>
-      <c r="S380" s="6"/>
-      <c r="T380" s="6"/>
-      <c r="U380" s="6"/>
-      <c r="V380" s="6"/>
-      <c r="W380" s="6"/>
-    </row>
-    <row r="381" spans="17:23">
-      <c r="Q381" s="19"/>
-      <c r="S381" s="6"/>
-      <c r="T381" s="6"/>
-      <c r="U381" s="6"/>
-      <c r="V381" s="6"/>
-      <c r="W381" s="6"/>
-    </row>
-    <row r="382" spans="17:23">
-      <c r="Q382" s="19"/>
-      <c r="S382" s="6"/>
-      <c r="T382" s="6"/>
-      <c r="U382" s="6"/>
-      <c r="V382" s="6"/>
-      <c r="W382" s="6"/>
-    </row>
-    <row r="383" spans="17:23">
-      <c r="Q383" s="19"/>
-      <c r="S383" s="6"/>
-      <c r="T383" s="6"/>
-      <c r="U383" s="6"/>
-      <c r="V383" s="6"/>
-      <c r="W383" s="6"/>
-    </row>
-    <row r="384" spans="17:23">
-      <c r="Q384" s="19"/>
-      <c r="S384" s="6"/>
-      <c r="T384" s="6"/>
-      <c r="U384" s="6"/>
-      <c r="V384" s="6"/>
-      <c r="W384" s="6"/>
-    </row>
-    <row r="385" spans="17:23">
-      <c r="Q385" s="19"/>
-      <c r="S385" s="6"/>
-      <c r="T385" s="6"/>
-      <c r="U385" s="6"/>
-      <c r="V385" s="6"/>
-      <c r="W385" s="6"/>
-    </row>
-    <row r="386" spans="17:23">
-      <c r="Q386" s="19"/>
-      <c r="S386" s="6"/>
-      <c r="T386" s="6"/>
-      <c r="U386" s="6"/>
-      <c r="V386" s="6"/>
-      <c r="W386" s="6"/>
-    </row>
-    <row r="387" spans="17:23">
-      <c r="Q387" s="19"/>
-      <c r="S387" s="6"/>
-      <c r="T387" s="6"/>
-      <c r="U387" s="6"/>
-      <c r="V387" s="6"/>
-      <c r="W387" s="6"/>
-    </row>
-    <row r="388" spans="17:23">
-      <c r="Q388" s="19"/>
-      <c r="S388" s="6"/>
-      <c r="T388" s="6"/>
-      <c r="U388" s="6"/>
-      <c r="V388" s="6"/>
-      <c r="W388" s="6"/>
-    </row>
-    <row r="389" spans="17:23">
-      <c r="Q389" s="19"/>
-      <c r="S389" s="6"/>
-      <c r="T389" s="6"/>
-      <c r="U389" s="6"/>
-      <c r="V389" s="6"/>
-      <c r="W389" s="6"/>
-    </row>
-    <row r="390" spans="17:23">
-      <c r="Q390" s="19"/>
-      <c r="S390" s="6"/>
-      <c r="T390" s="6"/>
-      <c r="U390" s="6"/>
-      <c r="V390" s="6"/>
-      <c r="W390" s="6"/>
-    </row>
-    <row r="391" spans="17:23">
-      <c r="Q391" s="19"/>
-      <c r="S391" s="6"/>
-      <c r="T391" s="6"/>
-      <c r="U391" s="6"/>
-      <c r="V391" s="6"/>
-      <c r="W391" s="6"/>
-    </row>
-    <row r="392" spans="17:23">
-      <c r="Q392" s="19"/>
-      <c r="S392" s="6"/>
-      <c r="T392" s="6"/>
-      <c r="U392" s="6"/>
-      <c r="V392" s="6"/>
-      <c r="W392" s="6"/>
-    </row>
-    <row r="393" spans="17:23">
-      <c r="Q393" s="19"/>
-      <c r="S393" s="6"/>
-      <c r="T393" s="6"/>
-      <c r="U393" s="6"/>
-      <c r="V393" s="6"/>
-      <c r="W393" s="6"/>
-    </row>
-    <row r="394" spans="17:23">
-      <c r="Q394" s="19"/>
-      <c r="S394" s="6"/>
-      <c r="T394" s="6"/>
-      <c r="U394" s="6"/>
-      <c r="V394" s="6"/>
-      <c r="W394" s="6"/>
-    </row>
-    <row r="395" spans="17:23">
-      <c r="Q395" s="19"/>
-      <c r="S395" s="6"/>
-      <c r="T395" s="6"/>
-      <c r="U395" s="6"/>
-      <c r="V395" s="6"/>
-      <c r="W395" s="6"/>
-    </row>
-    <row r="396" spans="17:23">
-      <c r="Q396" s="19"/>
-      <c r="S396" s="6"/>
-      <c r="T396" s="6"/>
-      <c r="U396" s="6"/>
-      <c r="V396" s="6"/>
-      <c r="W396" s="6"/>
-    </row>
-    <row r="397" spans="17:23">
-      <c r="Q397" s="19"/>
-      <c r="S397" s="6"/>
-      <c r="T397" s="6"/>
-      <c r="U397" s="6"/>
-      <c r="V397" s="6"/>
-      <c r="W397" s="6"/>
-    </row>
-    <row r="398" spans="17:23">
-      <c r="Q398" s="19"/>
-      <c r="S398" s="6"/>
-      <c r="T398" s="6"/>
-      <c r="U398" s="6"/>
-      <c r="V398" s="6"/>
-      <c r="W398" s="6"/>
-    </row>
-    <row r="399" spans="17:23">
-      <c r="Q399" s="19"/>
-      <c r="S399" s="6"/>
-      <c r="T399" s="6"/>
-      <c r="U399" s="6"/>
-      <c r="V399" s="6"/>
-      <c r="W399" s="6"/>
-    </row>
-    <row r="400" spans="17:23">
-      <c r="Q400" s="19"/>
-      <c r="S400" s="6"/>
-      <c r="T400" s="6"/>
-      <c r="U400" s="6"/>
-      <c r="V400" s="6"/>
-      <c r="W400" s="6"/>
-    </row>
-    <row r="401" spans="17:23">
-      <c r="Q401" s="19"/>
-      <c r="S401" s="6"/>
-      <c r="T401" s="6"/>
-      <c r="U401" s="6"/>
-      <c r="V401" s="6"/>
-      <c r="W401" s="6"/>
-    </row>
-    <row r="402" spans="17:23">
-      <c r="Q402" s="19"/>
-      <c r="S402" s="6"/>
-      <c r="T402" s="6"/>
-      <c r="U402" s="6"/>
-      <c r="V402" s="6"/>
-      <c r="W402" s="6"/>
-    </row>
-    <row r="403" spans="17:23">
-      <c r="Q403" s="19"/>
-      <c r="S403" s="6"/>
-      <c r="T403" s="6"/>
-      <c r="U403" s="6"/>
-      <c r="V403" s="6"/>
-      <c r="W403" s="6"/>
-    </row>
-    <row r="404" spans="17:23">
-      <c r="Q404" s="19"/>
-      <c r="S404" s="6"/>
-      <c r="T404" s="6"/>
-      <c r="U404" s="6"/>
-      <c r="V404" s="6"/>
-      <c r="W404" s="6"/>
-    </row>
-    <row r="405" spans="17:23">
-      <c r="Q405" s="19"/>
-      <c r="S405" s="6"/>
-      <c r="T405" s="6"/>
-      <c r="U405" s="6"/>
-      <c r="V405" s="6"/>
-      <c r="W405" s="6"/>
-    </row>
-    <row r="406" spans="17:23">
-      <c r="Q406" s="19"/>
-      <c r="S406" s="6"/>
-      <c r="T406" s="6"/>
-      <c r="U406" s="6"/>
-      <c r="V406" s="6"/>
-      <c r="W406" s="6"/>
-    </row>
-    <row r="407" spans="17:23">
-      <c r="Q407" s="19"/>
-      <c r="S407" s="6"/>
-      <c r="T407" s="6"/>
-      <c r="U407" s="6"/>
-      <c r="V407" s="6"/>
-      <c r="W407" s="6"/>
-    </row>
-    <row r="408" spans="17:23">
-      <c r="Q408" s="19"/>
-      <c r="S408" s="6"/>
-      <c r="T408" s="6"/>
-      <c r="U408" s="6"/>
-      <c r="V408" s="6"/>
-      <c r="W408" s="6"/>
-    </row>
-    <row r="409" spans="17:23">
-      <c r="Q409" s="19"/>
-      <c r="S409" s="6"/>
-      <c r="T409" s="6"/>
-      <c r="U409" s="6"/>
-      <c r="V409" s="6"/>
-      <c r="W409" s="6"/>
-    </row>
-    <row r="410" spans="17:23">
-      <c r="Q410" s="19"/>
-      <c r="S410" s="6"/>
-      <c r="T410" s="6"/>
-      <c r="U410" s="6"/>
-      <c r="V410" s="6"/>
-      <c r="W410" s="6"/>
-    </row>
-    <row r="411" spans="17:23">
-      <c r="Q411" s="19"/>
-      <c r="S411" s="6"/>
-      <c r="T411" s="6"/>
-      <c r="U411" s="6"/>
-      <c r="V411" s="6"/>
-      <c r="W411" s="6"/>
-    </row>
-    <row r="412" spans="17:23">
-      <c r="Q412" s="19"/>
-      <c r="S412" s="6"/>
-      <c r="T412" s="6"/>
-      <c r="U412" s="6"/>
-      <c r="V412" s="6"/>
-      <c r="W412" s="6"/>
-    </row>
-    <row r="413" spans="17:23">
-      <c r="Q413" s="19"/>
-      <c r="S413" s="6"/>
-      <c r="T413" s="6"/>
-      <c r="U413" s="6"/>
-      <c r="V413" s="6"/>
-      <c r="W413" s="6"/>
-    </row>
-    <row r="414" spans="17:23">
-      <c r="Q414" s="19"/>
-      <c r="S414" s="6"/>
-      <c r="T414" s="6"/>
-      <c r="U414" s="6"/>
-      <c r="V414" s="6"/>
-      <c r="W414" s="6"/>
-    </row>
-    <row r="415" spans="17:23">
-      <c r="Q415" s="19"/>
-      <c r="S415" s="6"/>
-      <c r="T415" s="6"/>
-      <c r="U415" s="6"/>
-      <c r="V415" s="6"/>
-      <c r="W415" s="6"/>
-    </row>
-    <row r="416" spans="17:23">
-      <c r="Q416" s="19"/>
-      <c r="S416" s="6"/>
-      <c r="T416" s="6"/>
-      <c r="U416" s="6"/>
-      <c r="V416" s="6"/>
-      <c r="W416" s="6"/>
-    </row>
-    <row r="417" spans="17:23">
-      <c r="Q417" s="19"/>
-      <c r="S417" s="6"/>
-      <c r="T417" s="6"/>
-      <c r="U417" s="6"/>
-      <c r="V417" s="6"/>
-      <c r="W417" s="6"/>
-    </row>
-    <row r="418" spans="17:23">
-      <c r="Q418" s="19"/>
-      <c r="S418" s="6"/>
-      <c r="T418" s="6"/>
-      <c r="U418" s="6"/>
-      <c r="V418" s="6"/>
-      <c r="W418" s="6"/>
-    </row>
-    <row r="419" spans="17:23">
-      <c r="Q419" s="19"/>
-      <c r="S419" s="6"/>
-      <c r="T419" s="6"/>
-      <c r="U419" s="6"/>
-      <c r="V419" s="6"/>
-      <c r="W419" s="6"/>
-    </row>
-    <row r="420" spans="17:23">
-      <c r="Q420" s="19"/>
-      <c r="S420" s="6"/>
-      <c r="T420" s="6"/>
-      <c r="U420" s="6"/>
-      <c r="V420" s="6"/>
-      <c r="W420" s="6"/>
-    </row>
-    <row r="421" spans="17:23">
-      <c r="Q421" s="19"/>
-      <c r="S421" s="6"/>
-      <c r="T421" s="6"/>
-      <c r="U421" s="6"/>
-      <c r="V421" s="6"/>
-      <c r="W421" s="6"/>
-    </row>
-    <row r="422" spans="17:23">
-      <c r="Q422" s="19"/>
-      <c r="S422" s="6"/>
-      <c r="T422" s="6"/>
-      <c r="U422" s="6"/>
-      <c r="V422" s="6"/>
-      <c r="W422" s="6"/>
-    </row>
-    <row r="423" spans="17:23">
-      <c r="Q423" s="19"/>
-      <c r="S423" s="6"/>
-      <c r="T423" s="6"/>
-      <c r="U423" s="6"/>
-      <c r="V423" s="6"/>
-      <c r="W423" s="6"/>
-    </row>
-    <row r="424" spans="17:23">
-      <c r="Q424" s="19"/>
-      <c r="S424" s="6"/>
-      <c r="T424" s="6"/>
-      <c r="U424" s="6"/>
-      <c r="V424" s="6"/>
-      <c r="W424" s="6"/>
-    </row>
-    <row r="425" spans="17:23">
-      <c r="Q425" s="19"/>
-      <c r="S425" s="6"/>
-      <c r="T425" s="6"/>
-      <c r="U425" s="6"/>
-      <c r="V425" s="6"/>
-      <c r="W425" s="6"/>
-    </row>
-    <row r="426" spans="17:23">
-      <c r="Q426" s="19"/>
-      <c r="S426" s="6"/>
-      <c r="T426" s="6"/>
-      <c r="U426" s="6"/>
-      <c r="V426" s="6"/>
-      <c r="W426" s="6"/>
-    </row>
-    <row r="427" spans="17:23">
-      <c r="Q427" s="19"/>
-      <c r="S427" s="6"/>
-      <c r="T427" s="6"/>
-      <c r="U427" s="6"/>
-      <c r="V427" s="6"/>
-      <c r="W427" s="6"/>
-    </row>
-    <row r="428" spans="17:23">
-      <c r="Q428" s="19"/>
-      <c r="S428" s="6"/>
-      <c r="T428" s="6"/>
-      <c r="U428" s="6"/>
-      <c r="V428" s="6"/>
-      <c r="W428" s="6"/>
-    </row>
-    <row r="429" spans="17:23">
-      <c r="Q429" s="19"/>
-      <c r="S429" s="6"/>
-      <c r="T429" s="6"/>
-      <c r="U429" s="6"/>
-      <c r="V429" s="6"/>
-      <c r="W429" s="6"/>
-    </row>
-    <row r="430" spans="17:23">
-      <c r="Q430" s="19"/>
-      <c r="S430" s="6"/>
-      <c r="T430" s="6"/>
-      <c r="U430" s="6"/>
-      <c r="V430" s="6"/>
-      <c r="W430" s="6"/>
-    </row>
-    <row r="431" spans="17:23">
-      <c r="Q431" s="19"/>
-      <c r="S431" s="6"/>
-      <c r="T431" s="6"/>
-      <c r="U431" s="6"/>
-      <c r="V431" s="6"/>
-      <c r="W431" s="6"/>
-    </row>
-    <row r="432" spans="17:23">
-      <c r="Q432" s="19"/>
-      <c r="S432" s="6"/>
-      <c r="T432" s="6"/>
-      <c r="U432" s="6"/>
-      <c r="V432" s="6"/>
-      <c r="W432" s="6"/>
-    </row>
-    <row r="433" spans="17:23">
-      <c r="Q433" s="19"/>
-      <c r="S433" s="6"/>
-      <c r="T433" s="6"/>
-      <c r="U433" s="6"/>
-      <c r="V433" s="6"/>
-      <c r="W433" s="6"/>
-    </row>
-    <row r="434" spans="17:23">
-      <c r="Q434" s="19"/>
-      <c r="S434" s="6"/>
-      <c r="T434" s="6"/>
-      <c r="U434" s="6"/>
-      <c r="V434" s="6"/>
-      <c r="W434" s="6"/>
-    </row>
-    <row r="435" spans="17:23">
-      <c r="Q435" s="19"/>
-      <c r="S435" s="6"/>
-      <c r="T435" s="6"/>
-      <c r="U435" s="6"/>
-      <c r="V435" s="6"/>
-      <c r="W435" s="6"/>
-    </row>
-    <row r="436" spans="17:23">
-      <c r="Q436" s="19"/>
-      <c r="S436" s="6"/>
-      <c r="T436" s="6"/>
-      <c r="U436" s="6"/>
-      <c r="V436" s="6"/>
-      <c r="W436" s="6"/>
-    </row>
-    <row r="437" spans="17:23">
-      <c r="Q437" s="19"/>
-      <c r="S437" s="6"/>
-      <c r="T437" s="6"/>
-      <c r="U437" s="6"/>
-      <c r="V437" s="6"/>
-      <c r="W437" s="6"/>
-    </row>
-    <row r="438" spans="17:23">
-      <c r="Q438" s="19"/>
-      <c r="S438" s="6"/>
-      <c r="T438" s="6"/>
-      <c r="U438" s="6"/>
-      <c r="V438" s="6"/>
-      <c r="W438" s="6"/>
-    </row>
-    <row r="439" spans="17:23">
-      <c r="Q439" s="19"/>
-      <c r="S439" s="6"/>
-      <c r="T439" s="6"/>
-      <c r="U439" s="6"/>
-      <c r="V439" s="6"/>
-      <c r="W439" s="6"/>
-    </row>
-    <row r="440" spans="17:23">
-      <c r="Q440" s="19"/>
-      <c r="S440" s="6"/>
-      <c r="T440" s="6"/>
-      <c r="U440" s="6"/>
-      <c r="V440" s="6"/>
-      <c r="W440" s="6"/>
-    </row>
-    <row r="441" spans="17:23">
-      <c r="Q441" s="19"/>
-      <c r="S441" s="6"/>
-      <c r="T441" s="6"/>
-      <c r="U441" s="6"/>
-      <c r="V441" s="6"/>
-      <c r="W441" s="6"/>
-    </row>
-    <row r="442" spans="17:23">
-      <c r="Q442" s="19"/>
-      <c r="S442" s="6"/>
-      <c r="T442" s="6"/>
-      <c r="U442" s="6"/>
-      <c r="V442" s="6"/>
-      <c r="W442" s="6"/>
-    </row>
-    <row r="443" spans="17:23">
-      <c r="Q443" s="19"/>
-      <c r="S443" s="6"/>
-      <c r="T443" s="6"/>
-      <c r="U443" s="6"/>
-      <c r="V443" s="6"/>
-      <c r="W443" s="6"/>
-    </row>
-    <row r="444" spans="17:23">
-      <c r="Q444" s="19"/>
-      <c r="S444" s="6"/>
-      <c r="T444" s="6"/>
-      <c r="U444" s="6"/>
-      <c r="V444" s="6"/>
-      <c r="W444" s="6"/>
-    </row>
-    <row r="445" spans="17:23">
-      <c r="Q445" s="19"/>
-      <c r="S445" s="6"/>
-      <c r="T445" s="6"/>
-      <c r="U445" s="6"/>
-      <c r="V445" s="6"/>
-      <c r="W445" s="6"/>
-    </row>
-    <row r="446" spans="17:23">
-      <c r="Q446" s="19"/>
-      <c r="S446" s="6"/>
-      <c r="T446" s="6"/>
-      <c r="U446" s="6"/>
-      <c r="V446" s="6"/>
-      <c r="W446" s="6"/>
-    </row>
-    <row r="447" spans="17:23">
-      <c r="Q447" s="19"/>
-      <c r="S447" s="6"/>
-      <c r="T447" s="6"/>
-      <c r="U447" s="6"/>
-      <c r="V447" s="6"/>
-      <c r="W447" s="6"/>
-    </row>
-    <row r="448" spans="17:23">
-      <c r="Q448" s="19"/>
-      <c r="S448" s="6"/>
-      <c r="T448" s="6"/>
-      <c r="U448" s="6"/>
-      <c r="V448" s="6"/>
-      <c r="W448" s="6"/>
-    </row>
-    <row r="449" spans="17:23">
-      <c r="Q449" s="19"/>
-      <c r="S449" s="6"/>
-      <c r="T449" s="6"/>
-      <c r="U449" s="6"/>
-      <c r="V449" s="6"/>
-      <c r="W449" s="6"/>
-    </row>
-    <row r="450" spans="17:23">
-      <c r="Q450" s="19"/>
-      <c r="S450" s="6"/>
-      <c r="T450" s="6"/>
-      <c r="U450" s="6"/>
-      <c r="V450" s="6"/>
-      <c r="W450" s="6"/>
-    </row>
-    <row r="451" spans="17:23">
-      <c r="Q451" s="19"/>
-      <c r="S451" s="6"/>
-      <c r="T451" s="6"/>
-      <c r="U451" s="6"/>
-      <c r="V451" s="6"/>
-      <c r="W451" s="6"/>
-    </row>
-    <row r="452" spans="17:23">
-      <c r="Q452" s="19"/>
-      <c r="S452" s="6"/>
-      <c r="T452" s="6"/>
-      <c r="U452" s="6"/>
-      <c r="V452" s="6"/>
-      <c r="W452" s="6"/>
-    </row>
-    <row r="453" spans="17:23">
-      <c r="Q453" s="19"/>
-      <c r="S453" s="6"/>
-      <c r="T453" s="6"/>
-      <c r="U453" s="6"/>
-      <c r="V453" s="6"/>
-      <c r="W453" s="6"/>
-    </row>
-    <row r="454" spans="17:23">
-      <c r="Q454" s="19"/>
-      <c r="S454" s="6"/>
-      <c r="T454" s="6"/>
-      <c r="U454" s="6"/>
-      <c r="V454" s="6"/>
-      <c r="W454" s="6"/>
-    </row>
-    <row r="455" spans="17:23">
-      <c r="Q455" s="19"/>
-      <c r="S455" s="6"/>
-      <c r="T455" s="6"/>
-      <c r="U455" s="6"/>
-      <c r="V455" s="6"/>
-      <c r="W455" s="6"/>
-    </row>
-    <row r="456" spans="17:23">
-      <c r="Q456" s="19"/>
-      <c r="S456" s="6"/>
-      <c r="T456" s="6"/>
-      <c r="U456" s="6"/>
-      <c r="V456" s="6"/>
-      <c r="W456" s="6"/>
-    </row>
-    <row r="457" spans="17:23">
-      <c r="Q457" s="19"/>
-      <c r="S457" s="6"/>
-      <c r="T457" s="6"/>
-      <c r="U457" s="6"/>
-      <c r="V457" s="6"/>
-      <c r="W457" s="6"/>
-    </row>
-    <row r="458" spans="17:23">
-      <c r="Q458" s="19"/>
-      <c r="S458" s="6"/>
-      <c r="T458" s="6"/>
-      <c r="U458" s="6"/>
-      <c r="V458" s="6"/>
-      <c r="W458" s="6"/>
-    </row>
-    <row r="459" spans="17:23">
-      <c r="Q459" s="19"/>
-      <c r="S459" s="6"/>
-      <c r="T459" s="6"/>
-      <c r="U459" s="6"/>
-      <c r="V459" s="6"/>
-      <c r="W459" s="6"/>
-    </row>
-    <row r="460" spans="17:23">
-      <c r="Q460" s="19"/>
-      <c r="S460" s="6"/>
-      <c r="T460" s="6"/>
-      <c r="U460" s="6"/>
-      <c r="V460" s="6"/>
-      <c r="W460" s="6"/>
-    </row>
-    <row r="461" spans="17:23">
-      <c r="Q461" s="19"/>
-      <c r="S461" s="6"/>
-      <c r="T461" s="6"/>
-      <c r="U461" s="6"/>
-      <c r="V461" s="6"/>
-      <c r="W461" s="6"/>
-    </row>
-    <row r="462" spans="17:23">
-      <c r="Q462" s="19"/>
-      <c r="S462" s="6"/>
-      <c r="T462" s="6"/>
-      <c r="U462" s="6"/>
-      <c r="V462" s="6"/>
-      <c r="W462" s="6"/>
-    </row>
-    <row r="463" spans="17:23">
-      <c r="Q463" s="19"/>
-      <c r="S463" s="6"/>
-      <c r="T463" s="6"/>
-      <c r="U463" s="6"/>
-      <c r="V463" s="6"/>
-      <c r="W463" s="6"/>
-    </row>
-    <row r="464" spans="17:23">
-      <c r="Q464" s="19"/>
-      <c r="S464" s="6"/>
-      <c r="T464" s="6"/>
-      <c r="U464" s="6"/>
-      <c r="V464" s="6"/>
-      <c r="W464" s="6"/>
-    </row>
-    <row r="465" spans="17:23">
-      <c r="Q465" s="19"/>
-      <c r="S465" s="6"/>
-      <c r="T465" s="6"/>
-      <c r="U465" s="6"/>
-      <c r="V465" s="6"/>
-      <c r="W465" s="6"/>
-    </row>
-    <row r="466" spans="17:23">
-      <c r="Q466" s="19"/>
-      <c r="S466" s="6"/>
-      <c r="T466" s="6"/>
-      <c r="U466" s="6"/>
-      <c r="V466" s="6"/>
-      <c r="W466" s="6"/>
-    </row>
-    <row r="467" spans="17:23">
-      <c r="Q467" s="19"/>
-      <c r="S467" s="6"/>
-      <c r="T467" s="6"/>
-      <c r="U467" s="6"/>
-      <c r="V467" s="6"/>
-      <c r="W467" s="6"/>
-    </row>
-    <row r="468" spans="17:23">
-      <c r="Q468" s="19"/>
-      <c r="S468" s="6"/>
-      <c r="T468" s="6"/>
-      <c r="U468" s="6"/>
-      <c r="V468" s="6"/>
-      <c r="W468" s="6"/>
-    </row>
-    <row r="469" spans="17:23">
-      <c r="Q469" s="19"/>
-      <c r="S469" s="6"/>
-      <c r="T469" s="6"/>
-      <c r="U469" s="6"/>
-      <c r="V469" s="6"/>
-      <c r="W469" s="6"/>
-    </row>
-    <row r="470" spans="17:23">
-      <c r="Q470" s="19"/>
-      <c r="S470" s="6"/>
-      <c r="T470" s="6"/>
-      <c r="U470" s="6"/>
-      <c r="V470" s="6"/>
-      <c r="W470" s="6"/>
-    </row>
-    <row r="471" spans="17:23">
-      <c r="Q471" s="19"/>
-      <c r="S471" s="6"/>
-      <c r="T471" s="6"/>
-      <c r="U471" s="6"/>
-      <c r="V471" s="6"/>
-      <c r="W471" s="6"/>
-    </row>
-    <row r="472" spans="17:23">
-      <c r="Q472" s="19"/>
-      <c r="S472" s="6"/>
-      <c r="T472" s="6"/>
-      <c r="U472" s="6"/>
-      <c r="V472" s="6"/>
-      <c r="W472" s="6"/>
-    </row>
-    <row r="473" spans="17:23">
-      <c r="Q473" s="19"/>
-      <c r="S473" s="6"/>
-      <c r="T473" s="6"/>
-      <c r="U473" s="6"/>
-      <c r="V473" s="6"/>
-      <c r="W473" s="6"/>
-    </row>
-    <row r="474" spans="17:23">
-      <c r="Q474" s="19"/>
-      <c r="S474" s="6"/>
-      <c r="T474" s="6"/>
-      <c r="U474" s="6"/>
-      <c r="V474" s="6"/>
-      <c r="W474" s="6"/>
-    </row>
-    <row r="475" spans="17:23">
-      <c r="Q475" s="19"/>
-      <c r="S475" s="6"/>
-      <c r="T475" s="6"/>
-      <c r="U475" s="6"/>
-      <c r="V475" s="6"/>
-      <c r="W475" s="6"/>
-    </row>
-    <row r="476" spans="17:23">
-      <c r="Q476" s="19"/>
-      <c r="S476" s="6"/>
-      <c r="T476" s="6"/>
-      <c r="U476" s="6"/>
-      <c r="V476" s="6"/>
-      <c r="W476" s="6"/>
-    </row>
-    <row r="477" spans="17:23">
-      <c r="Q477" s="19"/>
-      <c r="S477" s="6"/>
-      <c r="T477" s="6"/>
-      <c r="U477" s="6"/>
-      <c r="V477" s="6"/>
-      <c r="W477" s="6"/>
-    </row>
-    <row r="478" spans="17:23">
-      <c r="Q478" s="19"/>
-      <c r="S478" s="6"/>
-      <c r="T478" s="6"/>
-      <c r="U478" s="6"/>
-      <c r="V478" s="6"/>
-      <c r="W478" s="6"/>
-    </row>
-    <row r="479" spans="17:23">
-      <c r="Q479" s="19"/>
-      <c r="S479" s="6"/>
-      <c r="T479" s="6"/>
-      <c r="U479" s="6"/>
-      <c r="V479" s="6"/>
-      <c r="W479" s="6"/>
-    </row>
-    <row r="480" spans="17:23">
-      <c r="Q480" s="19"/>
-      <c r="S480" s="6"/>
-      <c r="T480" s="6"/>
-      <c r="U480" s="6"/>
-      <c r="V480" s="6"/>
-      <c r="W480" s="6"/>
-    </row>
-    <row r="481" spans="17:23">
-      <c r="Q481" s="19"/>
-      <c r="S481" s="6"/>
-      <c r="T481" s="6"/>
-      <c r="U481" s="6"/>
-      <c r="V481" s="6"/>
-      <c r="W481" s="6"/>
-    </row>
-    <row r="482" spans="17:23">
-      <c r="Q482" s="19"/>
-      <c r="S482" s="6"/>
-      <c r="T482" s="6"/>
-      <c r="U482" s="6"/>
-      <c r="V482" s="6"/>
-      <c r="W482" s="6"/>
-    </row>
-    <row r="483" spans="17:23">
-      <c r="Q483" s="19"/>
-      <c r="S483" s="6"/>
-      <c r="T483" s="6"/>
-      <c r="U483" s="6"/>
-      <c r="V483" s="6"/>
-      <c r="W483" s="6"/>
-    </row>
-    <row r="484" spans="17:23">
-      <c r="Q484" s="19"/>
-      <c r="S484" s="6"/>
-      <c r="T484" s="6"/>
-      <c r="U484" s="6"/>
-      <c r="V484" s="6"/>
-      <c r="W484" s="6"/>
-    </row>
-    <row r="485" spans="17:23">
-      <c r="Q485" s="19"/>
-      <c r="S485" s="6"/>
-      <c r="T485" s="6"/>
-      <c r="U485" s="6"/>
-      <c r="V485" s="6"/>
-      <c r="W485" s="6"/>
-    </row>
-    <row r="486" spans="17:23">
-      <c r="Q486" s="19"/>
-      <c r="S486" s="6"/>
-      <c r="T486" s="6"/>
-      <c r="U486" s="6"/>
-      <c r="V486" s="6"/>
-      <c r="W486" s="6"/>
-    </row>
-    <row r="487" spans="17:23">
-      <c r="Q487" s="19"/>
-      <c r="S487" s="6"/>
-      <c r="T487" s="6"/>
-      <c r="U487" s="6"/>
-      <c r="V487" s="6"/>
-      <c r="W487" s="6"/>
-    </row>
-    <row r="488" spans="17:23">
-      <c r="Q488" s="19"/>
-      <c r="S488" s="6"/>
-      <c r="T488" s="6"/>
-      <c r="U488" s="6"/>
-      <c r="V488" s="6"/>
-      <c r="W488" s="6"/>
-    </row>
-    <row r="489" spans="17:23">
-      <c r="Q489" s="19"/>
-      <c r="S489" s="6"/>
-      <c r="T489" s="6"/>
-      <c r="U489" s="6"/>
-      <c r="V489" s="6"/>
-      <c r="W489" s="6"/>
-    </row>
-    <row r="490" spans="17:23">
-      <c r="Q490" s="19"/>
-      <c r="S490" s="6"/>
-      <c r="T490" s="6"/>
-      <c r="U490" s="6"/>
-      <c r="V490" s="6"/>
-      <c r="W490" s="6"/>
-    </row>
-    <row r="491" spans="17:23">
-      <c r="Q491" s="19"/>
-      <c r="S491" s="6"/>
-      <c r="T491" s="6"/>
-      <c r="U491" s="6"/>
-      <c r="V491" s="6"/>
-      <c r="W491" s="6"/>
-    </row>
-    <row r="492" spans="17:23">
-      <c r="Q492" s="19"/>
-      <c r="S492" s="6"/>
-      <c r="T492" s="6"/>
-      <c r="U492" s="6"/>
-      <c r="V492" s="6"/>
-      <c r="W492" s="6"/>
-    </row>
-    <row r="493" spans="17:23">
-      <c r="Q493" s="19"/>
-      <c r="S493" s="6"/>
-      <c r="T493" s="6"/>
-      <c r="U493" s="6"/>
-      <c r="V493" s="6"/>
-      <c r="W493" s="6"/>
-    </row>
-    <row r="494" spans="17:23">
-      <c r="Q494" s="19"/>
-      <c r="S494" s="6"/>
-      <c r="T494" s="6"/>
-      <c r="U494" s="6"/>
-      <c r="V494" s="6"/>
-      <c r="W494" s="6"/>
-    </row>
-    <row r="495" spans="17:23">
-      <c r="Q495" s="19"/>
-      <c r="S495" s="6"/>
-      <c r="T495" s="6"/>
-      <c r="U495" s="6"/>
-      <c r="V495" s="6"/>
-      <c r="W495" s="6"/>
-    </row>
-    <row r="496" spans="17:23">
-      <c r="Q496" s="19"/>
-      <c r="S496" s="6"/>
-      <c r="T496" s="6"/>
-      <c r="U496" s="6"/>
-      <c r="V496" s="6"/>
-      <c r="W496" s="6"/>
-    </row>
-    <row r="497" spans="17:23">
-      <c r="Q497" s="19"/>
-      <c r="S497" s="6"/>
-      <c r="T497" s="6"/>
-      <c r="U497" s="6"/>
-      <c r="V497" s="6"/>
-      <c r="W497" s="6"/>
-    </row>
-    <row r="498" spans="17:23">
-      <c r="Q498" s="19"/>
-      <c r="S498" s="6"/>
-      <c r="T498" s="6"/>
-      <c r="U498" s="6"/>
-      <c r="V498" s="6"/>
-      <c r="W498" s="6"/>
-    </row>
-    <row r="499" spans="17:23">
-      <c r="Q499" s="19"/>
-      <c r="S499" s="6"/>
-      <c r="T499" s="6"/>
-      <c r="U499" s="6"/>
-      <c r="V499" s="6"/>
-      <c r="W499" s="6"/>
-    </row>
-    <row r="500" spans="17:23">
-      <c r="Q500" s="19"/>
-      <c r="S500" s="6"/>
-      <c r="T500" s="6"/>
-      <c r="U500" s="6"/>
-      <c r="V500" s="6"/>
-      <c r="W500" s="6"/>
-    </row>
-    <row r="501" spans="17:23">
-      <c r="Q501" s="19"/>
-      <c r="S501" s="6"/>
-      <c r="T501" s="6"/>
-      <c r="U501" s="6"/>
-      <c r="V501" s="6"/>
-      <c r="W501" s="6"/>
-    </row>
-    <row r="502" spans="17:23">
-      <c r="Q502" s="19"/>
-      <c r="S502" s="6"/>
-      <c r="T502" s="6"/>
-      <c r="U502" s="6"/>
-      <c r="V502" s="6"/>
-      <c r="W502" s="6"/>
-    </row>
-    <row r="503" spans="17:23">
-      <c r="Q503" s="19"/>
-      <c r="S503" s="6"/>
-      <c r="T503" s="6"/>
-      <c r="U503" s="6"/>
-      <c r="V503" s="6"/>
-      <c r="W503" s="6"/>
-    </row>
-    <row r="504" spans="17:23">
-      <c r="Q504" s="19"/>
-      <c r="S504" s="6"/>
-      <c r="T504" s="6"/>
-      <c r="U504" s="6"/>
-      <c r="V504" s="6"/>
-      <c r="W504" s="6"/>
-    </row>
-    <row r="505" spans="17:23">
-      <c r="Q505" s="19"/>
-      <c r="S505" s="6"/>
-      <c r="T505" s="6"/>
-      <c r="U505" s="6"/>
-      <c r="V505" s="6"/>
-      <c r="W505" s="6"/>
-    </row>
-    <row r="506" spans="17:23">
-      <c r="Q506" s="19"/>
-      <c r="S506" s="6"/>
-      <c r="T506" s="6"/>
-      <c r="U506" s="6"/>
-      <c r="V506" s="6"/>
-      <c r="W506" s="6"/>
-    </row>
-    <row r="507" spans="17:23">
-      <c r="Q507" s="19"/>
-      <c r="S507" s="6"/>
-      <c r="T507" s="6"/>
-      <c r="U507" s="6"/>
-      <c r="V507" s="6"/>
-      <c r="W507" s="6"/>
-    </row>
-    <row r="508" spans="17:23">
-      <c r="Q508" s="19"/>
-      <c r="S508" s="6"/>
-      <c r="T508" s="6"/>
-      <c r="U508" s="6"/>
-      <c r="V508" s="6"/>
-      <c r="W508" s="6"/>
-    </row>
-    <row r="509" spans="17:23">
-      <c r="Q509" s="19"/>
-      <c r="S509" s="6"/>
-      <c r="T509" s="6"/>
-      <c r="U509" s="6"/>
-      <c r="V509" s="6"/>
-      <c r="W509" s="6"/>
-    </row>
-    <row r="510" spans="17:23">
-      <c r="Q510" s="19"/>
-      <c r="S510" s="6"/>
-      <c r="T510" s="6"/>
-      <c r="U510" s="6"/>
-      <c r="V510" s="6"/>
-      <c r="W510" s="6"/>
-    </row>
-    <row r="511" spans="17:23">
-      <c r="Q511" s="19"/>
-      <c r="S511" s="6"/>
-      <c r="T511" s="6"/>
-      <c r="U511" s="6"/>
-      <c r="V511" s="6"/>
-      <c r="W511" s="6"/>
-    </row>
-    <row r="512" spans="17:23">
-      <c r="Q512" s="19"/>
-      <c r="S512" s="6"/>
-      <c r="T512" s="6"/>
-      <c r="U512" s="6"/>
-      <c r="V512" s="6"/>
-      <c r="W512" s="6"/>
-    </row>
-    <row r="513" spans="17:23">
-      <c r="Q513" s="19"/>
-      <c r="S513" s="6"/>
-      <c r="T513" s="6"/>
-      <c r="U513" s="6"/>
-      <c r="V513" s="6"/>
-      <c r="W513" s="6"/>
-    </row>
-    <row r="514" spans="17:23">
-      <c r="Q514" s="19"/>
-      <c r="S514" s="6"/>
-      <c r="T514" s="6"/>
-      <c r="U514" s="6"/>
-      <c r="V514" s="6"/>
-      <c r="W514" s="6"/>
-    </row>
-    <row r="515" spans="17:23">
-      <c r="Q515" s="19"/>
-      <c r="S515" s="6"/>
-      <c r="T515" s="6"/>
-      <c r="U515" s="6"/>
-      <c r="V515" s="6"/>
-      <c r="W515" s="6"/>
-    </row>
-    <row r="516" spans="17:23">
-      <c r="Q516" s="19"/>
-      <c r="S516" s="6"/>
-      <c r="T516" s="6"/>
-      <c r="U516" s="6"/>
-      <c r="V516" s="6"/>
-      <c r="W516" s="6"/>
-    </row>
-    <row r="517" spans="17:23">
-      <c r="Q517" s="19"/>
-      <c r="S517" s="6"/>
-      <c r="T517" s="6"/>
-      <c r="U517" s="6"/>
-      <c r="V517" s="6"/>
-      <c r="W517" s="6"/>
-    </row>
-    <row r="518" spans="17:23">
-      <c r="Q518" s="19"/>
-      <c r="S518" s="6"/>
-      <c r="T518" s="6"/>
-      <c r="U518" s="6"/>
-      <c r="V518" s="6"/>
-      <c r="W518" s="6"/>
-    </row>
-    <row r="519" spans="17:23">
-      <c r="Q519" s="19"/>
-      <c r="S519" s="6"/>
-      <c r="T519" s="6"/>
-      <c r="U519" s="6"/>
-      <c r="V519" s="6"/>
-      <c r="W519" s="6"/>
-    </row>
-    <row r="520" spans="17:23">
-      <c r="Q520" s="19"/>
-      <c r="S520" s="6"/>
-      <c r="T520" s="6"/>
-      <c r="U520" s="6"/>
-      <c r="V520" s="6"/>
-      <c r="W520" s="6"/>
-    </row>
-    <row r="521" spans="17:23">
-      <c r="Q521" s="19"/>
-      <c r="S521" s="6"/>
-      <c r="T521" s="6"/>
-      <c r="U521" s="6"/>
-      <c r="V521" s="6"/>
-      <c r="W521" s="6"/>
-    </row>
-    <row r="522" spans="17:23">
-      <c r="Q522" s="19"/>
-      <c r="S522" s="6"/>
-      <c r="T522" s="6"/>
-      <c r="U522" s="6"/>
-      <c r="V522" s="6"/>
-      <c r="W522" s="6"/>
-    </row>
-    <row r="523" spans="17:23">
-      <c r="Q523" s="19"/>
-      <c r="S523" s="6"/>
-      <c r="T523" s="6"/>
-      <c r="U523" s="6"/>
-      <c r="V523" s="6"/>
-      <c r="W523" s="6"/>
-    </row>
-    <row r="524" spans="17:23">
-      <c r="Q524" s="19"/>
-      <c r="S524" s="6"/>
-      <c r="T524" s="6"/>
-      <c r="U524" s="6"/>
-      <c r="V524" s="6"/>
-      <c r="W524" s="6"/>
-    </row>
-    <row r="525" spans="17:23">
-      <c r="Q525" s="19"/>
-      <c r="S525" s="6"/>
-      <c r="T525" s="6"/>
-      <c r="U525" s="6"/>
-      <c r="V525" s="6"/>
-      <c r="W525" s="6"/>
-    </row>
-    <row r="526" spans="17:23">
-      <c r="Q526" s="19"/>
-      <c r="S526" s="6"/>
-      <c r="T526" s="6"/>
-      <c r="U526" s="6"/>
-      <c r="V526" s="6"/>
-      <c r="W526" s="6"/>
-    </row>
-    <row r="527" spans="17:23">
-      <c r="Q527" s="19"/>
-      <c r="S527" s="6"/>
-      <c r="T527" s="6"/>
-      <c r="U527" s="6"/>
-      <c r="V527" s="6"/>
-      <c r="W527" s="6"/>
-    </row>
-    <row r="528" spans="17:23">
-      <c r="Q528" s="19"/>
-      <c r="S528" s="6"/>
-      <c r="T528" s="6"/>
-      <c r="U528" s="6"/>
-      <c r="V528" s="6"/>
-      <c r="W528" s="6"/>
-    </row>
-    <row r="529" spans="17:23">
-      <c r="Q529" s="19"/>
-      <c r="S529" s="6"/>
-      <c r="T529" s="6"/>
-      <c r="U529" s="6"/>
-      <c r="V529" s="6"/>
-      <c r="W529" s="6"/>
-    </row>
-    <row r="530" spans="17:23">
-      <c r="Q530" s="19"/>
-      <c r="S530" s="6"/>
-      <c r="T530" s="6"/>
-      <c r="U530" s="6"/>
-      <c r="V530" s="6"/>
-      <c r="W530" s="6"/>
-    </row>
-    <row r="531" spans="17:23">
-      <c r="Q531" s="19"/>
-      <c r="S531" s="6"/>
-      <c r="T531" s="6"/>
-      <c r="U531" s="6"/>
-      <c r="V531" s="6"/>
-      <c r="W531" s="6"/>
-    </row>
-    <row r="532" spans="17:23">
-      <c r="Q532" s="19"/>
-      <c r="S532" s="6"/>
-      <c r="T532" s="6"/>
-      <c r="U532" s="6"/>
-      <c r="V532" s="6"/>
-      <c r="W532" s="6"/>
-    </row>
-    <row r="533" spans="17:23">
-      <c r="Q533" s="19"/>
-      <c r="S533" s="6"/>
-      <c r="T533" s="6"/>
-      <c r="U533" s="6"/>
-      <c r="V533" s="6"/>
-      <c r="W533" s="6"/>
-    </row>
-    <row r="534" spans="17:23">
-      <c r="Q534" s="19"/>
-      <c r="S534" s="6"/>
-      <c r="T534" s="6"/>
-      <c r="U534" s="6"/>
-      <c r="V534" s="6"/>
-      <c r="W534" s="6"/>
-    </row>
-    <row r="535" spans="17:23">
-      <c r="Q535" s="19"/>
-      <c r="S535" s="6"/>
-      <c r="T535" s="6"/>
-      <c r="U535" s="6"/>
-      <c r="V535" s="6"/>
-      <c r="W535" s="6"/>
-    </row>
-    <row r="536" spans="17:23">
-      <c r="Q536" s="19"/>
-      <c r="S536" s="6"/>
-      <c r="T536" s="6"/>
-      <c r="U536" s="6"/>
-      <c r="V536" s="6"/>
-      <c r="W536" s="6"/>
-    </row>
-    <row r="537" spans="17:23">
-      <c r="Q537" s="19"/>
-      <c r="S537" s="6"/>
-      <c r="T537" s="6"/>
-      <c r="U537" s="6"/>
-      <c r="V537" s="6"/>
-      <c r="W537" s="6"/>
-    </row>
-    <row r="538" spans="17:23">
-      <c r="Q538" s="19"/>
-      <c r="S538" s="6"/>
-      <c r="T538" s="6"/>
-      <c r="U538" s="6"/>
-      <c r="V538" s="6"/>
-      <c r="W538" s="6"/>
-    </row>
-    <row r="539" spans="17:23">
-      <c r="Q539" s="19"/>
-      <c r="S539" s="6"/>
-      <c r="T539" s="6"/>
-      <c r="U539" s="6"/>
-      <c r="V539" s="6"/>
-      <c r="W539" s="6"/>
-    </row>
-    <row r="540" spans="17:23">
-      <c r="Q540" s="19"/>
-      <c r="S540" s="6"/>
-      <c r="T540" s="6"/>
-      <c r="U540" s="6"/>
-      <c r="V540" s="6"/>
-      <c r="W540" s="6"/>
-    </row>
-    <row r="541" spans="17:23">
-      <c r="Q541" s="19"/>
-      <c r="S541" s="6"/>
-      <c r="T541" s="6"/>
-      <c r="U541" s="6"/>
-      <c r="V541" s="6"/>
-      <c r="W541" s="6"/>
-    </row>
-    <row r="542" spans="17:23">
-      <c r="Q542" s="19"/>
-      <c r="S542" s="6"/>
-      <c r="T542" s="6"/>
-      <c r="U542" s="6"/>
-      <c r="V542" s="6"/>
-      <c r="W542" s="6"/>
-    </row>
-    <row r="543" spans="17:23">
-      <c r="Q543" s="19"/>
-      <c r="S543" s="6"/>
-      <c r="T543" s="6"/>
-      <c r="U543" s="6"/>
-      <c r="V543" s="6"/>
-      <c r="W543" s="6"/>
-    </row>
-    <row r="544" spans="17:23">
-      <c r="Q544" s="19"/>
-      <c r="S544" s="6"/>
-      <c r="T544" s="6"/>
-      <c r="U544" s="6"/>
-      <c r="V544" s="6"/>
-      <c r="W544" s="6"/>
-    </row>
-    <row r="545" spans="17:23">
-      <c r="Q545" s="19"/>
-      <c r="S545" s="6"/>
-      <c r="T545" s="6"/>
-      <c r="U545" s="6"/>
-      <c r="V545" s="6"/>
-      <c r="W545" s="6"/>
-    </row>
-    <row r="546" spans="17:23">
-      <c r="Q546" s="19"/>
-      <c r="S546" s="6"/>
-      <c r="T546" s="6"/>
-      <c r="U546" s="6"/>
-      <c r="V546" s="6"/>
-      <c r="W546" s="6"/>
-    </row>
-    <row r="547" spans="17:23">
-      <c r="Q547" s="19"/>
-      <c r="S547" s="6"/>
-      <c r="T547" s="6"/>
-      <c r="U547" s="6"/>
-      <c r="V547" s="6"/>
-      <c r="W547" s="6"/>
-    </row>
-    <row r="548" spans="17:23">
-      <c r="Q548" s="19"/>
-      <c r="S548" s="6"/>
-      <c r="T548" s="6"/>
-      <c r="U548" s="6"/>
-      <c r="V548" s="6"/>
-      <c r="W548" s="6"/>
-    </row>
-    <row r="549" spans="17:23">
-      <c r="Q549" s="19"/>
-      <c r="S549" s="6"/>
-      <c r="T549" s="6"/>
-      <c r="U549" s="6"/>
-      <c r="V549" s="6"/>
-      <c r="W549" s="6"/>
-    </row>
-    <row r="550" spans="17:23">
-      <c r="Q550" s="19"/>
-      <c r="S550" s="6"/>
-      <c r="T550" s="6"/>
-      <c r="U550" s="6"/>
-      <c r="V550" s="6"/>
-      <c r="W550" s="6"/>
-    </row>
-    <row r="551" spans="17:23">
-      <c r="Q551" s="19"/>
-      <c r="S551" s="6"/>
-      <c r="T551" s="6"/>
-      <c r="U551" s="6"/>
-      <c r="V551" s="6"/>
-      <c r="W551" s="6"/>
-    </row>
-    <row r="552" spans="17:23">
-      <c r="Q552" s="19"/>
-      <c r="S552" s="6"/>
-      <c r="T552" s="6"/>
-      <c r="U552" s="6"/>
-      <c r="V552" s="6"/>
-      <c r="W552" s="6"/>
-    </row>
-    <row r="553" spans="17:23">
-      <c r="Q553" s="19"/>
-      <c r="S553" s="6"/>
-      <c r="T553" s="6"/>
-      <c r="U553" s="6"/>
-      <c r="V553" s="6"/>
-      <c r="W553" s="6"/>
-    </row>
-    <row r="554" spans="17:23">
-      <c r="Q554" s="19"/>
-      <c r="S554" s="6"/>
-      <c r="T554" s="6"/>
-      <c r="U554" s="6"/>
-      <c r="V554" s="6"/>
-      <c r="W554" s="6"/>
-    </row>
-    <row r="555" spans="17:23">
-      <c r="Q555" s="19"/>
-      <c r="S555" s="6"/>
-      <c r="T555" s="6"/>
-      <c r="U555" s="6"/>
-      <c r="V555" s="6"/>
-      <c r="W555" s="6"/>
-    </row>
-    <row r="556" spans="17:23">
-      <c r="Q556" s="19"/>
-      <c r="S556" s="6"/>
-      <c r="T556" s="6"/>
-      <c r="U556" s="6"/>
-      <c r="V556" s="6"/>
-      <c r="W556" s="6"/>
-    </row>
-    <row r="557" spans="17:23">
-      <c r="Q557" s="19"/>
-      <c r="S557" s="6"/>
-      <c r="T557" s="6"/>
-      <c r="U557" s="6"/>
-      <c r="V557" s="6"/>
-      <c r="W557" s="6"/>
-    </row>
-    <row r="558" spans="17:23">
-      <c r="Q558" s="19"/>
-      <c r="S558" s="6"/>
-      <c r="T558" s="6"/>
-      <c r="U558" s="6"/>
-      <c r="V558" s="6"/>
-      <c r="W558" s="6"/>
-    </row>
-    <row r="559" spans="17:23">
-      <c r="Q559" s="19"/>
-      <c r="S559" s="6"/>
-      <c r="T559" s="6"/>
-      <c r="U559" s="6"/>
-      <c r="V559" s="6"/>
-      <c r="W559" s="6"/>
-    </row>
-    <row r="560" spans="17:23">
-      <c r="Q560" s="19"/>
-      <c r="S560" s="6"/>
-      <c r="T560" s="6"/>
-      <c r="U560" s="6"/>
-      <c r="V560" s="6"/>
-      <c r="W560" s="6"/>
-    </row>
-    <row r="561" spans="17:23">
-      <c r="Q561" s="19"/>
-      <c r="S561" s="6"/>
-      <c r="T561" s="6"/>
-      <c r="U561" s="6"/>
-      <c r="V561" s="6"/>
-      <c r="W561" s="6"/>
-    </row>
-    <row r="562" spans="17:23">
-      <c r="Q562" s="19"/>
-      <c r="S562" s="6"/>
-      <c r="T562" s="6"/>
-      <c r="U562" s="6"/>
-      <c r="V562" s="6"/>
-      <c r="W562" s="6"/>
-    </row>
-    <row r="563" spans="17:23">
-      <c r="Q563" s="19"/>
-      <c r="S563" s="6"/>
-      <c r="T563" s="6"/>
-      <c r="U563" s="6"/>
-      <c r="V563" s="6"/>
-      <c r="W563" s="6"/>
-    </row>
-    <row r="564" spans="17:23">
-      <c r="Q564" s="19"/>
-      <c r="S564" s="6"/>
-      <c r="T564" s="6"/>
-      <c r="U564" s="6"/>
-      <c r="V564" s="6"/>
-      <c r="W564" s="6"/>
-    </row>
-    <row r="565" spans="17:23">
-      <c r="Q565" s="19"/>
-      <c r="S565" s="6"/>
-      <c r="T565" s="6"/>
-      <c r="U565" s="6"/>
-      <c r="V565" s="6"/>
-      <c r="W565" s="6"/>
-    </row>
-    <row r="566" spans="17:23">
-      <c r="Q566" s="19"/>
-      <c r="S566" s="6"/>
-      <c r="T566" s="6"/>
-      <c r="U566" s="6"/>
-      <c r="V566" s="6"/>
-      <c r="W566" s="6"/>
-    </row>
-    <row r="567" spans="17:23">
-      <c r="Q567" s="19"/>
-      <c r="S567" s="6"/>
-      <c r="T567" s="6"/>
-      <c r="U567" s="6"/>
-      <c r="V567" s="6"/>
-      <c r="W567" s="6"/>
-    </row>
-    <row r="568" spans="17:23">
-      <c r="Q568" s="19"/>
-      <c r="S568" s="6"/>
-      <c r="T568" s="6"/>
-      <c r="U568" s="6"/>
-      <c r="V568" s="6"/>
-      <c r="W568" s="6"/>
-    </row>
-    <row r="569" spans="17:23">
-      <c r="Q569" s="19"/>
-      <c r="S569" s="6"/>
-      <c r="T569" s="6"/>
-      <c r="U569" s="6"/>
-      <c r="V569" s="6"/>
-      <c r="W569" s="6"/>
-    </row>
-    <row r="570" spans="17:23">
-      <c r="Q570" s="19"/>
-      <c r="S570" s="6"/>
-      <c r="T570" s="6"/>
-      <c r="U570" s="6"/>
-      <c r="V570" s="6"/>
-      <c r="W570" s="6"/>
-    </row>
-    <row r="571" spans="17:23">
-      <c r="Q571" s="19"/>
-      <c r="S571" s="6"/>
-      <c r="T571" s="6"/>
-      <c r="U571" s="6"/>
-      <c r="V571" s="6"/>
-      <c r="W571" s="6"/>
-    </row>
-    <row r="572" spans="17:23">
-      <c r="Q572" s="19"/>
-      <c r="S572" s="6"/>
-      <c r="T572" s="6"/>
-      <c r="U572" s="6"/>
-      <c r="V572" s="6"/>
-      <c r="W572" s="6"/>
-    </row>
-    <row r="573" spans="17:23">
-      <c r="Q573" s="19"/>
-      <c r="S573" s="6"/>
-      <c r="T573" s="6"/>
-      <c r="U573" s="6"/>
-      <c r="V573" s="6"/>
-      <c r="W573" s="6"/>
-    </row>
-    <row r="574" spans="17:23">
-      <c r="Q574" s="19"/>
-      <c r="S574" s="6"/>
-      <c r="T574" s="6"/>
-      <c r="U574" s="6"/>
-      <c r="V574" s="6"/>
-      <c r="W574" s="6"/>
-    </row>
-    <row r="575" spans="17:23">
-      <c r="Q575" s="19"/>
-      <c r="S575" s="6"/>
-      <c r="T575" s="6"/>
-      <c r="U575" s="6"/>
-      <c r="V575" s="6"/>
-      <c r="W575" s="6"/>
-    </row>
-    <row r="576" spans="17:23">
-      <c r="Q576" s="19"/>
-      <c r="S576" s="6"/>
-      <c r="T576" s="6"/>
-      <c r="U576" s="6"/>
-      <c r="V576" s="6"/>
-      <c r="W576" s="6"/>
-    </row>
-    <row r="577" spans="17:23">
-      <c r="Q577" s="19"/>
-      <c r="S577" s="6"/>
-      <c r="T577" s="6"/>
-      <c r="U577" s="6"/>
-      <c r="V577" s="6"/>
-      <c r="W577" s="6"/>
-    </row>
-    <row r="578" spans="17:23">
-      <c r="Q578" s="19"/>
-      <c r="S578" s="6"/>
-      <c r="T578" s="6"/>
-      <c r="U578" s="6"/>
-      <c r="V578" s="6"/>
-      <c r="W578" s="6"/>
-    </row>
-    <row r="579" spans="17:23">
-      <c r="Q579" s="19"/>
-      <c r="S579" s="6"/>
-      <c r="T579" s="6"/>
-      <c r="U579" s="6"/>
-      <c r="V579" s="6"/>
-      <c r="W579" s="6"/>
-    </row>
-    <row r="580" spans="17:23">
-      <c r="Q580" s="19"/>
-      <c r="S580" s="6"/>
-      <c r="T580" s="6"/>
-      <c r="U580" s="6"/>
-      <c r="V580" s="6"/>
-      <c r="W580" s="6"/>
-    </row>
-    <row r="581" spans="17:23">
-      <c r="Q581" s="19"/>
-      <c r="S581" s="6"/>
-      <c r="T581" s="6"/>
-      <c r="U581" s="6"/>
-      <c r="V581" s="6"/>
-      <c r="W581" s="6"/>
-    </row>
-    <row r="582" spans="17:23">
-      <c r="Q582" s="19"/>
-      <c r="S582" s="6"/>
-      <c r="T582" s="6"/>
-      <c r="U582" s="6"/>
-      <c r="V582" s="6"/>
-      <c r="W582" s="6"/>
-    </row>
-    <row r="583" spans="17:23">
-      <c r="Q583" s="19"/>
-      <c r="S583" s="6"/>
-      <c r="T583" s="6"/>
-      <c r="U583" s="6"/>
-      <c r="V583" s="6"/>
-      <c r="W583" s="6"/>
-    </row>
-    <row r="584" spans="17:23">
-      <c r="Q584" s="19"/>
-      <c r="S584" s="6"/>
-      <c r="T584" s="6"/>
-      <c r="U584" s="6"/>
-      <c r="V584" s="6"/>
-      <c r="W584" s="6"/>
-    </row>
-    <row r="585" spans="17:23">
-      <c r="Q585" s="19"/>
-      <c r="S585" s="6"/>
-      <c r="T585" s="6"/>
-      <c r="U585" s="6"/>
-      <c r="V585" s="6"/>
-      <c r="W585" s="6"/>
-    </row>
-    <row r="586" spans="17:23">
-      <c r="Q586" s="19"/>
-      <c r="S586" s="6"/>
-      <c r="T586" s="6"/>
-      <c r="U586" s="6"/>
-      <c r="V586" s="6"/>
-      <c r="W586" s="6"/>
-    </row>
-    <row r="587" spans="17:23">
-      <c r="Q587" s="19"/>
-      <c r="S587" s="6"/>
-      <c r="T587" s="6"/>
-      <c r="U587" s="6"/>
-      <c r="V587" s="6"/>
-      <c r="W587" s="6"/>
-    </row>
-    <row r="588" spans="17:23">
-      <c r="Q588" s="19"/>
-      <c r="S588" s="6"/>
-      <c r="T588" s="6"/>
-      <c r="U588" s="6"/>
-      <c r="V588" s="6"/>
-      <c r="W588" s="6"/>
-    </row>
-    <row r="589" spans="17:23">
-      <c r="Q589" s="19"/>
-      <c r="S589" s="6"/>
-      <c r="T589" s="6"/>
-      <c r="U589" s="6"/>
-      <c r="V589" s="6"/>
-      <c r="W589" s="6"/>
-    </row>
-    <row r="590" spans="17:23">
-      <c r="Q590" s="19"/>
-      <c r="S590" s="6"/>
-      <c r="T590" s="6"/>
-      <c r="U590" s="6"/>
-      <c r="V590" s="6"/>
-      <c r="W590" s="6"/>
-    </row>
-    <row r="591" spans="17:23">
-      <c r="Q591" s="19"/>
-      <c r="S591" s="6"/>
-      <c r="T591" s="6"/>
-      <c r="U591" s="6"/>
-      <c r="V591" s="6"/>
-      <c r="W591" s="6"/>
-    </row>
-    <row r="592" spans="17:23">
-      <c r="Q592" s="19"/>
-      <c r="S592" s="6"/>
-      <c r="T592" s="6"/>
-      <c r="U592" s="6"/>
-      <c r="V592" s="6"/>
-      <c r="W592" s="6"/>
-    </row>
-    <row r="593" spans="17:23">
-      <c r="Q593" s="19"/>
-      <c r="S593" s="6"/>
-      <c r="T593" s="6"/>
-      <c r="U593" s="6"/>
-      <c r="V593" s="6"/>
-      <c r="W593" s="6"/>
-    </row>
-    <row r="594" spans="17:23">
-      <c r="Q594" s="19"/>
-      <c r="S594" s="6"/>
-      <c r="T594" s="6"/>
-      <c r="U594" s="6"/>
-      <c r="V594" s="6"/>
-      <c r="W594" s="6"/>
-    </row>
-    <row r="595" spans="17:23">
-      <c r="Q595" s="19"/>
-      <c r="S595" s="6"/>
-      <c r="T595" s="6"/>
-      <c r="U595" s="6"/>
-      <c r="V595" s="6"/>
-      <c r="W595" s="6"/>
-    </row>
-    <row r="596" spans="17:23">
-      <c r="Q596" s="19"/>
-      <c r="S596" s="6"/>
-      <c r="T596" s="6"/>
-      <c r="U596" s="6"/>
-      <c r="V596" s="6"/>
-      <c r="W596" s="6"/>
-    </row>
-    <row r="597" spans="17:23">
-      <c r="Q597" s="19"/>
-      <c r="S597" s="6"/>
-      <c r="T597" s="6"/>
-      <c r="U597" s="6"/>
-      <c r="V597" s="6"/>
-      <c r="W597" s="6"/>
-    </row>
-    <row r="598" spans="17:23">
-      <c r="Q598" s="19"/>
-      <c r="S598" s="6"/>
-      <c r="T598" s="6"/>
-      <c r="U598" s="6"/>
-      <c r="V598" s="6"/>
-      <c r="W598" s="6"/>
-    </row>
-    <row r="599" spans="17:23">
-      <c r="Q599" s="19"/>
-      <c r="S599" s="6"/>
-      <c r="T599" s="6"/>
-      <c r="U599" s="6"/>
-      <c r="V599" s="6"/>
-      <c r="W599" s="6"/>
-    </row>
-    <row r="600" spans="17:23">
-      <c r="Q600" s="19"/>
-      <c r="S600" s="6"/>
-      <c r="T600" s="6"/>
-      <c r="U600" s="6"/>
-      <c r="V600" s="6"/>
-      <c r="W600" s="6"/>
-    </row>
-    <row r="601" spans="17:23">
-      <c r="Q601" s="19"/>
-      <c r="S601" s="6"/>
-      <c r="T601" s="6"/>
-      <c r="U601" s="6"/>
-      <c r="V601" s="6"/>
-      <c r="W601" s="6"/>
-    </row>
-    <row r="602" spans="17:23">
-      <c r="Q602" s="19"/>
-      <c r="S602" s="6"/>
-      <c r="T602" s="6"/>
-      <c r="U602" s="6"/>
-      <c r="V602" s="6"/>
-      <c r="W602" s="6"/>
-    </row>
-    <row r="603" spans="17:23">
-      <c r="Q603" s="19"/>
-      <c r="S603" s="6"/>
-      <c r="T603" s="6"/>
-      <c r="U603" s="6"/>
-      <c r="V603" s="6"/>
-      <c r="W603" s="6"/>
-    </row>
-    <row r="604" spans="17:23">
-      <c r="Q604" s="19"/>
-      <c r="S604" s="6"/>
-      <c r="T604" s="6"/>
-      <c r="U604" s="6"/>
-      <c r="V604" s="6"/>
-      <c r="W604" s="6"/>
-    </row>
-    <row r="605" spans="17:23">
-      <c r="Q605" s="19"/>
-      <c r="S605" s="6"/>
-      <c r="T605" s="6"/>
-      <c r="U605" s="6"/>
-      <c r="V605" s="6"/>
-      <c r="W605" s="6"/>
-    </row>
-    <row r="606" spans="17:23">
-      <c r="Q606" s="19"/>
-      <c r="S606" s="6"/>
-      <c r="T606" s="6"/>
-      <c r="U606" s="6"/>
-      <c r="V606" s="6"/>
-      <c r="W606" s="6"/>
-    </row>
-    <row r="607" spans="17:23">
-      <c r="Q607" s="19"/>
-      <c r="S607" s="6"/>
-      <c r="T607" s="6"/>
-      <c r="U607" s="6"/>
-      <c r="V607" s="6"/>
-      <c r="W607" s="6"/>
-    </row>
-    <row r="608" spans="17:23">
-      <c r="Q608" s="19"/>
-      <c r="S608" s="6"/>
-      <c r="T608" s="6"/>
-      <c r="U608" s="6"/>
-      <c r="V608" s="6"/>
-      <c r="W608" s="6"/>
-    </row>
-    <row r="609" spans="17:23">
-      <c r="Q609" s="19"/>
-      <c r="S609" s="6"/>
-      <c r="T609" s="6"/>
-      <c r="U609" s="6"/>
-      <c r="V609" s="6"/>
-      <c r="W609" s="6"/>
-    </row>
-    <row r="610" spans="17:23">
-      <c r="Q610" s="19"/>
-      <c r="S610" s="6"/>
-      <c r="T610" s="6"/>
-      <c r="U610" s="6"/>
-      <c r="V610" s="6"/>
-      <c r="W610" s="6"/>
-    </row>
-    <row r="611" spans="17:23">
-      <c r="Q611" s="19"/>
-      <c r="S611" s="6"/>
-      <c r="T611" s="6"/>
-      <c r="U611" s="6"/>
-      <c r="V611" s="6"/>
-      <c r="W611" s="6"/>
-    </row>
-    <row r="612" spans="17:23">
-      <c r="Q612" s="19"/>
-      <c r="S612" s="6"/>
-      <c r="T612" s="6"/>
-      <c r="U612" s="6"/>
-      <c r="V612" s="6"/>
-      <c r="W612" s="6"/>
-    </row>
-    <row r="613" spans="17:23">
-      <c r="Q613" s="19"/>
-      <c r="S613" s="6"/>
-      <c r="T613" s="6"/>
-      <c r="U613" s="6"/>
-      <c r="V613" s="6"/>
-      <c r="W613" s="6"/>
-    </row>
-    <row r="614" spans="17:23">
-      <c r="Q614" s="19"/>
-      <c r="S614" s="6"/>
-      <c r="T614" s="6"/>
-      <c r="U614" s="6"/>
-      <c r="V614" s="6"/>
-      <c r="W614" s="6"/>
-    </row>
-    <row r="615" spans="17:23">
-      <c r="Q615" s="19"/>
-      <c r="S615" s="6"/>
-      <c r="T615" s="6"/>
-      <c r="U615" s="6"/>
-      <c r="V615" s="6"/>
-      <c r="W615" s="6"/>
-    </row>
-    <row r="616" spans="17:23">
-      <c r="Q616" s="19"/>
-      <c r="S616" s="6"/>
-      <c r="T616" s="6"/>
-      <c r="U616" s="6"/>
-      <c r="V616" s="6"/>
-      <c r="W616" s="6"/>
-    </row>
-    <row r="617" spans="17:23">
-      <c r="Q617" s="19"/>
-      <c r="S617" s="6"/>
-      <c r="T617" s="6"/>
-      <c r="U617" s="6"/>
-      <c r="V617" s="6"/>
-      <c r="W617" s="6"/>
-    </row>
-    <row r="618" spans="17:23">
-      <c r="Q618" s="19"/>
-      <c r="S618" s="6"/>
-      <c r="T618" s="6"/>
-      <c r="U618" s="6"/>
-      <c r="V618" s="6"/>
-      <c r="W618" s="6"/>
-    </row>
-    <row r="619" spans="17:23">
-      <c r="Q619" s="19"/>
-      <c r="S619" s="6"/>
-      <c r="T619" s="6"/>
-      <c r="U619" s="6"/>
-      <c r="V619" s="6"/>
-      <c r="W619" s="6"/>
-    </row>
-    <row r="620" spans="17:23">
-      <c r="Q620" s="19"/>
-      <c r="S620" s="6"/>
-      <c r="T620" s="6"/>
-      <c r="U620" s="6"/>
-      <c r="V620" s="6"/>
-      <c r="W620" s="6"/>
-    </row>
-    <row r="621" spans="17:23">
-      <c r="Q621" s="19"/>
-      <c r="S621" s="6"/>
-      <c r="T621" s="6"/>
-      <c r="U621" s="6"/>
-      <c r="V621" s="6"/>
-      <c r="W621" s="6"/>
-    </row>
-    <row r="622" spans="17:23">
-      <c r="Q622" s="19"/>
-      <c r="S622" s="6"/>
-      <c r="T622" s="6"/>
-      <c r="U622" s="6"/>
-      <c r="V622" s="6"/>
-      <c r="W622" s="6"/>
-    </row>
-    <row r="623" spans="17:23">
-      <c r="Q623" s="19"/>
-      <c r="S623" s="6"/>
-      <c r="T623" s="6"/>
-      <c r="U623" s="6"/>
-      <c r="V623" s="6"/>
-      <c r="W623" s="6"/>
-    </row>
-    <row r="624" spans="17:23">
-      <c r="Q624" s="19"/>
-      <c r="S624" s="6"/>
-      <c r="T624" s="6"/>
-      <c r="U624" s="6"/>
-      <c r="V624" s="6"/>
-      <c r="W624" s="6"/>
-    </row>
-    <row r="625" spans="17:23">
-      <c r="Q625" s="19"/>
-      <c r="S625" s="6"/>
-      <c r="T625" s="6"/>
-      <c r="U625" s="6"/>
-      <c r="V625" s="6"/>
-      <c r="W625" s="6"/>
-    </row>
-    <row r="626" spans="17:23">
-      <c r="Q626" s="19"/>
-      <c r="S626" s="6"/>
-      <c r="T626" s="6"/>
-      <c r="U626" s="6"/>
-      <c r="V626" s="6"/>
-      <c r="W626" s="6"/>
-    </row>
-    <row r="627" spans="17:23">
-      <c r="Q627" s="19"/>
-      <c r="S627" s="6"/>
-      <c r="T627" s="6"/>
-      <c r="U627" s="6"/>
-      <c r="V627" s="6"/>
-      <c r="W627" s="6"/>
-    </row>
-    <row r="628" spans="17:23">
-      <c r="Q628" s="19"/>
-      <c r="S628" s="6"/>
-      <c r="T628" s="6"/>
-      <c r="U628" s="6"/>
-      <c r="V628" s="6"/>
-      <c r="W628" s="6"/>
-    </row>
-    <row r="629" spans="17:23">
-      <c r="Q629" s="19"/>
-      <c r="S629" s="6"/>
-      <c r="T629" s="6"/>
-      <c r="U629" s="6"/>
-      <c r="V629" s="6"/>
-      <c r="W629" s="6"/>
-    </row>
-    <row r="630" spans="17:23">
-      <c r="Q630" s="19"/>
-      <c r="S630" s="6"/>
-      <c r="T630" s="6"/>
-      <c r="U630" s="6"/>
-      <c r="V630" s="6"/>
-      <c r="W630" s="6"/>
-    </row>
-    <row r="631" spans="17:23">
-      <c r="Q631" s="19"/>
-      <c r="S631" s="6"/>
-      <c r="T631" s="6"/>
-      <c r="U631" s="6"/>
-      <c r="V631" s="6"/>
-      <c r="W631" s="6"/>
-    </row>
-    <row r="632" spans="17:23">
-      <c r="Q632" s="19"/>
-      <c r="S632" s="6"/>
-      <c r="T632" s="6"/>
-      <c r="U632" s="6"/>
-      <c r="V632" s="6"/>
-      <c r="W632" s="6"/>
-    </row>
-    <row r="633" spans="17:23">
-      <c r="Q633" s="19"/>
-      <c r="S633" s="6"/>
-      <c r="T633" s="6"/>
-      <c r="U633" s="6"/>
-      <c r="V633" s="6"/>
-      <c r="W633" s="6"/>
-    </row>
-    <row r="634" spans="17:23">
-      <c r="Q634" s="19"/>
-      <c r="S634" s="6"/>
-      <c r="T634" s="6"/>
-      <c r="U634" s="6"/>
-      <c r="V634" s="6"/>
-      <c r="W634" s="6"/>
-    </row>
-    <row r="635" spans="17:23">
-      <c r="Q635" s="19"/>
-      <c r="S635" s="6"/>
-      <c r="T635" s="6"/>
-      <c r="U635" s="6"/>
-      <c r="V635" s="6"/>
-      <c r="W635" s="6"/>
-    </row>
-    <row r="636" spans="17:23">
-      <c r="Q636" s="19"/>
-      <c r="S636" s="6"/>
-      <c r="T636" s="6"/>
-      <c r="U636" s="6"/>
-      <c r="V636" s="6"/>
-      <c r="W636" s="6"/>
-    </row>
-    <row r="637" spans="17:23">
-      <c r="Q637" s="19"/>
-      <c r="S637" s="6"/>
-      <c r="T637" s="6"/>
-      <c r="U637" s="6"/>
-      <c r="V637" s="6"/>
-      <c r="W637" s="6"/>
-    </row>
-    <row r="638" spans="17:23">
-      <c r="Q638" s="19"/>
-      <c r="S638" s="6"/>
-      <c r="T638" s="6"/>
-      <c r="U638" s="6"/>
-      <c r="V638" s="6"/>
-      <c r="W638" s="6"/>
-    </row>
-    <row r="639" spans="17:23">
-      <c r="Q639" s="19"/>
-      <c r="S639" s="6"/>
-      <c r="T639" s="6"/>
-      <c r="U639" s="6"/>
-      <c r="V639" s="6"/>
-      <c r="W639" s="6"/>
-    </row>
-    <row r="640" spans="17:23">
-      <c r="Q640" s="19"/>
-      <c r="S640" s="6"/>
-      <c r="T640" s="6"/>
-      <c r="U640" s="6"/>
-      <c r="V640" s="6"/>
-      <c r="W640" s="6"/>
-    </row>
-    <row r="641" spans="17:23">
-      <c r="Q641" s="19"/>
-      <c r="S641" s="6"/>
-      <c r="T641" s="6"/>
-      <c r="U641" s="6"/>
-      <c r="V641" s="6"/>
-      <c r="W641" s="6"/>
-    </row>
-    <row r="642" spans="17:23">
-      <c r="Q642" s="19"/>
-      <c r="S642" s="6"/>
-      <c r="T642" s="6"/>
-      <c r="U642" s="6"/>
-      <c r="V642" s="6"/>
-      <c r="W642" s="6"/>
-    </row>
-    <row r="643" spans="17:23">
-      <c r="Q643" s="19"/>
-      <c r="S643" s="6"/>
-      <c r="T643" s="6"/>
-      <c r="U643" s="6"/>
-      <c r="V643" s="6"/>
-      <c r="W643" s="6"/>
-    </row>
-    <row r="644" spans="17:23">
-      <c r="Q644" s="19"/>
-      <c r="S644" s="6"/>
-      <c r="T644" s="6"/>
-      <c r="U644" s="6"/>
-      <c r="V644" s="6"/>
-      <c r="W644" s="6"/>
-    </row>
-    <row r="645" spans="17:23">
-      <c r="Q645" s="19"/>
-      <c r="S645" s="6"/>
-      <c r="T645" s="6"/>
-      <c r="U645" s="6"/>
-      <c r="V645" s="6"/>
-      <c r="W645" s="6"/>
-    </row>
-    <row r="646" spans="17:23">
-      <c r="Q646" s="19"/>
-      <c r="S646" s="6"/>
-      <c r="T646" s="6"/>
-      <c r="U646" s="6"/>
-      <c r="V646" s="6"/>
-      <c r="W646" s="6"/>
-    </row>
-    <row r="647" spans="17:23">
-      <c r="Q647" s="19"/>
-      <c r="S647" s="6"/>
-      <c r="T647" s="6"/>
-      <c r="U647" s="6"/>
-      <c r="V647" s="6"/>
-      <c r="W647" s="6"/>
-    </row>
-    <row r="648" spans="17:23">
-      <c r="Q648" s="19"/>
-      <c r="S648" s="6"/>
-      <c r="T648" s="6"/>
-      <c r="U648" s="6"/>
-      <c r="V648" s="6"/>
-      <c r="W648" s="6"/>
-    </row>
-    <row r="649" spans="17:23">
-      <c r="Q649" s="19"/>
-      <c r="S649" s="6"/>
-      <c r="T649" s="6"/>
-      <c r="U649" s="6"/>
-      <c r="V649" s="6"/>
-      <c r="W649" s="6"/>
-    </row>
-    <row r="650" spans="17:23">
-      <c r="Q650" s="19"/>
-      <c r="S650" s="6"/>
-      <c r="T650" s="6"/>
-      <c r="U650" s="6"/>
-      <c r="V650" s="6"/>
-      <c r="W650" s="6"/>
-    </row>
-    <row r="651" spans="17:23">
-      <c r="Q651" s="19"/>
-      <c r="S651" s="6"/>
-      <c r="T651" s="6"/>
-      <c r="U651" s="6"/>
-      <c r="V651" s="6"/>
-      <c r="W651" s="6"/>
-    </row>
-    <row r="652" spans="17:23">
-      <c r="Q652" s="19"/>
-      <c r="S652" s="6"/>
-      <c r="T652" s="6"/>
-      <c r="U652" s="6"/>
-      <c r="V652" s="6"/>
-      <c r="W652" s="6"/>
-    </row>
-    <row r="653" spans="17:23">
-      <c r="Q653" s="19"/>
-      <c r="S653" s="6"/>
-      <c r="T653" s="6"/>
-      <c r="U653" s="6"/>
-      <c r="V653" s="6"/>
-      <c r="W653" s="6"/>
-    </row>
-    <row r="654" spans="17:23">
-      <c r="Q654" s="19"/>
-      <c r="S654" s="6"/>
-      <c r="T654" s="6"/>
-      <c r="U654" s="6"/>
-      <c r="V654" s="6"/>
-      <c r="W654" s="6"/>
-    </row>
-    <row r="655" spans="17:23">
-      <c r="Q655" s="19"/>
-      <c r="S655" s="6"/>
-      <c r="T655" s="6"/>
-      <c r="U655" s="6"/>
-      <c r="V655" s="6"/>
-      <c r="W655" s="6"/>
-    </row>
-    <row r="656" spans="17:23">
-      <c r="Q656" s="19"/>
-      <c r="S656" s="6"/>
-      <c r="T656" s="6"/>
-      <c r="U656" s="6"/>
-      <c r="V656" s="6"/>
-      <c r="W656" s="6"/>
-    </row>
-    <row r="657" spans="17:23">
-      <c r="Q657" s="19"/>
-      <c r="S657" s="6"/>
-      <c r="T657" s="6"/>
-      <c r="U657" s="6"/>
-      <c r="V657" s="6"/>
-      <c r="W657" s="6"/>
-    </row>
-    <row r="658" spans="17:23">
-      <c r="Q658" s="19"/>
-      <c r="S658" s="6"/>
-      <c r="T658" s="6"/>
-      <c r="U658" s="6"/>
-      <c r="V658" s="6"/>
-      <c r="W658" s="6"/>
-    </row>
-    <row r="659" spans="17:23">
-      <c r="Q659" s="19"/>
-      <c r="S659" s="6"/>
-      <c r="T659" s="6"/>
-      <c r="U659" s="6"/>
-      <c r="V659" s="6"/>
-      <c r="W659" s="6"/>
-    </row>
-    <row r="660" spans="17:23">
-      <c r="Q660" s="19"/>
-      <c r="S660" s="6"/>
-      <c r="T660" s="6"/>
-      <c r="U660" s="6"/>
-      <c r="V660" s="6"/>
-      <c r="W660" s="6"/>
-    </row>
-    <row r="661" spans="17:23">
-      <c r="Q661" s="19"/>
-      <c r="S661" s="6"/>
-      <c r="T661" s="6"/>
-      <c r="U661" s="6"/>
-      <c r="V661" s="6"/>
-      <c r="W661" s="6"/>
-    </row>
-    <row r="662" spans="17:23">
-      <c r="Q662" s="19"/>
-      <c r="S662" s="6"/>
-      <c r="T662" s="6"/>
-      <c r="U662" s="6"/>
-      <c r="V662" s="6"/>
-      <c r="W662" s="6"/>
-    </row>
-    <row r="663" spans="17:23">
-      <c r="Q663" s="19"/>
-      <c r="S663" s="6"/>
-      <c r="T663" s="6"/>
-      <c r="U663" s="6"/>
-      <c r="V663" s="6"/>
-      <c r="W663" s="6"/>
-    </row>
-    <row r="664" spans="17:23">
-      <c r="Q664" s="19"/>
-      <c r="S664" s="6"/>
-      <c r="T664" s="6"/>
-      <c r="U664" s="6"/>
-      <c r="V664" s="6"/>
-      <c r="W664" s="6"/>
-    </row>
-    <row r="665" spans="17:23">
-      <c r="Q665" s="19"/>
-      <c r="S665" s="6"/>
-      <c r="T665" s="6"/>
-      <c r="U665" s="6"/>
-      <c r="V665" s="6"/>
-      <c r="W665" s="6"/>
-    </row>
-    <row r="666" spans="17:23">
-      <c r="Q666" s="19"/>
-      <c r="S666" s="6"/>
-      <c r="T666" s="6"/>
-      <c r="U666" s="6"/>
-      <c r="V666" s="6"/>
-      <c r="W666" s="6"/>
-    </row>
-    <row r="667" spans="17:23">
-      <c r="Q667" s="19"/>
-      <c r="S667" s="6"/>
-      <c r="T667" s="6"/>
-      <c r="U667" s="6"/>
-      <c r="V667" s="6"/>
-      <c r="W667" s="6"/>
-    </row>
-    <row r="668" spans="17:23">
-      <c r="Q668" s="19"/>
-      <c r="S668" s="6"/>
-      <c r="T668" s="6"/>
-      <c r="U668" s="6"/>
-      <c r="V668" s="6"/>
-      <c r="W668" s="6"/>
-    </row>
-    <row r="669" spans="17:23">
-      <c r="Q669" s="19"/>
-      <c r="S669" s="6"/>
-      <c r="T669" s="6"/>
-      <c r="U669" s="6"/>
-      <c r="V669" s="6"/>
-      <c r="W669" s="6"/>
-    </row>
-    <row r="670" spans="17:23">
-      <c r="Q670" s="19"/>
-      <c r="S670" s="6"/>
-      <c r="T670" s="6"/>
-      <c r="U670" s="6"/>
-      <c r="V670" s="6"/>
-      <c r="W670" s="6"/>
-    </row>
-    <row r="671" spans="17:23">
-      <c r="Q671" s="19"/>
-      <c r="S671" s="6"/>
-      <c r="T671" s="6"/>
-      <c r="U671" s="6"/>
-      <c r="V671" s="6"/>
-      <c r="W671" s="6"/>
-    </row>
-    <row r="672" spans="17:23">
-      <c r="Q672" s="19"/>
-      <c r="S672" s="6"/>
-      <c r="T672" s="6"/>
-      <c r="U672" s="6"/>
-      <c r="V672" s="6"/>
-      <c r="W672" s="6"/>
-    </row>
-    <row r="673" spans="17:23">
-      <c r="Q673" s="19"/>
-      <c r="S673" s="6"/>
-      <c r="T673" s="6"/>
-      <c r="U673" s="6"/>
-      <c r="V673" s="6"/>
-      <c r="W673" s="6"/>
-    </row>
-    <row r="674" spans="17:23">
-      <c r="Q674" s="19"/>
-      <c r="S674" s="6"/>
-      <c r="T674" s="6"/>
-      <c r="U674" s="6"/>
-      <c r="V674" s="6"/>
-      <c r="W674" s="6"/>
-    </row>
-    <row r="675" spans="17:23">
-      <c r="Q675" s="19"/>
-      <c r="S675" s="6"/>
-      <c r="T675" s="6"/>
-      <c r="U675" s="6"/>
-      <c r="V675" s="6"/>
-      <c r="W675" s="6"/>
-    </row>
-    <row r="676" spans="17:23">
-      <c r="Q676" s="19"/>
-      <c r="S676" s="6"/>
-      <c r="T676" s="6"/>
-      <c r="U676" s="6"/>
-      <c r="V676" s="6"/>
-      <c r="W676" s="6"/>
-    </row>
-    <row r="677" spans="17:23">
-      <c r="Q677" s="19"/>
-      <c r="S677" s="6"/>
-      <c r="T677" s="6"/>
-      <c r="U677" s="6"/>
-      <c r="V677" s="6"/>
-      <c r="W677" s="6"/>
-    </row>
-    <row r="678" spans="17:23">
-      <c r="Q678" s="19"/>
-      <c r="S678" s="6"/>
-      <c r="T678" s="6"/>
-      <c r="U678" s="6"/>
-      <c r="V678" s="6"/>
-      <c r="W678" s="6"/>
-    </row>
-    <row r="679" spans="17:23">
-      <c r="Q679" s="19"/>
-      <c r="S679" s="6"/>
-      <c r="T679" s="6"/>
-      <c r="U679" s="6"/>
-      <c r="V679" s="6"/>
-      <c r="W679" s="6"/>
-    </row>
-    <row r="680" spans="17:23">
-      <c r="Q680" s="19"/>
-      <c r="S680" s="6"/>
-      <c r="T680" s="6"/>
-      <c r="U680" s="6"/>
-      <c r="V680" s="6"/>
-      <c r="W680" s="6"/>
-    </row>
-    <row r="681" spans="17:23">
-      <c r="Q681" s="19"/>
-      <c r="S681" s="6"/>
-      <c r="T681" s="6"/>
-      <c r="U681" s="6"/>
-      <c r="V681" s="6"/>
-      <c r="W681" s="6"/>
-    </row>
-    <row r="682" spans="17:23">
-      <c r="Q682" s="19"/>
-      <c r="S682" s="6"/>
-      <c r="T682" s="6"/>
-      <c r="U682" s="6"/>
-      <c r="V682" s="6"/>
-      <c r="W682" s="6"/>
-    </row>
-    <row r="683" spans="17:23">
-      <c r="Q683" s="19"/>
-      <c r="S683" s="6"/>
-      <c r="T683" s="6"/>
-      <c r="U683" s="6"/>
-      <c r="V683" s="6"/>
-      <c r="W683" s="6"/>
-    </row>
-    <row r="684" spans="17:23">
-      <c r="Q684" s="19"/>
-      <c r="S684" s="6"/>
-      <c r="T684" s="6"/>
-      <c r="U684" s="6"/>
-      <c r="V684" s="6"/>
-      <c r="W684" s="6"/>
-    </row>
-    <row r="685" spans="17:23">
-      <c r="Q685" s="19"/>
-      <c r="S685" s="6"/>
-      <c r="T685" s="6"/>
-      <c r="U685" s="6"/>
-      <c r="V685" s="6"/>
-      <c r="W685" s="6"/>
-    </row>
-    <row r="686" spans="17:23">
-      <c r="Q686" s="19"/>
-      <c r="S686" s="6"/>
-      <c r="T686" s="6"/>
-      <c r="U686" s="6"/>
-      <c r="V686" s="6"/>
-      <c r="W686" s="6"/>
-    </row>
-    <row r="687" spans="17:23">
-      <c r="Q687" s="19"/>
-      <c r="S687" s="6"/>
-      <c r="T687" s="6"/>
-      <c r="U687" s="6"/>
-      <c r="V687" s="6"/>
-      <c r="W687" s="6"/>
-    </row>
-    <row r="688" spans="17:23">
-      <c r="Q688" s="19"/>
-      <c r="S688" s="6"/>
-      <c r="T688" s="6"/>
-      <c r="U688" s="6"/>
-      <c r="V688" s="6"/>
-      <c r="W688" s="6"/>
-    </row>
-    <row r="689" spans="17:23">
-      <c r="Q689" s="19"/>
-      <c r="S689" s="6"/>
-      <c r="T689" s="6"/>
-      <c r="U689" s="6"/>
-      <c r="V689" s="6"/>
-      <c r="W689" s="6"/>
-    </row>
-    <row r="690" spans="17:23">
-      <c r="Q690" s="19"/>
-      <c r="S690" s="6"/>
-      <c r="T690" s="6"/>
-      <c r="U690" s="6"/>
-      <c r="V690" s="6"/>
-      <c r="W690" s="6"/>
-    </row>
-    <row r="691" spans="17:23">
-      <c r="Q691" s="19"/>
-      <c r="S691" s="6"/>
-      <c r="T691" s="6"/>
-      <c r="U691" s="6"/>
-      <c r="V691" s="6"/>
-      <c r="W691" s="6"/>
-    </row>
-    <row r="692" spans="17:23">
-      <c r="Q692" s="19"/>
-      <c r="S692" s="6"/>
-      <c r="T692" s="6"/>
-      <c r="U692" s="6"/>
-      <c r="V692" s="6"/>
-      <c r="W692" s="6"/>
-    </row>
-    <row r="693" spans="17:23">
-      <c r="Q693" s="19"/>
-      <c r="S693" s="6"/>
-      <c r="T693" s="6"/>
-      <c r="U693" s="6"/>
-      <c r="V693" s="6"/>
-      <c r="W693" s="6"/>
-    </row>
-    <row r="694" spans="17:23">
-      <c r="Q694" s="19"/>
-      <c r="S694" s="6"/>
-      <c r="T694" s="6"/>
-      <c r="U694" s="6"/>
-      <c r="V694" s="6"/>
-      <c r="W694" s="6"/>
-    </row>
-    <row r="695" spans="17:23">
-      <c r="Q695" s="19"/>
-      <c r="S695" s="6"/>
-      <c r="T695" s="6"/>
-      <c r="U695" s="6"/>
-      <c r="V695" s="6"/>
-      <c r="W695" s="6"/>
-    </row>
-    <row r="696" spans="17:23">
-      <c r="Q696" s="19"/>
-      <c r="S696" s="6"/>
-      <c r="T696" s="6"/>
-      <c r="U696" s="6"/>
-      <c r="V696" s="6"/>
-      <c r="W696" s="6"/>
-    </row>
-    <row r="697" spans="17:23">
-      <c r="Q697" s="19"/>
-      <c r="S697" s="6"/>
-      <c r="T697" s="6"/>
-      <c r="U697" s="6"/>
-      <c r="V697" s="6"/>
-      <c r="W697" s="6"/>
-    </row>
-    <row r="698" spans="17:23">
-      <c r="Q698" s="19"/>
-      <c r="S698" s="6"/>
-      <c r="T698" s="6"/>
-      <c r="U698" s="6"/>
-      <c r="V698" s="6"/>
-      <c r="W698" s="6"/>
-    </row>
-    <row r="699" spans="17:23">
-      <c r="Q699" s="19"/>
-      <c r="S699" s="6"/>
-      <c r="T699" s="6"/>
-      <c r="U699" s="6"/>
-      <c r="V699" s="6"/>
-      <c r="W699" s="6"/>
-    </row>
-    <row r="700" spans="17:23">
-      <c r="Q700" s="19"/>
-      <c r="S700" s="6"/>
-      <c r="T700" s="6"/>
-      <c r="U700" s="6"/>
-      <c r="V700" s="6"/>
-      <c r="W700" s="6"/>
-    </row>
-    <row r="701" spans="17:23">
-      <c r="Q701" s="19"/>
-      <c r="S701" s="6"/>
-      <c r="T701" s="6"/>
-      <c r="U701" s="6"/>
-      <c r="V701" s="6"/>
-      <c r="W701" s="6"/>
-    </row>
-    <row r="702" spans="17:23">
-      <c r="Q702" s="19"/>
-      <c r="S702" s="6"/>
-      <c r="T702" s="6"/>
-      <c r="U702" s="6"/>
-      <c r="V702" s="6"/>
-      <c r="W702" s="6"/>
-    </row>
-    <row r="703" spans="17:23">
-      <c r="Q703" s="19"/>
-      <c r="S703" s="6"/>
-      <c r="T703" s="6"/>
-      <c r="U703" s="6"/>
-      <c r="V703" s="6"/>
-      <c r="W703" s="6"/>
-    </row>
-    <row r="704" spans="17:23">
-      <c r="Q704" s="19"/>
-      <c r="S704" s="6"/>
-      <c r="T704" s="6"/>
-      <c r="U704" s="6"/>
-      <c r="V704" s="6"/>
-      <c r="W704" s="6"/>
-    </row>
-    <row r="705" spans="17:23">
-      <c r="Q705" s="19"/>
-      <c r="S705" s="6"/>
-      <c r="T705" s="6"/>
-      <c r="U705" s="6"/>
-      <c r="V705" s="6"/>
-      <c r="W705" s="6"/>
-    </row>
-    <row r="706" spans="17:23">
-      <c r="Q706" s="19"/>
-      <c r="S706" s="6"/>
-      <c r="T706" s="6"/>
-      <c r="U706" s="6"/>
-      <c r="V706" s="6"/>
-      <c r="W706" s="6"/>
-    </row>
-    <row r="707" spans="17:23">
-      <c r="Q707" s="19"/>
-      <c r="S707" s="6"/>
-      <c r="T707" s="6"/>
-      <c r="U707" s="6"/>
-      <c r="V707" s="6"/>
-      <c r="W707" s="6"/>
-    </row>
-    <row r="708" spans="17:23">
-      <c r="Q708" s="19"/>
-      <c r="S708" s="6"/>
-      <c r="T708" s="6"/>
-      <c r="U708" s="6"/>
-      <c r="V708" s="6"/>
-      <c r="W708" s="6"/>
-    </row>
-    <row r="709" spans="17:23">
-      <c r="Q709" s="19"/>
-      <c r="S709" s="6"/>
-      <c r="T709" s="6"/>
-      <c r="U709" s="6"/>
-      <c r="V709" s="6"/>
-      <c r="W709" s="6"/>
-    </row>
-    <row r="710" spans="17:23">
-      <c r="Q710" s="19"/>
-      <c r="S710" s="6"/>
-      <c r="T710" s="6"/>
-      <c r="U710" s="6"/>
-      <c r="V710" s="6"/>
-      <c r="W710" s="6"/>
-    </row>
-    <row r="711" spans="17:23">
-      <c r="Q711" s="19"/>
-      <c r="S711" s="6"/>
-      <c r="T711" s="6"/>
-      <c r="U711" s="6"/>
-      <c r="V711" s="6"/>
-      <c r="W711" s="6"/>
-    </row>
-    <row r="712" spans="17:23">
-      <c r="Q712" s="19"/>
-      <c r="S712" s="6"/>
-      <c r="T712" s="6"/>
-      <c r="U712" s="6"/>
-      <c r="V712" s="6"/>
-      <c r="W712" s="6"/>
-    </row>
-    <row r="713" spans="17:23">
-      <c r="Q713" s="19"/>
-      <c r="S713" s="6"/>
-      <c r="T713" s="6"/>
-      <c r="U713" s="6"/>
-      <c r="V713" s="6"/>
-      <c r="W713" s="6"/>
-    </row>
-    <row r="714" spans="17:23">
-      <c r="Q714" s="19"/>
-      <c r="S714" s="6"/>
-      <c r="T714" s="6"/>
-      <c r="U714" s="6"/>
-      <c r="V714" s="6"/>
-      <c r="W714" s="6"/>
-    </row>
-    <row r="715" spans="17:23">
-      <c r="Q715" s="19"/>
-      <c r="S715" s="6"/>
-      <c r="T715" s="6"/>
-      <c r="U715" s="6"/>
-      <c r="V715" s="6"/>
-      <c r="W715" s="6"/>
-    </row>
-    <row r="716" spans="17:23">
-      <c r="Q716" s="19"/>
-      <c r="S716" s="6"/>
-      <c r="T716" s="6"/>
-      <c r="U716" s="6"/>
-      <c r="V716" s="6"/>
-      <c r="W716" s="6"/>
-    </row>
-    <row r="717" spans="17:23">
-      <c r="Q717" s="19"/>
-      <c r="S717" s="6"/>
-      <c r="T717" s="6"/>
-      <c r="U717" s="6"/>
-      <c r="V717" s="6"/>
-      <c r="W717" s="6"/>
-    </row>
-    <row r="718" spans="17:23">
-      <c r="Q718" s="19"/>
-      <c r="S718" s="6"/>
-      <c r="T718" s="6"/>
-      <c r="U718" s="6"/>
-      <c r="V718" s="6"/>
-      <c r="W718" s="6"/>
-    </row>
-    <row r="719" spans="17:23">
-      <c r="Q719" s="19"/>
-      <c r="S719" s="6"/>
-      <c r="T719" s="6"/>
-      <c r="U719" s="6"/>
-      <c r="V719" s="6"/>
-      <c r="W719" s="6"/>
-    </row>
-    <row r="720" spans="17:23">
-      <c r="Q720" s="19"/>
-      <c r="S720" s="6"/>
-      <c r="T720" s="6"/>
-      <c r="U720" s="6"/>
-      <c r="V720" s="6"/>
-      <c r="W720" s="6"/>
-    </row>
-    <row r="721" spans="17:23">
-      <c r="Q721" s="19"/>
-      <c r="S721" s="6"/>
-      <c r="T721" s="6"/>
-      <c r="U721" s="6"/>
-      <c r="V721" s="6"/>
-      <c r="W721" s="6"/>
-    </row>
-    <row r="722" spans="17:23">
-      <c r="Q722" s="19"/>
-      <c r="S722" s="6"/>
-      <c r="T722" s="6"/>
-      <c r="U722" s="6"/>
-      <c r="V722" s="6"/>
-      <c r="W722" s="6"/>
-    </row>
-    <row r="723" spans="17:23">
-      <c r="Q723" s="19"/>
-      <c r="S723" s="6"/>
-      <c r="T723" s="6"/>
-      <c r="U723" s="6"/>
-      <c r="V723" s="6"/>
-      <c r="W723" s="6"/>
-    </row>
-    <row r="724" spans="17:23">
-      <c r="Q724" s="19"/>
-      <c r="S724" s="6"/>
-      <c r="T724" s="6"/>
-      <c r="U724" s="6"/>
-      <c r="V724" s="6"/>
-      <c r="W724" s="6"/>
-    </row>
-    <row r="725" spans="17:23">
-      <c r="Q725" s="19"/>
-      <c r="S725" s="6"/>
-      <c r="T725" s="6"/>
-      <c r="U725" s="6"/>
-      <c r="V725" s="6"/>
-      <c r="W725" s="6"/>
-    </row>
-    <row r="726" spans="17:23">
-      <c r="Q726" s="19"/>
-      <c r="S726" s="6"/>
-      <c r="T726" s="6"/>
-      <c r="U726" s="6"/>
-      <c r="V726" s="6"/>
-      <c r="W726" s="6"/>
-    </row>
-    <row r="727" spans="17:23">
-      <c r="Q727" s="19"/>
-      <c r="S727" s="6"/>
-      <c r="T727" s="6"/>
-      <c r="U727" s="6"/>
-      <c r="V727" s="6"/>
-      <c r="W727" s="6"/>
-    </row>
-    <row r="728" spans="17:23">
-      <c r="Q728" s="19"/>
-      <c r="S728" s="6"/>
-      <c r="T728" s="6"/>
-      <c r="U728" s="6"/>
-      <c r="V728" s="6"/>
-      <c r="W728" s="6"/>
-    </row>
-    <row r="729" spans="17:23">
-      <c r="Q729" s="19"/>
-      <c r="S729" s="6"/>
-      <c r="T729" s="6"/>
-      <c r="U729" s="6"/>
-      <c r="V729" s="6"/>
-      <c r="W729" s="6"/>
-    </row>
-    <row r="730" spans="17:23">
-      <c r="Q730" s="19"/>
-      <c r="S730" s="6"/>
-      <c r="T730" s="6"/>
-      <c r="U730" s="6"/>
-      <c r="V730" s="6"/>
-      <c r="W730" s="6"/>
-    </row>
-    <row r="731" spans="17:23">
-      <c r="Q731" s="19"/>
-      <c r="S731" s="6"/>
-      <c r="T731" s="6"/>
-      <c r="U731" s="6"/>
-      <c r="V731" s="6"/>
-      <c r="W731" s="6"/>
-    </row>
-    <row r="732" spans="17:23">
-      <c r="Q732" s="19"/>
-      <c r="S732" s="6"/>
-      <c r="T732" s="6"/>
-      <c r="U732" s="6"/>
-      <c r="V732" s="6"/>
-      <c r="W732" s="6"/>
-    </row>
-    <row r="733" spans="17:23">
-      <c r="Q733" s="19"/>
-      <c r="S733" s="6"/>
-      <c r="T733" s="6"/>
-      <c r="U733" s="6"/>
-      <c r="V733" s="6"/>
-      <c r="W733" s="6"/>
-    </row>
-    <row r="734" spans="17:23">
-      <c r="Q734" s="19"/>
-      <c r="S734" s="6"/>
-      <c r="T734" s="6"/>
-      <c r="U734" s="6"/>
-      <c r="V734" s="6"/>
-      <c r="W734" s="6"/>
-    </row>
-    <row r="735" spans="17:23">
-      <c r="Q735" s="19"/>
-      <c r="S735" s="6"/>
-      <c r="T735" s="6"/>
-      <c r="U735" s="6"/>
-      <c r="V735" s="6"/>
-      <c r="W735" s="6"/>
-    </row>
-    <row r="736" spans="17:23">
-      <c r="Q736" s="19"/>
-      <c r="S736" s="6"/>
-      <c r="T736" s="6"/>
-      <c r="U736" s="6"/>
-      <c r="V736" s="6"/>
-      <c r="W736" s="6"/>
-    </row>
-    <row r="737" spans="17:23">
-      <c r="Q737" s="19"/>
-      <c r="S737" s="6"/>
-      <c r="T737" s="6"/>
-      <c r="U737" s="6"/>
-      <c r="V737" s="6"/>
-      <c r="W737" s="6"/>
-    </row>
-    <row r="738" spans="17:23">
-      <c r="Q738" s="19"/>
-      <c r="S738" s="6"/>
-      <c r="T738" s="6"/>
-      <c r="U738" s="6"/>
-      <c r="V738" s="6"/>
-      <c r="W738" s="6"/>
-    </row>
-    <row r="739" spans="17:23">
-      <c r="Q739" s="19"/>
-      <c r="S739" s="6"/>
-      <c r="T739" s="6"/>
-      <c r="U739" s="6"/>
-      <c r="V739" s="6"/>
-      <c r="W739" s="6"/>
-    </row>
-    <row r="740" spans="17:23">
-      <c r="Q740" s="19"/>
-      <c r="S740" s="6"/>
-      <c r="T740" s="6"/>
-      <c r="U740" s="6"/>
-      <c r="V740" s="6"/>
-      <c r="W740" s="6"/>
-    </row>
-    <row r="741" spans="17:23">
-      <c r="Q741" s="19"/>
-      <c r="S741" s="6"/>
-      <c r="T741" s="6"/>
-      <c r="U741" s="6"/>
-      <c r="V741" s="6"/>
-      <c r="W741" s="6"/>
-    </row>
-    <row r="742" spans="17:23">
-      <c r="Q742" s="19"/>
-      <c r="S742" s="6"/>
-      <c r="T742" s="6"/>
-      <c r="U742" s="6"/>
-      <c r="V742" s="6"/>
-      <c r="W742" s="6"/>
-    </row>
-    <row r="743" spans="17:23">
-      <c r="Q743" s="19"/>
-      <c r="S743" s="6"/>
-      <c r="T743" s="6"/>
-      <c r="U743" s="6"/>
-      <c r="V743" s="6"/>
-      <c r="W743" s="6"/>
-    </row>
-    <row r="744" spans="17:23">
-      <c r="Q744" s="19"/>
-      <c r="S744" s="6"/>
-      <c r="T744" s="6"/>
-      <c r="U744" s="6"/>
-      <c r="V744" s="6"/>
-      <c r="W744" s="6"/>
-    </row>
-    <row r="745" spans="17:23">
-      <c r="Q745" s="19"/>
-      <c r="S745" s="6"/>
-      <c r="T745" s="6"/>
-      <c r="U745" s="6"/>
-      <c r="V745" s="6"/>
-      <c r="W745" s="6"/>
-    </row>
-    <row r="746" spans="17:23">
-      <c r="Q746" s="19"/>
-      <c r="S746" s="6"/>
-      <c r="T746" s="6"/>
-      <c r="U746" s="6"/>
-      <c r="V746" s="6"/>
-      <c r="W746" s="6"/>
-    </row>
-    <row r="747" spans="17:23">
-      <c r="Q747" s="19"/>
-      <c r="S747" s="6"/>
-      <c r="T747" s="6"/>
-      <c r="U747" s="6"/>
-      <c r="V747" s="6"/>
-      <c r="W747" s="6"/>
-    </row>
-    <row r="748" spans="17:23">
-      <c r="Q748" s="19"/>
-      <c r="S748" s="6"/>
-      <c r="T748" s="6"/>
-      <c r="U748" s="6"/>
-      <c r="V748" s="6"/>
-      <c r="W748" s="6"/>
-    </row>
-    <row r="749" spans="17:23">
-      <c r="Q749" s="19"/>
-      <c r="S749" s="6"/>
-      <c r="T749" s="6"/>
-      <c r="U749" s="6"/>
-      <c r="V749" s="6"/>
-      <c r="W749" s="6"/>
-    </row>
-    <row r="750" spans="17:23">
-      <c r="Q750" s="19"/>
-      <c r="S750" s="6"/>
-      <c r="T750" s="6"/>
-      <c r="U750" s="6"/>
-      <c r="V750" s="6"/>
-      <c r="W750" s="6"/>
-    </row>
-    <row r="751" spans="17:23">
-      <c r="Q751" s="19"/>
-      <c r="S751" s="6"/>
-      <c r="T751" s="6"/>
-      <c r="U751" s="6"/>
-      <c r="V751" s="6"/>
-      <c r="W751" s="6"/>
-    </row>
-    <row r="752" spans="17:23">
-      <c r="Q752" s="19"/>
-      <c r="S752" s="6"/>
-      <c r="T752" s="6"/>
-      <c r="U752" s="6"/>
-      <c r="V752" s="6"/>
-      <c r="W752" s="6"/>
-    </row>
-    <row r="753" spans="17:23">
-      <c r="Q753" s="19"/>
-      <c r="S753" s="6"/>
-      <c r="T753" s="6"/>
-      <c r="U753" s="6"/>
-      <c r="V753" s="6"/>
-      <c r="W753" s="6"/>
-    </row>
-    <row r="754" spans="17:23">
-      <c r="Q754" s="19"/>
-      <c r="S754" s="6"/>
-      <c r="T754" s="6"/>
-      <c r="U754" s="6"/>
-      <c r="V754" s="6"/>
-      <c r="W754" s="6"/>
-    </row>
-    <row r="755" spans="17:23">
-      <c r="Q755" s="19"/>
-      <c r="S755" s="6"/>
-      <c r="T755" s="6"/>
-      <c r="U755" s="6"/>
-      <c r="V755" s="6"/>
-      <c r="W755" s="6"/>
-    </row>
-    <row r="756" spans="17:23">
-      <c r="Q756" s="19"/>
-      <c r="S756" s="6"/>
-      <c r="T756" s="6"/>
-      <c r="U756" s="6"/>
-      <c r="V756" s="6"/>
-      <c r="W756" s="6"/>
-    </row>
-    <row r="757" spans="17:23">
-      <c r="Q757" s="19"/>
-      <c r="S757" s="6"/>
-      <c r="T757" s="6"/>
-      <c r="U757" s="6"/>
-      <c r="V757" s="6"/>
-      <c r="W757" s="6"/>
-    </row>
-    <row r="758" spans="17:23">
-      <c r="Q758" s="19"/>
-      <c r="S758" s="6"/>
-      <c r="T758" s="6"/>
-      <c r="U758" s="6"/>
-      <c r="V758" s="6"/>
-      <c r="W758" s="6"/>
-    </row>
-    <row r="759" spans="17:23">
-      <c r="Q759" s="19"/>
-      <c r="S759" s="6"/>
-      <c r="T759" s="6"/>
-      <c r="U759" s="6"/>
-      <c r="V759" s="6"/>
-      <c r="W759" s="6"/>
-    </row>
-    <row r="760" spans="17:23">
-      <c r="Q760" s="19"/>
-      <c r="S760" s="6"/>
-      <c r="T760" s="6"/>
-      <c r="U760" s="6"/>
-      <c r="V760" s="6"/>
-      <c r="W760" s="6"/>
-    </row>
-    <row r="761" spans="17:23">
-      <c r="Q761" s="19"/>
-      <c r="S761" s="6"/>
-      <c r="T761" s="6"/>
-      <c r="U761" s="6"/>
-      <c r="V761" s="6"/>
-      <c r="W761" s="6"/>
-    </row>
-    <row r="762" spans="17:23">
-      <c r="Q762" s="19"/>
-      <c r="S762" s="6"/>
-      <c r="T762" s="6"/>
-      <c r="U762" s="6"/>
-      <c r="V762" s="6"/>
-      <c r="W762" s="6"/>
-    </row>
-    <row r="763" spans="17:23">
-      <c r="Q763" s="19"/>
-      <c r="S763" s="6"/>
-      <c r="T763" s="6"/>
-      <c r="U763" s="6"/>
-      <c r="V763" s="6"/>
-      <c r="W763" s="6"/>
-    </row>
-    <row r="764" spans="17:23">
-      <c r="Q764" s="19"/>
-      <c r="S764" s="6"/>
-      <c r="T764" s="6"/>
-      <c r="U764" s="6"/>
-      <c r="V764" s="6"/>
-      <c r="W764" s="6"/>
-    </row>
-    <row r="765" spans="17:23">
-      <c r="Q765" s="19"/>
-      <c r="S765" s="6"/>
-      <c r="T765" s="6"/>
-      <c r="U765" s="6"/>
-      <c r="V765" s="6"/>
-      <c r="W765" s="6"/>
-    </row>
-    <row r="766" spans="17:23">
-      <c r="Q766" s="19"/>
-      <c r="S766" s="6"/>
-      <c r="T766" s="6"/>
-      <c r="U766" s="6"/>
-      <c r="V766" s="6"/>
-      <c r="W766" s="6"/>
-    </row>
-    <row r="767" spans="17:23">
-      <c r="Q767" s="19"/>
-      <c r="S767" s="6"/>
-      <c r="T767" s="6"/>
-      <c r="U767" s="6"/>
-      <c r="V767" s="6"/>
-      <c r="W767" s="6"/>
-    </row>
-    <row r="768" spans="17:23">
-      <c r="Q768" s="19"/>
-      <c r="S768" s="6"/>
-      <c r="T768" s="6"/>
-      <c r="U768" s="6"/>
-      <c r="V768" s="6"/>
-      <c r="W768" s="6"/>
-    </row>
-    <row r="769" spans="17:23">
-      <c r="Q769" s="19"/>
-      <c r="S769" s="6"/>
-      <c r="T769" s="6"/>
-      <c r="U769" s="6"/>
-      <c r="V769" s="6"/>
-      <c r="W769" s="6"/>
-    </row>
-    <row r="770" spans="17:23">
-      <c r="Q770" s="19"/>
-      <c r="S770" s="6"/>
-      <c r="T770" s="6"/>
-      <c r="U770" s="6"/>
-      <c r="V770" s="6"/>
-      <c r="W770" s="6"/>
-    </row>
-    <row r="771" spans="17:23">
-      <c r="Q771" s="19"/>
-      <c r="S771" s="6"/>
-      <c r="T771" s="6"/>
-      <c r="U771" s="6"/>
-      <c r="V771" s="6"/>
-      <c r="W771" s="6"/>
-    </row>
-    <row r="772" spans="17:23">
-      <c r="Q772" s="19"/>
-      <c r="S772" s="6"/>
-      <c r="T772" s="6"/>
-      <c r="U772" s="6"/>
-      <c r="V772" s="6"/>
-      <c r="W772" s="6"/>
-    </row>
-    <row r="773" spans="17:23">
-      <c r="Q773" s="19"/>
-      <c r="S773" s="6"/>
-      <c r="T773" s="6"/>
-      <c r="U773" s="6"/>
-      <c r="V773" s="6"/>
-      <c r="W773" s="6"/>
-    </row>
-    <row r="774" spans="17:23">
-      <c r="Q774" s="19"/>
-      <c r="S774" s="6"/>
-      <c r="T774" s="6"/>
-      <c r="U774" s="6"/>
-      <c r="V774" s="6"/>
-      <c r="W774" s="6"/>
-    </row>
-    <row r="775" spans="17:23">
-      <c r="Q775" s="19"/>
-      <c r="S775" s="6"/>
-      <c r="T775" s="6"/>
-      <c r="U775" s="6"/>
-      <c r="V775" s="6"/>
-      <c r="W775" s="6"/>
-    </row>
-    <row r="776" spans="17:23">
-      <c r="Q776" s="19"/>
-      <c r="S776" s="6"/>
-      <c r="T776" s="6"/>
-      <c r="U776" s="6"/>
-      <c r="V776" s="6"/>
-      <c r="W776" s="6"/>
-    </row>
-    <row r="777" spans="17:23">
-      <c r="Q777" s="19"/>
-      <c r="S777" s="6"/>
-      <c r="T777" s="6"/>
-      <c r="U777" s="6"/>
-      <c r="V777" s="6"/>
-      <c r="W777" s="6"/>
-    </row>
-    <row r="778" spans="17:23">
-      <c r="Q778" s="19"/>
-      <c r="S778" s="6"/>
-      <c r="T778" s="6"/>
-      <c r="U778" s="6"/>
-      <c r="V778" s="6"/>
-      <c r="W778" s="6"/>
-    </row>
-    <row r="779" spans="17:23">
-      <c r="Q779" s="19"/>
-      <c r="S779" s="6"/>
-      <c r="T779" s="6"/>
-      <c r="U779" s="6"/>
-      <c r="V779" s="6"/>
-      <c r="W779" s="6"/>
-    </row>
-    <row r="780" spans="17:23">
-      <c r="Q780" s="19"/>
-      <c r="S780" s="6"/>
-      <c r="T780" s="6"/>
-      <c r="U780" s="6"/>
-      <c r="V780" s="6"/>
-      <c r="W780" s="6"/>
-    </row>
-    <row r="781" spans="17:23">
-      <c r="Q781" s="19"/>
-      <c r="S781" s="6"/>
-      <c r="T781" s="6"/>
-      <c r="U781" s="6"/>
-      <c r="V781" s="6"/>
-      <c r="W781" s="6"/>
-    </row>
-    <row r="782" spans="17:23">
-      <c r="Q782" s="19"/>
-      <c r="S782" s="6"/>
-      <c r="T782" s="6"/>
-      <c r="U782" s="6"/>
-      <c r="V782" s="6"/>
-      <c r="W782" s="6"/>
-    </row>
-    <row r="783" spans="17:23">
-      <c r="Q783" s="19"/>
-      <c r="S783" s="6"/>
-      <c r="T783" s="6"/>
-      <c r="U783" s="6"/>
-      <c r="V783" s="6"/>
-      <c r="W783" s="6"/>
-    </row>
-    <row r="784" spans="17:23">
-      <c r="Q784" s="19"/>
-      <c r="S784" s="6"/>
-      <c r="T784" s="6"/>
-      <c r="U784" s="6"/>
-      <c r="V784" s="6"/>
-      <c r="W784" s="6"/>
-    </row>
-    <row r="785" spans="17:23">
-      <c r="Q785" s="19"/>
-      <c r="S785" s="6"/>
-      <c r="T785" s="6"/>
-      <c r="U785" s="6"/>
-      <c r="V785" s="6"/>
-      <c r="W785" s="6"/>
-    </row>
-    <row r="786" spans="17:23">
-      <c r="Q786" s="19"/>
-      <c r="S786" s="6"/>
-      <c r="T786" s="6"/>
-      <c r="U786" s="6"/>
-      <c r="V786" s="6"/>
-      <c r="W786" s="6"/>
-    </row>
-    <row r="787" spans="17:23">
-      <c r="Q787" s="19"/>
-      <c r="S787" s="6"/>
-      <c r="T787" s="6"/>
-      <c r="U787" s="6"/>
-      <c r="V787" s="6"/>
-      <c r="W787" s="6"/>
-    </row>
-    <row r="788" spans="17:23">
-      <c r="Q788" s="19"/>
-      <c r="S788" s="6"/>
-      <c r="T788" s="6"/>
-      <c r="U788" s="6"/>
-      <c r="V788" s="6"/>
-      <c r="W788" s="6"/>
-    </row>
-    <row r="789" spans="17:23">
-      <c r="Q789" s="19"/>
-      <c r="S789" s="6"/>
-      <c r="T789" s="6"/>
-      <c r="U789" s="6"/>
-      <c r="V789" s="6"/>
-      <c r="W789" s="6"/>
-    </row>
-    <row r="790" spans="17:23">
-      <c r="Q790" s="19"/>
-      <c r="S790" s="6"/>
-      <c r="T790" s="6"/>
-      <c r="U790" s="6"/>
-      <c r="V790" s="6"/>
-      <c r="W790" s="6"/>
-    </row>
-    <row r="791" spans="17:23">
-      <c r="Q791" s="19"/>
-      <c r="S791" s="6"/>
-      <c r="T791" s="6"/>
-      <c r="U791" s="6"/>
-      <c r="V791" s="6"/>
-      <c r="W791" s="6"/>
-    </row>
-    <row r="792" spans="17:23">
-      <c r="Q792" s="19"/>
-      <c r="S792" s="6"/>
-      <c r="T792" s="6"/>
-      <c r="U792" s="6"/>
-      <c r="V792" s="6"/>
-      <c r="W792" s="6"/>
-    </row>
-    <row r="793" spans="17:23">
-      <c r="Q793" s="19"/>
-      <c r="S793" s="6"/>
-      <c r="T793" s="6"/>
-      <c r="U793" s="6"/>
-      <c r="V793" s="6"/>
-      <c r="W793" s="6"/>
-    </row>
-    <row r="794" spans="17:23">
-      <c r="Q794" s="19"/>
-      <c r="S794" s="6"/>
-      <c r="T794" s="6"/>
-      <c r="U794" s="6"/>
-      <c r="V794" s="6"/>
-      <c r="W794" s="6"/>
-    </row>
-    <row r="795" spans="17:23">
-      <c r="Q795" s="19"/>
-      <c r="S795" s="6"/>
-      <c r="T795" s="6"/>
-      <c r="U795" s="6"/>
-      <c r="V795" s="6"/>
-      <c r="W795" s="6"/>
-    </row>
-    <row r="796" spans="17:23">
-      <c r="Q796" s="19"/>
-      <c r="S796" s="6"/>
-      <c r="T796" s="6"/>
-      <c r="U796" s="6"/>
-      <c r="V796" s="6"/>
-      <c r="W796" s="6"/>
-    </row>
-    <row r="797" spans="17:23">
-      <c r="Q797" s="19"/>
-      <c r="S797" s="6"/>
-      <c r="T797" s="6"/>
-      <c r="U797" s="6"/>
-      <c r="V797" s="6"/>
-      <c r="W797" s="6"/>
-    </row>
-    <row r="798" spans="17:23">
-      <c r="Q798" s="19"/>
-      <c r="S798" s="6"/>
-      <c r="T798" s="6"/>
-      <c r="U798" s="6"/>
-      <c r="V798" s="6"/>
-      <c r="W798" s="6"/>
-    </row>
-    <row r="799" spans="17:23">
-      <c r="Q799" s="19"/>
-      <c r="S799" s="6"/>
-      <c r="T799" s="6"/>
-      <c r="U799" s="6"/>
-      <c r="V799" s="6"/>
-      <c r="W799" s="6"/>
-    </row>
-    <row r="800" spans="17:23">
-      <c r="Q800" s="19"/>
-      <c r="S800" s="6"/>
-      <c r="T800" s="6"/>
-      <c r="U800" s="6"/>
-      <c r="V800" s="6"/>
-      <c r="W800" s="6"/>
-    </row>
-    <row r="801" spans="17:23">
-      <c r="Q801" s="19"/>
-      <c r="S801" s="6"/>
-      <c r="T801" s="6"/>
-      <c r="U801" s="6"/>
-      <c r="V801" s="6"/>
-      <c r="W801" s="6"/>
-    </row>
-    <row r="802" spans="17:23">
-      <c r="Q802" s="19"/>
-      <c r="S802" s="6"/>
-      <c r="T802" s="6"/>
-      <c r="U802" s="6"/>
-      <c r="V802" s="6"/>
-      <c r="W802" s="6"/>
-    </row>
-    <row r="803" spans="17:23">
-      <c r="Q803" s="19"/>
-      <c r="S803" s="6"/>
-      <c r="T803" s="6"/>
-      <c r="U803" s="6"/>
-      <c r="V803" s="6"/>
-      <c r="W803" s="6"/>
-    </row>
-    <row r="804" spans="17:23">
-      <c r="Q804" s="19"/>
-      <c r="S804" s="6"/>
-      <c r="T804" s="6"/>
-      <c r="U804" s="6"/>
-      <c r="V804" s="6"/>
-      <c r="W804" s="6"/>
-    </row>
-    <row r="805" spans="17:23">
-      <c r="Q805" s="19"/>
-      <c r="S805" s="6"/>
-      <c r="T805" s="6"/>
-      <c r="U805" s="6"/>
-      <c r="V805" s="6"/>
-      <c r="W805" s="6"/>
-    </row>
-    <row r="806" spans="17:23">
-      <c r="Q806" s="19"/>
-      <c r="S806" s="6"/>
-      <c r="T806" s="6"/>
-      <c r="U806" s="6"/>
-      <c r="V806" s="6"/>
-      <c r="W806" s="6"/>
-    </row>
-    <row r="807" spans="17:23">
-      <c r="Q807" s="19"/>
-      <c r="S807" s="6"/>
-      <c r="T807" s="6"/>
-      <c r="U807" s="6"/>
-      <c r="V807" s="6"/>
-      <c r="W807" s="6"/>
-    </row>
-    <row r="808" spans="17:23">
-      <c r="Q808" s="19"/>
-      <c r="S808" s="6"/>
-      <c r="T808" s="6"/>
-      <c r="U808" s="6"/>
-      <c r="V808" s="6"/>
-      <c r="W808" s="6"/>
-    </row>
-    <row r="809" spans="17:23">
-      <c r="Q809" s="19"/>
-      <c r="S809" s="6"/>
-      <c r="T809" s="6"/>
-      <c r="U809" s="6"/>
-      <c r="V809" s="6"/>
-      <c r="W809" s="6"/>
-    </row>
-    <row r="810" spans="17:23">
-      <c r="Q810" s="19"/>
-      <c r="S810" s="6"/>
-      <c r="T810" s="6"/>
-      <c r="U810" s="6"/>
-      <c r="V810" s="6"/>
-      <c r="W810" s="6"/>
-    </row>
-    <row r="811" spans="17:23">
-      <c r="Q811" s="19"/>
-      <c r="S811" s="6"/>
-      <c r="T811" s="6"/>
-      <c r="U811" s="6"/>
-      <c r="V811" s="6"/>
-      <c r="W811" s="6"/>
-    </row>
-    <row r="812" spans="17:23">
-      <c r="Q812" s="19"/>
-      <c r="S812" s="6"/>
-      <c r="T812" s="6"/>
-      <c r="U812" s="6"/>
-      <c r="V812" s="6"/>
-      <c r="W812" s="6"/>
-    </row>
-    <row r="813" spans="17:23">
-      <c r="Q813" s="19"/>
-      <c r="S813" s="6"/>
-      <c r="T813" s="6"/>
-      <c r="U813" s="6"/>
-      <c r="V813" s="6"/>
-      <c r="W813" s="6"/>
-    </row>
-    <row r="814" spans="17:23">
-      <c r="Q814" s="19"/>
-      <c r="S814" s="6"/>
-      <c r="T814" s="6"/>
-      <c r="U814" s="6"/>
-      <c r="V814" s="6"/>
-      <c r="W814" s="6"/>
-    </row>
-    <row r="815" spans="17:23">
-      <c r="Q815" s="19"/>
-      <c r="S815" s="6"/>
-      <c r="T815" s="6"/>
-      <c r="U815" s="6"/>
-      <c r="V815" s="6"/>
-      <c r="W815" s="6"/>
-    </row>
-    <row r="816" spans="17:23">
-      <c r="Q816" s="19"/>
-      <c r="S816" s="6"/>
-      <c r="T816" s="6"/>
-      <c r="U816" s="6"/>
-      <c r="V816" s="6"/>
-      <c r="W816" s="6"/>
-    </row>
-    <row r="817" spans="17:23">
-      <c r="Q817" s="19"/>
-      <c r="S817" s="6"/>
-      <c r="T817" s="6"/>
-      <c r="U817" s="6"/>
-      <c r="V817" s="6"/>
-      <c r="W817" s="6"/>
-    </row>
-    <row r="818" spans="17:23">
-      <c r="Q818" s="19"/>
-      <c r="S818" s="6"/>
-      <c r="T818" s="6"/>
-      <c r="U818" s="6"/>
-      <c r="V818" s="6"/>
-      <c r="W818" s="6"/>
-    </row>
-    <row r="819" spans="17:23">
-      <c r="Q819" s="19"/>
-      <c r="S819" s="6"/>
-      <c r="T819" s="6"/>
-      <c r="U819" s="6"/>
-      <c r="V819" s="6"/>
-      <c r="W819" s="6"/>
-    </row>
-    <row r="820" spans="17:23">
-      <c r="Q820" s="19"/>
-      <c r="S820" s="6"/>
-      <c r="T820" s="6"/>
-      <c r="U820" s="6"/>
-      <c r="V820" s="6"/>
-      <c r="W820" s="6"/>
-    </row>
-    <row r="821" spans="17:23">
-      <c r="Q821" s="19"/>
-      <c r="S821" s="6"/>
-      <c r="T821" s="6"/>
-      <c r="U821" s="6"/>
-      <c r="V821" s="6"/>
-      <c r="W821" s="6"/>
-    </row>
-    <row r="822" spans="17:23">
-      <c r="Q822" s="19"/>
-      <c r="S822" s="6"/>
-      <c r="T822" s="6"/>
-      <c r="U822" s="6"/>
-      <c r="V822" s="6"/>
-      <c r="W822" s="6"/>
-    </row>
-    <row r="823" spans="17:23">
-      <c r="Q823" s="19"/>
-      <c r="S823" s="6"/>
-      <c r="T823" s="6"/>
-      <c r="U823" s="6"/>
-      <c r="V823" s="6"/>
-      <c r="W823" s="6"/>
-    </row>
-    <row r="824" spans="17:23">
-      <c r="Q824" s="19"/>
-      <c r="S824" s="6"/>
-      <c r="T824" s="6"/>
-      <c r="U824" s="6"/>
-      <c r="V824" s="6"/>
-      <c r="W824" s="6"/>
-    </row>
-    <row r="825" spans="17:23">
-      <c r="Q825" s="19"/>
-      <c r="S825" s="6"/>
-      <c r="T825" s="6"/>
-      <c r="U825" s="6"/>
-      <c r="V825" s="6"/>
-      <c r="W825" s="6"/>
-    </row>
-    <row r="826" spans="17:23">
-      <c r="Q826" s="19"/>
-      <c r="S826" s="6"/>
-      <c r="T826" s="6"/>
-      <c r="U826" s="6"/>
-      <c r="V826" s="6"/>
-      <c r="W826" s="6"/>
-    </row>
-    <row r="827" spans="17:23">
-      <c r="Q827" s="19"/>
-      <c r="S827" s="6"/>
-      <c r="T827" s="6"/>
-      <c r="U827" s="6"/>
-      <c r="V827" s="6"/>
-      <c r="W827" s="6"/>
-    </row>
-    <row r="828" spans="17:23">
-      <c r="Q828" s="19"/>
-      <c r="S828" s="6"/>
-      <c r="T828" s="6"/>
-      <c r="U828" s="6"/>
-      <c r="V828" s="6"/>
-      <c r="W828" s="6"/>
-    </row>
-    <row r="829" spans="17:23">
-      <c r="Q829" s="19"/>
-      <c r="S829" s="6"/>
-      <c r="T829" s="6"/>
-      <c r="U829" s="6"/>
-      <c r="V829" s="6"/>
-      <c r="W829" s="6"/>
-    </row>
-    <row r="830" spans="17:23">
-      <c r="Q830" s="19"/>
-      <c r="S830" s="6"/>
-      <c r="T830" s="6"/>
-      <c r="U830" s="6"/>
-      <c r="V830" s="6"/>
-      <c r="W830" s="6"/>
-    </row>
-    <row r="831" spans="17:23">
-      <c r="Q831" s="19"/>
-      <c r="S831" s="6"/>
-      <c r="T831" s="6"/>
-      <c r="U831" s="6"/>
-      <c r="V831" s="6"/>
-      <c r="W831" s="6"/>
-    </row>
-    <row r="832" spans="17:23">
-      <c r="Q832" s="19"/>
-      <c r="S832" s="6"/>
-      <c r="T832" s="6"/>
-      <c r="U832" s="6"/>
-      <c r="V832" s="6"/>
-      <c r="W832" s="6"/>
-    </row>
-    <row r="833" spans="17:23">
-      <c r="Q833" s="19"/>
-      <c r="S833" s="6"/>
-      <c r="T833" s="6"/>
-      <c r="U833" s="6"/>
-      <c r="V833" s="6"/>
-      <c r="W833" s="6"/>
-    </row>
-    <row r="834" spans="17:23">
-      <c r="Q834" s="19"/>
-      <c r="S834" s="6"/>
-      <c r="T834" s="6"/>
-      <c r="U834" s="6"/>
-      <c r="V834" s="6"/>
-      <c r="W834" s="6"/>
-    </row>
-    <row r="835" spans="17:23">
-      <c r="Q835" s="19"/>
-      <c r="S835" s="6"/>
-      <c r="T835" s="6"/>
-      <c r="U835" s="6"/>
-      <c r="V835" s="6"/>
-      <c r="W835" s="6"/>
-    </row>
-    <row r="836" spans="17:23">
-      <c r="Q836" s="19"/>
-      <c r="S836" s="6"/>
-      <c r="T836" s="6"/>
-      <c r="U836" s="6"/>
-      <c r="V836" s="6"/>
-      <c r="W836" s="6"/>
-    </row>
-    <row r="837" spans="17:23">
-      <c r="Q837" s="19"/>
-      <c r="S837" s="6"/>
-      <c r="T837" s="6"/>
-      <c r="U837" s="6"/>
-      <c r="V837" s="6"/>
-      <c r="W837" s="6"/>
-    </row>
-    <row r="838" spans="17:23">
-      <c r="Q838" s="19"/>
-      <c r="S838" s="6"/>
-      <c r="T838" s="6"/>
-      <c r="U838" s="6"/>
-      <c r="V838" s="6"/>
-      <c r="W838" s="6"/>
-    </row>
-    <row r="839" spans="17:23">
-      <c r="Q839" s="19"/>
-      <c r="S839" s="6"/>
-      <c r="T839" s="6"/>
-      <c r="U839" s="6"/>
-      <c r="V839" s="6"/>
-      <c r="W839" s="6"/>
-    </row>
-    <row r="840" spans="17:23">
-      <c r="Q840" s="19"/>
-      <c r="S840" s="6"/>
-      <c r="T840" s="6"/>
-      <c r="U840" s="6"/>
-      <c r="V840" s="6"/>
-      <c r="W840" s="6"/>
-    </row>
-    <row r="841" spans="17:23">
-      <c r="Q841" s="19"/>
-      <c r="S841" s="6"/>
-      <c r="T841" s="6"/>
-      <c r="U841" s="6"/>
-      <c r="V841" s="6"/>
-      <c r="W841" s="6"/>
-    </row>
-    <row r="842" spans="17:23">
-      <c r="Q842" s="19"/>
-      <c r="S842" s="6"/>
-      <c r="T842" s="6"/>
-      <c r="U842" s="6"/>
-      <c r="V842" s="6"/>
-      <c r="W842" s="6"/>
-    </row>
-    <row r="843" spans="17:23">
-      <c r="Q843" s="19"/>
-      <c r="S843" s="6"/>
-      <c r="T843" s="6"/>
-      <c r="U843" s="6"/>
-      <c r="V843" s="6"/>
-      <c r="W843" s="6"/>
-    </row>
-    <row r="844" spans="17:23">
-      <c r="Q844" s="19"/>
-      <c r="S844" s="6"/>
-      <c r="T844" s="6"/>
-      <c r="U844" s="6"/>
-      <c r="V844" s="6"/>
-      <c r="W844" s="6"/>
-    </row>
-    <row r="845" spans="17:23">
-      <c r="Q845" s="19"/>
-      <c r="S845" s="6"/>
-      <c r="T845" s="6"/>
-      <c r="U845" s="6"/>
-      <c r="V845" s="6"/>
-      <c r="W845" s="6"/>
-    </row>
-    <row r="846" spans="17:23">
-      <c r="Q846" s="19"/>
-      <c r="S846" s="6"/>
-      <c r="T846" s="6"/>
-      <c r="U846" s="6"/>
-      <c r="V846" s="6"/>
-      <c r="W846" s="6"/>
-    </row>
-    <row r="847" spans="17:23">
-      <c r="Q847" s="19"/>
-      <c r="S847" s="6"/>
-      <c r="T847" s="6"/>
-      <c r="U847" s="6"/>
-      <c r="V847" s="6"/>
-      <c r="W847" s="6"/>
-    </row>
-    <row r="848" spans="17:23">
-      <c r="Q848" s="19"/>
-      <c r="S848" s="6"/>
-      <c r="T848" s="6"/>
-      <c r="U848" s="6"/>
-      <c r="V848" s="6"/>
-      <c r="W848" s="6"/>
-    </row>
-    <row r="849" spans="17:23">
-      <c r="Q849" s="19"/>
-      <c r="S849" s="6"/>
-      <c r="T849" s="6"/>
-      <c r="U849" s="6"/>
-      <c r="V849" s="6"/>
-      <c r="W849" s="6"/>
-    </row>
-    <row r="850" spans="17:23">
-      <c r="Q850" s="19"/>
-      <c r="S850" s="6"/>
-      <c r="T850" s="6"/>
-      <c r="U850" s="6"/>
-      <c r="V850" s="6"/>
-      <c r="W850" s="6"/>
-    </row>
-    <row r="851" spans="17:23">
-      <c r="Q851" s="19"/>
-      <c r="S851" s="6"/>
-      <c r="T851" s="6"/>
-      <c r="U851" s="6"/>
-      <c r="V851" s="6"/>
-      <c r="W851" s="6"/>
-    </row>
-    <row r="852" spans="17:23">
-      <c r="Q852" s="19"/>
-      <c r="S852" s="6"/>
-      <c r="T852" s="6"/>
-      <c r="U852" s="6"/>
-      <c r="V852" s="6"/>
-      <c r="W852" s="6"/>
-    </row>
-    <row r="853" spans="17:23">
-      <c r="Q853" s="19"/>
-      <c r="S853" s="6"/>
-      <c r="T853" s="6"/>
-      <c r="U853" s="6"/>
-      <c r="V853" s="6"/>
-      <c r="W853" s="6"/>
-    </row>
-    <row r="854" spans="17:23">
-      <c r="Q854" s="19"/>
-      <c r="S854" s="6"/>
-      <c r="T854" s="6"/>
-      <c r="U854" s="6"/>
-      <c r="V854" s="6"/>
-      <c r="W854" s="6"/>
-    </row>
-    <row r="855" spans="17:23">
-      <c r="Q855" s="19"/>
-      <c r="S855" s="6"/>
-      <c r="T855" s="6"/>
-      <c r="U855" s="6"/>
-      <c r="V855" s="6"/>
-      <c r="W855" s="6"/>
-    </row>
-    <row r="856" spans="17:23">
-      <c r="Q856" s="19"/>
-      <c r="S856" s="6"/>
-      <c r="T856" s="6"/>
-      <c r="U856" s="6"/>
-      <c r="V856" s="6"/>
-      <c r="W856" s="6"/>
-    </row>
-    <row r="857" spans="17:23">
-      <c r="Q857" s="19"/>
-      <c r="S857" s="6"/>
-      <c r="T857" s="6"/>
-      <c r="U857" s="6"/>
-      <c r="V857" s="6"/>
-      <c r="W857" s="6"/>
-    </row>
-    <row r="858" spans="17:23">
-      <c r="Q858" s="19"/>
-      <c r="S858" s="6"/>
-      <c r="T858" s="6"/>
-      <c r="U858" s="6"/>
-      <c r="V858" s="6"/>
-      <c r="W858" s="6"/>
-    </row>
-    <row r="859" spans="17:23">
-      <c r="Q859" s="19"/>
-      <c r="S859" s="6"/>
-      <c r="T859" s="6"/>
-      <c r="U859" s="6"/>
-      <c r="V859" s="6"/>
-      <c r="W859" s="6"/>
-    </row>
-    <row r="860" spans="17:23">
-      <c r="Q860" s="19"/>
-      <c r="S860" s="6"/>
-      <c r="T860" s="6"/>
-      <c r="U860" s="6"/>
-      <c r="V860" s="6"/>
-      <c r="W860" s="6"/>
-    </row>
-    <row r="861" spans="17:23">
-      <c r="Q861" s="19"/>
-      <c r="S861" s="6"/>
-      <c r="T861" s="6"/>
-      <c r="U861" s="6"/>
-      <c r="V861" s="6"/>
-      <c r="W861" s="6"/>
-    </row>
-    <row r="862" spans="17:23">
-      <c r="Q862" s="19"/>
-      <c r="S862" s="6"/>
-      <c r="T862" s="6"/>
-      <c r="U862" s="6"/>
-      <c r="V862" s="6"/>
-      <c r="W862" s="6"/>
-    </row>
-    <row r="863" spans="17:23">
-      <c r="Q863" s="19"/>
-      <c r="S863" s="6"/>
-      <c r="T863" s="6"/>
-      <c r="U863" s="6"/>
-      <c r="V863" s="6"/>
-      <c r="W863" s="6"/>
-    </row>
-    <row r="864" spans="17:23">
-      <c r="Q864" s="19"/>
-      <c r="S864" s="6"/>
-      <c r="T864" s="6"/>
-      <c r="U864" s="6"/>
-      <c r="V864" s="6"/>
-      <c r="W864" s="6"/>
-    </row>
-    <row r="865" spans="17:23">
-      <c r="Q865" s="19"/>
-      <c r="S865" s="6"/>
-      <c r="T865" s="6"/>
-      <c r="U865" s="6"/>
-      <c r="V865" s="6"/>
-      <c r="W865" s="6"/>
-    </row>
-    <row r="866" spans="17:23">
-      <c r="Q866" s="19"/>
-      <c r="S866" s="6"/>
-      <c r="T866" s="6"/>
-      <c r="U866" s="6"/>
-      <c r="V866" s="6"/>
-      <c r="W866" s="6"/>
-    </row>
-    <row r="867" spans="17:23">
-      <c r="Q867" s="19"/>
-      <c r="S867" s="6"/>
-      <c r="T867" s="6"/>
-      <c r="U867" s="6"/>
-      <c r="V867" s="6"/>
-      <c r="W867" s="6"/>
-    </row>
-    <row r="868" spans="17:23">
-      <c r="Q868" s="19"/>
-      <c r="S868" s="6"/>
-      <c r="T868" s="6"/>
-      <c r="U868" s="6"/>
-      <c r="V868" s="6"/>
-      <c r="W868" s="6"/>
-    </row>
-    <row r="869" spans="17:23">
-      <c r="Q869" s="19"/>
-      <c r="S869" s="6"/>
-      <c r="T869" s="6"/>
-      <c r="U869" s="6"/>
-      <c r="V869" s="6"/>
-      <c r="W869" s="6"/>
-    </row>
-    <row r="870" spans="17:23">
-      <c r="Q870" s="19"/>
-      <c r="S870" s="6"/>
-      <c r="T870" s="6"/>
-      <c r="U870" s="6"/>
-      <c r="V870" s="6"/>
-      <c r="W870" s="6"/>
-    </row>
-    <row r="871" spans="17:23">
-      <c r="Q871" s="19"/>
-      <c r="S871" s="6"/>
-      <c r="T871" s="6"/>
-      <c r="U871" s="6"/>
-      <c r="V871" s="6"/>
-      <c r="W871" s="6"/>
-    </row>
-    <row r="872" spans="17:23">
-      <c r="Q872" s="19"/>
-      <c r="S872" s="6"/>
-      <c r="T872" s="6"/>
-      <c r="U872" s="6"/>
-      <c r="V872" s="6"/>
-      <c r="W872" s="6"/>
-    </row>
-    <row r="873" spans="17:23">
-      <c r="Q873" s="19"/>
-      <c r="S873" s="6"/>
-      <c r="T873" s="6"/>
-      <c r="U873" s="6"/>
-      <c r="V873" s="6"/>
-      <c r="W873" s="6"/>
-    </row>
-    <row r="874" spans="17:23">
-      <c r="Q874" s="19"/>
-      <c r="S874" s="6"/>
-      <c r="T874" s="6"/>
-      <c r="U874" s="6"/>
-      <c r="V874" s="6"/>
-      <c r="W874" s="6"/>
-    </row>
-    <row r="875" spans="17:23">
-      <c r="Q875" s="19"/>
-      <c r="S875" s="6"/>
-      <c r="T875" s="6"/>
-      <c r="U875" s="6"/>
-      <c r="V875" s="6"/>
-      <c r="W875" s="6"/>
-    </row>
-    <row r="876" spans="17:23">
-      <c r="Q876" s="19"/>
-      <c r="S876" s="6"/>
-      <c r="T876" s="6"/>
-      <c r="U876" s="6"/>
-      <c r="V876" s="6"/>
-      <c r="W876" s="6"/>
-    </row>
-    <row r="877" spans="17:23">
-      <c r="Q877" s="19"/>
-      <c r="S877" s="6"/>
-      <c r="T877" s="6"/>
-      <c r="U877" s="6"/>
-      <c r="V877" s="6"/>
-      <c r="W877" s="6"/>
-    </row>
-    <row r="878" spans="17:23">
-      <c r="Q878" s="19"/>
-      <c r="S878" s="6"/>
-      <c r="T878" s="6"/>
-      <c r="U878" s="6"/>
-      <c r="V878" s="6"/>
-      <c r="W878" s="6"/>
-    </row>
-    <row r="879" spans="17:23">
-      <c r="Q879" s="19"/>
-      <c r="S879" s="6"/>
-      <c r="T879" s="6"/>
-      <c r="U879" s="6"/>
-      <c r="V879" s="6"/>
-      <c r="W879" s="6"/>
-    </row>
-    <row r="880" spans="17:23">
-      <c r="Q880" s="19"/>
-      <c r="S880" s="6"/>
-      <c r="T880" s="6"/>
-      <c r="U880" s="6"/>
-      <c r="V880" s="6"/>
-      <c r="W880" s="6"/>
-    </row>
-    <row r="881" spans="17:23">
-      <c r="Q881" s="19"/>
-      <c r="S881" s="6"/>
-      <c r="T881" s="6"/>
-      <c r="U881" s="6"/>
-      <c r="V881" s="6"/>
-      <c r="W881" s="6"/>
-    </row>
-    <row r="882" spans="17:23">
-      <c r="Q882" s="19"/>
-      <c r="S882" s="6"/>
-      <c r="T882" s="6"/>
-      <c r="U882" s="6"/>
-      <c r="V882" s="6"/>
-      <c r="W882" s="6"/>
-    </row>
-    <row r="883" spans="17:23">
-      <c r="Q883" s="19"/>
-      <c r="S883" s="6"/>
-      <c r="T883" s="6"/>
-      <c r="U883" s="6"/>
-      <c r="V883" s="6"/>
-      <c r="W883" s="6"/>
-    </row>
-    <row r="884" spans="17:23">
-      <c r="Q884" s="19"/>
-      <c r="S884" s="6"/>
-      <c r="T884" s="6"/>
-      <c r="U884" s="6"/>
-      <c r="V884" s="6"/>
-      <c r="W884" s="6"/>
-    </row>
-    <row r="885" spans="17:23">
-      <c r="Q885" s="19"/>
-      <c r="S885" s="6"/>
-      <c r="T885" s="6"/>
-      <c r="U885" s="6"/>
-      <c r="V885" s="6"/>
-      <c r="W885" s="6"/>
-    </row>
-    <row r="886" spans="17:23">
-      <c r="Q886" s="19"/>
-      <c r="S886" s="6"/>
-      <c r="T886" s="6"/>
-      <c r="U886" s="6"/>
-      <c r="V886" s="6"/>
-      <c r="W886" s="6"/>
-    </row>
-    <row r="887" spans="17:23">
-      <c r="Q887" s="19"/>
-      <c r="S887" s="6"/>
-      <c r="T887" s="6"/>
-      <c r="U887" s="6"/>
-      <c r="V887" s="6"/>
-      <c r="W887" s="6"/>
-    </row>
-    <row r="888" spans="17:23">
-      <c r="Q888" s="19"/>
-      <c r="S888" s="6"/>
-      <c r="T888" s="6"/>
-      <c r="U888" s="6"/>
-      <c r="V888" s="6"/>
-      <c r="W888" s="6"/>
-    </row>
-    <row r="889" spans="17:23">
-      <c r="Q889" s="19"/>
-      <c r="S889" s="6"/>
-      <c r="T889" s="6"/>
-      <c r="U889" s="6"/>
-      <c r="V889" s="6"/>
-      <c r="W889" s="6"/>
-    </row>
-    <row r="890" spans="17:23">
-      <c r="Q890" s="19"/>
-      <c r="S890" s="6"/>
-      <c r="T890" s="6"/>
-      <c r="U890" s="6"/>
-      <c r="V890" s="6"/>
-      <c r="W890" s="6"/>
-    </row>
-    <row r="891" spans="17:23">
-      <c r="Q891" s="19"/>
-      <c r="S891" s="6"/>
-      <c r="T891" s="6"/>
-      <c r="U891" s="6"/>
-      <c r="V891" s="6"/>
-      <c r="W891" s="6"/>
-    </row>
-    <row r="892" spans="17:23">
-      <c r="Q892" s="19"/>
-      <c r="S892" s="6"/>
-      <c r="T892" s="6"/>
-      <c r="U892" s="6"/>
-      <c r="V892" s="6"/>
-      <c r="W892" s="6"/>
-    </row>
-    <row r="893" spans="17:23">
-      <c r="Q893" s="19"/>
-      <c r="S893" s="6"/>
-      <c r="T893" s="6"/>
-      <c r="U893" s="6"/>
-      <c r="V893" s="6"/>
-      <c r="W893" s="6"/>
-    </row>
-    <row r="894" spans="17:23">
-      <c r="Q894" s="19"/>
-      <c r="S894" s="6"/>
-      <c r="T894" s="6"/>
-      <c r="U894" s="6"/>
-      <c r="V894" s="6"/>
-      <c r="W894" s="6"/>
-    </row>
-    <row r="895" spans="17:23">
-      <c r="Q895" s="19"/>
-      <c r="S895" s="6"/>
-      <c r="T895" s="6"/>
-      <c r="U895" s="6"/>
-      <c r="V895" s="6"/>
-      <c r="W895" s="6"/>
-    </row>
-    <row r="896" spans="17:23">
-      <c r="Q896" s="19"/>
-      <c r="S896" s="6"/>
-      <c r="T896" s="6"/>
-      <c r="U896" s="6"/>
-      <c r="V896" s="6"/>
-      <c r="W896" s="6"/>
-    </row>
-    <row r="897" spans="17:23">
-      <c r="Q897" s="19"/>
-      <c r="S897" s="6"/>
-      <c r="T897" s="6"/>
-      <c r="U897" s="6"/>
-      <c r="V897" s="6"/>
-      <c r="W897" s="6"/>
-    </row>
-    <row r="898" spans="17:23">
-      <c r="Q898" s="19"/>
-      <c r="S898" s="6"/>
-      <c r="T898" s="6"/>
-      <c r="U898" s="6"/>
-      <c r="V898" s="6"/>
-      <c r="W898" s="6"/>
-    </row>
-    <row r="899" spans="17:23">
-      <c r="Q899" s="19"/>
-      <c r="S899" s="6"/>
-      <c r="T899" s="6"/>
-      <c r="U899" s="6"/>
-      <c r="V899" s="6"/>
-      <c r="W899" s="6"/>
-    </row>
-    <row r="900" spans="17:23">
-      <c r="Q900" s="19"/>
-      <c r="S900" s="6"/>
-      <c r="T900" s="6"/>
-      <c r="U900" s="6"/>
-      <c r="V900" s="6"/>
-      <c r="W900" s="6"/>
-    </row>
-    <row r="901" spans="17:23">
-      <c r="Q901" s="19"/>
-      <c r="S901" s="6"/>
-      <c r="T901" s="6"/>
-      <c r="U901" s="6"/>
-      <c r="V901" s="6"/>
-      <c r="W901" s="6"/>
-    </row>
-    <row r="902" spans="17:23">
-      <c r="Q902" s="19"/>
-      <c r="S902" s="6"/>
-      <c r="T902" s="6"/>
-      <c r="U902" s="6"/>
-      <c r="V902" s="6"/>
-      <c r="W902" s="6"/>
-    </row>
-    <row r="903" spans="17:23">
-      <c r="Q903" s="19"/>
-      <c r="S903" s="6"/>
-      <c r="T903" s="6"/>
-      <c r="U903" s="6"/>
-      <c r="V903" s="6"/>
-      <c r="W903" s="6"/>
-    </row>
-    <row r="904" spans="17:23">
-      <c r="Q904" s="19"/>
-      <c r="S904" s="6"/>
-      <c r="T904" s="6"/>
-      <c r="U904" s="6"/>
-      <c r="V904" s="6"/>
-      <c r="W904" s="6"/>
-    </row>
-    <row r="905" spans="17:23">
-      <c r="Q905" s="19"/>
-      <c r="S905" s="6"/>
-      <c r="T905" s="6"/>
-      <c r="U905" s="6"/>
-      <c r="V905" s="6"/>
-      <c r="W905" s="6"/>
-    </row>
-    <row r="906" spans="17:23">
-      <c r="Q906" s="19"/>
-      <c r="S906" s="6"/>
-      <c r="T906" s="6"/>
-      <c r="U906" s="6"/>
-      <c r="V906" s="6"/>
-      <c r="W906" s="6"/>
-    </row>
-    <row r="907" spans="17:23">
-      <c r="Q907" s="19"/>
-      <c r="S907" s="6"/>
-      <c r="T907" s="6"/>
-      <c r="U907" s="6"/>
-      <c r="V907" s="6"/>
-      <c r="W907" s="6"/>
-    </row>
-    <row r="908" spans="17:23">
-      <c r="Q908" s="19"/>
-      <c r="S908" s="6"/>
-      <c r="T908" s="6"/>
-      <c r="U908" s="6"/>
-      <c r="V908" s="6"/>
-      <c r="W908" s="6"/>
-    </row>
-    <row r="909" spans="17:23">
-      <c r="Q909" s="19"/>
-      <c r="S909" s="6"/>
-      <c r="T909" s="6"/>
-      <c r="U909" s="6"/>
-      <c r="V909" s="6"/>
-      <c r="W909" s="6"/>
-    </row>
-    <row r="910" spans="17:23">
-      <c r="Q910" s="19"/>
-      <c r="S910" s="6"/>
-      <c r="T910" s="6"/>
-      <c r="U910" s="6"/>
-      <c r="V910" s="6"/>
-      <c r="W910" s="6"/>
-    </row>
-    <row r="911" spans="17:23">
-      <c r="Q911" s="19"/>
-      <c r="S911" s="6"/>
-      <c r="T911" s="6"/>
-      <c r="U911" s="6"/>
-      <c r="V911" s="6"/>
-      <c r="W911" s="6"/>
-    </row>
-    <row r="912" spans="17:23">
-      <c r="Q912" s="19"/>
-      <c r="S912" s="6"/>
-      <c r="T912" s="6"/>
-      <c r="U912" s="6"/>
-      <c r="V912" s="6"/>
-      <c r="W912" s="6"/>
-    </row>
-    <row r="913" spans="17:23">
-      <c r="Q913" s="19"/>
-      <c r="S913" s="6"/>
-      <c r="T913" s="6"/>
-      <c r="U913" s="6"/>
-      <c r="V913" s="6"/>
-      <c r="W913" s="6"/>
-    </row>
-    <row r="914" spans="17:23">
-      <c r="Q914" s="19"/>
-      <c r="S914" s="6"/>
-      <c r="T914" s="6"/>
-      <c r="U914" s="6"/>
-      <c r="V914" s="6"/>
-      <c r="W914" s="6"/>
-    </row>
-    <row r="915" spans="17:23">
-      <c r="Q915" s="19"/>
-      <c r="S915" s="6"/>
-      <c r="T915" s="6"/>
-      <c r="U915" s="6"/>
-      <c r="V915" s="6"/>
-      <c r="W915" s="6"/>
-    </row>
-    <row r="916" spans="17:23">
-      <c r="Q916" s="19"/>
-      <c r="S916" s="6"/>
-      <c r="T916" s="6"/>
-      <c r="U916" s="6"/>
-      <c r="V916" s="6"/>
-      <c r="W916" s="6"/>
-    </row>
-    <row r="917" spans="17:23">
-      <c r="Q917" s="19"/>
-      <c r="S917" s="6"/>
-      <c r="T917" s="6"/>
-      <c r="U917" s="6"/>
-      <c r="V917" s="6"/>
-      <c r="W917" s="6"/>
-    </row>
-    <row r="918" spans="17:23">
-      <c r="Q918" s="19"/>
-      <c r="S918" s="6"/>
-      <c r="T918" s="6"/>
-      <c r="U918" s="6"/>
-      <c r="V918" s="6"/>
-      <c r="W918" s="6"/>
-    </row>
-    <row r="919" spans="17:23">
-      <c r="Q919" s="19"/>
-      <c r="S919" s="6"/>
-      <c r="T919" s="6"/>
-      <c r="U919" s="6"/>
-      <c r="V919" s="6"/>
-      <c r="W919" s="6"/>
-    </row>
-    <row r="920" spans="17:23">
-      <c r="Q920" s="19"/>
-      <c r="S920" s="6"/>
-      <c r="T920" s="6"/>
-      <c r="U920" s="6"/>
-      <c r="V920" s="6"/>
-      <c r="W920" s="6"/>
-    </row>
-    <row r="921" spans="17:23">
-      <c r="Q921" s="19"/>
-      <c r="S921" s="6"/>
-      <c r="T921" s="6"/>
-      <c r="U921" s="6"/>
-      <c r="V921" s="6"/>
-      <c r="W921" s="6"/>
-    </row>
-    <row r="922" spans="17:23">
-      <c r="Q922" s="19"/>
-      <c r="S922" s="6"/>
-      <c r="T922" s="6"/>
-      <c r="U922" s="6"/>
-      <c r="V922" s="6"/>
-      <c r="W922" s="6"/>
-    </row>
-    <row r="923" spans="17:23">
-      <c r="Q923" s="19"/>
-      <c r="S923" s="6"/>
-      <c r="T923" s="6"/>
-      <c r="U923" s="6"/>
-      <c r="V923" s="6"/>
-      <c r="W923" s="6"/>
-    </row>
-    <row r="924" spans="17:23">
-      <c r="Q924" s="19"/>
-      <c r="S924" s="6"/>
-      <c r="T924" s="6"/>
-      <c r="U924" s="6"/>
-      <c r="V924" s="6"/>
-      <c r="W924" s="6"/>
-    </row>
-    <row r="925" spans="17:23">
-      <c r="Q925" s="19"/>
-      <c r="S925" s="6"/>
-      <c r="T925" s="6"/>
-      <c r="U925" s="6"/>
-      <c r="V925" s="6"/>
-      <c r="W925" s="6"/>
-    </row>
-    <row r="926" spans="17:23">
-      <c r="Q926" s="19"/>
-      <c r="S926" s="6"/>
-      <c r="T926" s="6"/>
-      <c r="U926" s="6"/>
-      <c r="V926" s="6"/>
-      <c r="W926" s="6"/>
-    </row>
-    <row r="927" spans="17:23">
-      <c r="Q927" s="19"/>
-      <c r="S927" s="6"/>
-      <c r="T927" s="6"/>
-      <c r="U927" s="6"/>
-      <c r="V927" s="6"/>
-      <c r="W927" s="6"/>
-    </row>
-    <row r="928" spans="17:23">
-      <c r="Q928" s="19"/>
-      <c r="S928" s="6"/>
-      <c r="T928" s="6"/>
-      <c r="U928" s="6"/>
-      <c r="V928" s="6"/>
-      <c r="W928" s="6"/>
-    </row>
-    <row r="929" spans="17:23">
-      <c r="Q929" s="19"/>
-      <c r="S929" s="6"/>
-      <c r="T929" s="6"/>
-      <c r="U929" s="6"/>
-      <c r="V929" s="6"/>
-      <c r="W929" s="6"/>
-    </row>
-    <row r="930" spans="17:23">
-      <c r="Q930" s="19"/>
-      <c r="S930" s="6"/>
-      <c r="T930" s="6"/>
-      <c r="U930" s="6"/>
-      <c r="V930" s="6"/>
-      <c r="W930" s="6"/>
-    </row>
-    <row r="931" spans="17:23">
-      <c r="Q931" s="19"/>
-      <c r="S931" s="6"/>
-      <c r="T931" s="6"/>
-      <c r="U931" s="6"/>
-      <c r="V931" s="6"/>
-      <c r="W931" s="6"/>
-    </row>
-    <row r="932" spans="17:23">
-      <c r="Q932" s="19"/>
-      <c r="S932" s="6"/>
-      <c r="T932" s="6"/>
-      <c r="U932" s="6"/>
-      <c r="V932" s="6"/>
-      <c r="W932" s="6"/>
-    </row>
-    <row r="933" spans="17:23">
-      <c r="Q933" s="19"/>
-      <c r="S933" s="6"/>
-      <c r="T933" s="6"/>
-      <c r="U933" s="6"/>
-      <c r="V933" s="6"/>
-      <c r="W933" s="6"/>
-    </row>
-    <row r="934" spans="17:23">
-      <c r="Q934" s="19"/>
-      <c r="S934" s="6"/>
-      <c r="T934" s="6"/>
-      <c r="U934" s="6"/>
-      <c r="V934" s="6"/>
-      <c r="W934" s="6"/>
-    </row>
-    <row r="935" spans="17:23">
-      <c r="Q935" s="19"/>
-      <c r="S935" s="6"/>
-      <c r="T935" s="6"/>
-      <c r="U935" s="6"/>
-      <c r="V935" s="6"/>
-      <c r="W935" s="6"/>
-    </row>
-    <row r="936" spans="17:23">
-      <c r="Q936" s="19"/>
-      <c r="S936" s="6"/>
-      <c r="T936" s="6"/>
-      <c r="U936" s="6"/>
-      <c r="V936" s="6"/>
-      <c r="W936" s="6"/>
-    </row>
-    <row r="937" spans="17:23">
-      <c r="Q937" s="19"/>
-      <c r="S937" s="6"/>
-      <c r="T937" s="6"/>
-      <c r="U937" s="6"/>
-      <c r="V937" s="6"/>
-      <c r="W937" s="6"/>
-    </row>
-    <row r="938" spans="17:23">
-      <c r="Q938" s="19"/>
-      <c r="S938" s="6"/>
-      <c r="T938" s="6"/>
-      <c r="U938" s="6"/>
-      <c r="V938" s="6"/>
-      <c r="W938" s="6"/>
-    </row>
-    <row r="939" spans="17:23">
-      <c r="Q939" s="19"/>
-      <c r="S939" s="6"/>
-      <c r="T939" s="6"/>
-      <c r="U939" s="6"/>
-      <c r="V939" s="6"/>
-      <c r="W939" s="6"/>
-    </row>
-    <row r="940" spans="17:23">
-      <c r="Q940" s="19"/>
-      <c r="S940" s="6"/>
-      <c r="T940" s="6"/>
-      <c r="U940" s="6"/>
-      <c r="V940" s="6"/>
-      <c r="W940" s="6"/>
-    </row>
-    <row r="941" spans="17:23">
-      <c r="Q941" s="19"/>
-      <c r="S941" s="6"/>
-      <c r="T941" s="6"/>
-      <c r="U941" s="6"/>
-      <c r="V941" s="6"/>
-      <c r="W941" s="6"/>
-    </row>
-    <row r="942" spans="17:23">
-      <c r="Q942" s="19"/>
-      <c r="S942" s="6"/>
-      <c r="T942" s="6"/>
-      <c r="U942" s="6"/>
-      <c r="V942" s="6"/>
-      <c r="W942" s="6"/>
-    </row>
-    <row r="943" spans="17:23">
-      <c r="Q943" s="19"/>
-      <c r="S943" s="6"/>
-      <c r="T943" s="6"/>
-      <c r="U943" s="6"/>
-      <c r="V943" s="6"/>
-      <c r="W943" s="6"/>
-    </row>
-    <row r="944" spans="17:23">
-      <c r="Q944" s="19"/>
-      <c r="S944" s="6"/>
-      <c r="T944" s="6"/>
-      <c r="U944" s="6"/>
-      <c r="V944" s="6"/>
-      <c r="W944" s="6"/>
-    </row>
-    <row r="945" spans="17:23">
-      <c r="Q945" s="19"/>
-      <c r="S945" s="6"/>
-      <c r="T945" s="6"/>
-      <c r="U945" s="6"/>
-      <c r="V945" s="6"/>
-      <c r="W945" s="6"/>
-    </row>
-    <row r="946" spans="17:23">
-      <c r="Q946" s="19"/>
-      <c r="S946" s="6"/>
-      <c r="T946" s="6"/>
-      <c r="U946" s="6"/>
-      <c r="V946" s="6"/>
-      <c r="W946" s="6"/>
-    </row>
-    <row r="947" spans="17:23">
-      <c r="Q947" s="19"/>
-      <c r="S947" s="6"/>
-      <c r="T947" s="6"/>
-      <c r="U947" s="6"/>
-      <c r="V947" s="6"/>
-      <c r="W947" s="6"/>
-    </row>
-    <row r="948" spans="17:23">
-      <c r="Q948" s="19"/>
-      <c r="S948" s="6"/>
-      <c r="T948" s="6"/>
-      <c r="U948" s="6"/>
-      <c r="V948" s="6"/>
-      <c r="W948" s="6"/>
-    </row>
-    <row r="949" spans="17:23">
-      <c r="Q949" s="19"/>
-      <c r="S949" s="6"/>
-      <c r="T949" s="6"/>
-      <c r="U949" s="6"/>
-      <c r="V949" s="6"/>
-      <c r="W949" s="6"/>
-    </row>
-    <row r="950" spans="17:23">
-      <c r="Q950" s="19"/>
-      <c r="S950" s="6"/>
-      <c r="T950" s="6"/>
-      <c r="U950" s="6"/>
-      <c r="V950" s="6"/>
-      <c r="W950" s="6"/>
-    </row>
-    <row r="951" spans="17:23">
-      <c r="Q951" s="19"/>
-      <c r="S951" s="6"/>
-      <c r="T951" s="6"/>
-      <c r="U951" s="6"/>
-      <c r="V951" s="6"/>
-      <c r="W951" s="6"/>
-    </row>
-    <row r="952" spans="17:23">
-      <c r="Q952" s="19"/>
-      <c r="S952" s="6"/>
-      <c r="T952" s="6"/>
-      <c r="U952" s="6"/>
-      <c r="V952" s="6"/>
-      <c r="W952" s="6"/>
-    </row>
-    <row r="953" spans="17:23">
-      <c r="Q953" s="19"/>
-      <c r="S953" s="6"/>
-      <c r="T953" s="6"/>
-      <c r="U953" s="6"/>
-      <c r="V953" s="6"/>
-      <c r="W953" s="6"/>
-    </row>
-    <row r="954" spans="17:23">
-      <c r="Q954" s="19"/>
-      <c r="S954" s="6"/>
-      <c r="T954" s="6"/>
-      <c r="U954" s="6"/>
-      <c r="V954" s="6"/>
-      <c r="W954" s="6"/>
-    </row>
-    <row r="955" spans="17:23">
-      <c r="Q955" s="19"/>
-      <c r="S955" s="6"/>
-      <c r="T955" s="6"/>
-      <c r="U955" s="6"/>
-      <c r="V955" s="6"/>
-      <c r="W955" s="6"/>
-    </row>
-    <row r="956" spans="17:23">
-      <c r="Q956" s="19"/>
-      <c r="S956" s="6"/>
-      <c r="T956" s="6"/>
-      <c r="U956" s="6"/>
-      <c r="V956" s="6"/>
-      <c r="W956" s="6"/>
-    </row>
-    <row r="957" spans="17:23">
-      <c r="Q957" s="19"/>
-      <c r="S957" s="6"/>
-      <c r="T957" s="6"/>
-      <c r="U957" s="6"/>
-      <c r="V957" s="6"/>
-      <c r="W957" s="6"/>
-    </row>
-    <row r="958" spans="17:23">
-      <c r="Q958" s="19"/>
-      <c r="S958" s="6"/>
-      <c r="T958" s="6"/>
-      <c r="U958" s="6"/>
-      <c r="V958" s="6"/>
-      <c r="W958" s="6"/>
-    </row>
-    <row r="959" spans="17:23">
-      <c r="Q959" s="19"/>
-      <c r="S959" s="6"/>
-      <c r="T959" s="6"/>
-      <c r="U959" s="6"/>
-      <c r="V959" s="6"/>
-      <c r="W959" s="6"/>
-    </row>
-    <row r="960" spans="17:23">
-      <c r="Q960" s="19"/>
-      <c r="S960" s="6"/>
-      <c r="T960" s="6"/>
-      <c r="U960" s="6"/>
-      <c r="V960" s="6"/>
-      <c r="W960" s="6"/>
-    </row>
-    <row r="961" spans="17:23">
-      <c r="Q961" s="19"/>
-      <c r="S961" s="6"/>
-      <c r="T961" s="6"/>
-      <c r="U961" s="6"/>
-      <c r="V961" s="6"/>
-      <c r="W961" s="6"/>
-    </row>
-    <row r="962" spans="17:23">
-      <c r="Q962" s="19"/>
-      <c r="S962" s="6"/>
-      <c r="T962" s="6"/>
-      <c r="U962" s="6"/>
-      <c r="V962" s="6"/>
-      <c r="W962" s="6"/>
-    </row>
-    <row r="963" spans="17:23">
-      <c r="Q963" s="19"/>
-      <c r="S963" s="6"/>
-      <c r="T963" s="6"/>
-      <c r="U963" s="6"/>
-      <c r="V963" s="6"/>
-      <c r="W963" s="6"/>
-    </row>
-    <row r="964" spans="17:23">
-      <c r="Q964" s="19"/>
-      <c r="S964" s="6"/>
-      <c r="T964" s="6"/>
-      <c r="U964" s="6"/>
-      <c r="V964" s="6"/>
-      <c r="W964" s="6"/>
-    </row>
-    <row r="965" spans="17:23">
-      <c r="Q965" s="19"/>
-      <c r="S965" s="6"/>
-      <c r="T965" s="6"/>
-      <c r="U965" s="6"/>
-      <c r="V965" s="6"/>
-      <c r="W965" s="6"/>
-    </row>
-    <row r="966" spans="17:23">
-      <c r="Q966" s="19"/>
-      <c r="S966" s="6"/>
-      <c r="T966" s="6"/>
-      <c r="U966" s="6"/>
-      <c r="V966" s="6"/>
-      <c r="W966" s="6"/>
-    </row>
-    <row r="967" spans="17:23">
-      <c r="Q967" s="19"/>
-      <c r="S967" s="6"/>
-      <c r="T967" s="6"/>
-      <c r="U967" s="6"/>
-      <c r="V967" s="6"/>
-      <c r="W967" s="6"/>
-    </row>
-    <row r="968" spans="17:23">
-      <c r="Q968" s="19"/>
-      <c r="S968" s="6"/>
-      <c r="T968" s="6"/>
-      <c r="U968" s="6"/>
-      <c r="V968" s="6"/>
-      <c r="W968" s="6"/>
-    </row>
-    <row r="969" spans="17:23">
-      <c r="Q969" s="19"/>
-      <c r="S969" s="6"/>
-      <c r="T969" s="6"/>
-      <c r="U969" s="6"/>
-      <c r="V969" s="6"/>
-      <c r="W969" s="6"/>
-    </row>
-    <row r="970" spans="17:23">
-      <c r="Q970" s="19"/>
-      <c r="S970" s="6"/>
-      <c r="T970" s="6"/>
-      <c r="U970" s="6"/>
-      <c r="V970" s="6"/>
-      <c r="W970" s="6"/>
-    </row>
-    <row r="971" spans="17:23">
-      <c r="Q971" s="19"/>
-      <c r="S971" s="6"/>
-      <c r="T971" s="6"/>
-      <c r="U971" s="6"/>
-      <c r="V971" s="6"/>
-      <c r="W971" s="6"/>
-    </row>
-    <row r="972" spans="17:23">
-      <c r="Q972" s="19"/>
-      <c r="S972" s="6"/>
-      <c r="T972" s="6"/>
-      <c r="U972" s="6"/>
-      <c r="V972" s="6"/>
-      <c r="W972" s="6"/>
-    </row>
-    <row r="973" spans="17:23">
-      <c r="Q973" s="19"/>
-      <c r="S973" s="6"/>
-      <c r="T973" s="6"/>
-      <c r="U973" s="6"/>
-      <c r="V973" s="6"/>
-      <c r="W973" s="6"/>
-    </row>
-    <row r="974" spans="17:23">
-      <c r="Q974" s="19"/>
-      <c r="S974" s="6"/>
-      <c r="T974" s="6"/>
-      <c r="U974" s="6"/>
-      <c r="V974" s="6"/>
-      <c r="W974" s="6"/>
-    </row>
-    <row r="975" spans="17:23">
-      <c r="Q975" s="19"/>
-      <c r="S975" s="6"/>
-      <c r="T975" s="6"/>
-      <c r="U975" s="6"/>
-      <c r="V975" s="6"/>
-      <c r="W975" s="6"/>
-    </row>
-    <row r="976" spans="17:23">
-      <c r="Q976" s="19"/>
-      <c r="S976" s="6"/>
-      <c r="T976" s="6"/>
-      <c r="U976" s="6"/>
-      <c r="V976" s="6"/>
-      <c r="W976" s="6"/>
-    </row>
-    <row r="977" spans="17:23">
-      <c r="Q977" s="19"/>
-      <c r="S977" s="6"/>
-      <c r="T977" s="6"/>
-      <c r="U977" s="6"/>
-      <c r="V977" s="6"/>
-      <c r="W977" s="6"/>
-    </row>
-    <row r="978" spans="17:23">
-      <c r="Q978" s="19"/>
-      <c r="S978" s="6"/>
-      <c r="T978" s="6"/>
-      <c r="U978" s="6"/>
-      <c r="V978" s="6"/>
-      <c r="W978" s="6"/>
-    </row>
-    <row r="979" spans="17:23">
-      <c r="Q979" s="19"/>
-      <c r="S979" s="6"/>
-      <c r="T979" s="6"/>
-      <c r="U979" s="6"/>
-      <c r="V979" s="6"/>
-      <c r="W979" s="6"/>
-    </row>
-    <row r="980" spans="17:23">
-      <c r="Q980" s="19"/>
-      <c r="S980" s="6"/>
-      <c r="T980" s="6"/>
-      <c r="U980" s="6"/>
-      <c r="V980" s="6"/>
-      <c r="W980" s="6"/>
-    </row>
-    <row r="981" spans="17:23">
-      <c r="Q981" s="19"/>
-      <c r="S981" s="6"/>
-      <c r="T981" s="6"/>
-      <c r="U981" s="6"/>
-      <c r="V981" s="6"/>
-      <c r="W981" s="6"/>
-    </row>
-    <row r="982" spans="17:23">
-      <c r="Q982" s="19"/>
-      <c r="S982" s="6"/>
-      <c r="T982" s="6"/>
-      <c r="U982" s="6"/>
-      <c r="V982" s="6"/>
-      <c r="W982" s="6"/>
-    </row>
-    <row r="983" spans="17:23">
-      <c r="Q983" s="19"/>
-      <c r="S983" s="6"/>
-      <c r="T983" s="6"/>
-      <c r="U983" s="6"/>
-      <c r="V983" s="6"/>
-      <c r="W983" s="6"/>
-    </row>
-    <row r="984" spans="17:23">
-      <c r="Q984" s="19"/>
-      <c r="S984" s="6"/>
-      <c r="T984" s="6"/>
-      <c r="U984" s="6"/>
-      <c r="V984" s="6"/>
-      <c r="W984" s="6"/>
-    </row>
-    <row r="985" spans="17:23">
-      <c r="Q985" s="19"/>
-      <c r="S985" s="6"/>
-      <c r="T985" s="6"/>
-      <c r="U985" s="6"/>
-      <c r="V985" s="6"/>
-      <c r="W985" s="6"/>
-    </row>
-    <row r="986" spans="17:23">
-      <c r="Q986" s="19"/>
-      <c r="S986" s="6"/>
-      <c r="T986" s="6"/>
-      <c r="U986" s="6"/>
-      <c r="V986" s="6"/>
-      <c r="W986" s="6"/>
-    </row>
-    <row r="987" spans="17:23">
-      <c r="Q987" s="19"/>
-      <c r="S987" s="6"/>
-      <c r="T987" s="6"/>
-      <c r="U987" s="6"/>
-      <c r="V987" s="6"/>
-      <c r="W987" s="6"/>
-    </row>
-    <row r="988" spans="17:23">
-      <c r="Q988" s="19"/>
-      <c r="S988" s="6"/>
-      <c r="T988" s="6"/>
-      <c r="U988" s="6"/>
-      <c r="V988" s="6"/>
-      <c r="W988" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
